--- a/contour_data.xlsx
+++ b/contour_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thorntontomasettigbr-my.sharepoint.com/personal/amccrone_thorntontomasetti_com/Documents/R&amp;D/Graph Digitizer/NA Plots/Excel_CSVs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{0DC470F0-22FC-4171-892E-4A202F40D8FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29F6610E-6CE2-41B8-A1E0-E10DE2A3C245}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{0DC470F0-22FC-4171-892E-4A202F40D8FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA480B11-3278-4F02-9ED1-88B5ADB62C30}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{5D713D43-6F59-44AB-BBC5-917AE4047E47}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
   <si>
     <t>X</t>
   </si>
@@ -892,7 +892,7 @@
   <dimension ref="A1:C274"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7079,12 +7079,2721 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D13B1B-3E70-468E-B40B-280FBA626341}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C246"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>9.8778829120916095E-2</v>
+      </c>
+      <c r="B2">
+        <v>162.44377226327401</v>
+      </c>
+      <c r="C2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.16442335096014499</v>
+      </c>
+      <c r="B3">
+        <v>161.814658939097</v>
+      </c>
+      <c r="C3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.247529275629367</v>
+      </c>
+      <c r="B4">
+        <v>162.44377226327401</v>
+      </c>
+      <c r="C4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.36470268335052403</v>
+      </c>
+      <c r="B5">
+        <v>163.075331494251</v>
+      </c>
+      <c r="C5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.68094011041345504</v>
+      </c>
+      <c r="B6">
+        <v>163.075331494251</v>
+      </c>
+      <c r="C6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.91390626749923998</v>
+      </c>
+      <c r="B7">
+        <v>176.23507521456801</v>
+      </c>
+      <c r="C7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1.1748786670889899</v>
+      </c>
+      <c r="B8">
+        <v>186.07378974277</v>
+      </c>
+      <c r="C8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1.5768332060096</v>
+      </c>
+      <c r="B9">
+        <v>200.31066706757801</v>
+      </c>
+      <c r="C9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9.8778829120916095E-2</v>
+      </c>
+      <c r="B10">
+        <v>116.352449287589</v>
+      </c>
+      <c r="C10">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.134490127388353</v>
+      </c>
+      <c r="B11">
+        <v>116.804811741197</v>
+      </c>
+      <c r="C11">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.193933173619633</v>
+      </c>
+      <c r="B12">
+        <v>116.804811741197</v>
+      </c>
+      <c r="C12">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.29617539250211999</v>
+      </c>
+      <c r="B13">
+        <v>116.804811741197</v>
+      </c>
+      <c r="C13">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.39466154842929502</v>
+      </c>
+      <c r="B14">
+        <v>116.352449287589</v>
+      </c>
+      <c r="C14">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.49300190071622502</v>
+      </c>
+      <c r="B15">
+        <v>116.804811741197</v>
+      </c>
+      <c r="C15">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.70077161311394998</v>
+      </c>
+      <c r="B16">
+        <v>128.70364050918201</v>
+      </c>
+      <c r="C16">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1.1173127268427001</v>
+      </c>
+      <c r="B17">
+        <v>145.155051010199</v>
+      </c>
+      <c r="C17">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1.7310332339848999</v>
+      </c>
+      <c r="B18">
+        <v>160.563732157733</v>
+      </c>
+      <c r="C18">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2.4782790719305798</v>
+      </c>
+      <c r="B19">
+        <v>172.848784021851</v>
+      </c>
+      <c r="C19">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3.6514267871000099</v>
+      </c>
+      <c r="B20">
+        <v>186.797219258827</v>
+      </c>
+      <c r="C20">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>5.1163083719627096</v>
+      </c>
+      <c r="B21">
+        <v>201.08944762091701</v>
+      </c>
+      <c r="C21">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>9.94903067745357E-2</v>
+      </c>
+      <c r="B22">
+        <v>81.737617389376695</v>
+      </c>
+      <c r="C22">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.13643449794086099</v>
+      </c>
+      <c r="B23">
+        <v>81.737617389376695</v>
+      </c>
+      <c r="C23">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0.18844495722447499</v>
+      </c>
+      <c r="B24">
+        <v>82.055402097655005</v>
+      </c>
+      <c r="C24">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0.25842108605286601</v>
+      </c>
+      <c r="B25">
+        <v>82.055402097655005</v>
+      </c>
+      <c r="C25">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0.33701800383753799</v>
+      </c>
+      <c r="B26">
+        <v>81.737617389376695</v>
+      </c>
+      <c r="C26">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0.48250065300691802</v>
+      </c>
+      <c r="B27">
+        <v>90.765850122412999</v>
+      </c>
+      <c r="C27">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0.66166982978874</v>
+      </c>
+      <c r="B28">
+        <v>99.238952060057898</v>
+      </c>
+      <c r="C28">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0.93379671953964405</v>
+      </c>
+      <c r="B29">
+        <v>109.773489846148</v>
+      </c>
+      <c r="C29">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1.26229824630369</v>
+      </c>
+      <c r="B30">
+        <v>118.172478820447</v>
+      </c>
+      <c r="C30">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2.14690233356403</v>
+      </c>
+      <c r="B31">
+        <v>132.761595432099</v>
+      </c>
+      <c r="C31">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>3.2320298568961499</v>
+      </c>
+      <c r="B32">
+        <v>144.59289356094899</v>
+      </c>
+      <c r="C32">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>4.7619820260936896</v>
+      </c>
+      <c r="B33">
+        <v>156.86867595580401</v>
+      </c>
+      <c r="C33">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>7.2205075081289403</v>
+      </c>
+      <c r="B34">
+        <v>168.87101168925199</v>
+      </c>
+      <c r="C34">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>10.7151192266465</v>
+      </c>
+      <c r="B35">
+        <v>179.68770744698</v>
+      </c>
+      <c r="C35">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>14.9064499765483</v>
+      </c>
+      <c r="B36">
+        <v>189.719172838562</v>
+      </c>
+      <c r="C36">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>21.037069337930699</v>
+      </c>
+      <c r="B37">
+        <v>200.31066706757801</v>
+      </c>
+      <c r="C37">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0.100206909012604</v>
+      </c>
+      <c r="B38">
+        <v>54.384553033473402</v>
+      </c>
+      <c r="C38">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0.138406978934773</v>
+      </c>
+      <c r="B39">
+        <v>54.5959927581996</v>
+      </c>
+      <c r="C39">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0.185759369406689</v>
+      </c>
+      <c r="B40">
+        <v>54.5959927581996</v>
+      </c>
+      <c r="C40">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>0.23038680935231601</v>
+      </c>
+      <c r="B41">
+        <v>54.5959927581996</v>
+      </c>
+      <c r="C41">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>0.29830866513951199</v>
+      </c>
+      <c r="B42">
+        <v>60.8620360512895</v>
+      </c>
+      <c r="C42">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0.449085408883591</v>
+      </c>
+      <c r="B43">
+        <v>69.176439625776695</v>
+      </c>
+      <c r="C43">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0.65693807939786197</v>
+      </c>
+      <c r="B44">
+        <v>78.018846886208806</v>
+      </c>
+      <c r="C44">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0.900881904445199</v>
+      </c>
+      <c r="B45">
+        <v>85.3020006475938</v>
+      </c>
+      <c r="C45">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1.2532712664544501</v>
+      </c>
+      <c r="B46">
+        <v>92.544049492506204</v>
+      </c>
+      <c r="C46">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1.718654224375</v>
+      </c>
+      <c r="B47">
+        <v>100.012107125764</v>
+      </c>
+      <c r="C47">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2.1011719759737399</v>
+      </c>
+      <c r="B48">
+        <v>105.186554177193</v>
+      </c>
+      <c r="C48">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>3.1631856068398401</v>
+      </c>
+      <c r="B49">
+        <v>114.560450879521</v>
+      </c>
+      <c r="C49">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>4.6941175360794496</v>
+      </c>
+      <c r="B50">
+        <v>124.769719935979</v>
+      </c>
+      <c r="C50">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>7.3248968967449901</v>
+      </c>
+      <c r="B51">
+        <v>134.83830310774599</v>
+      </c>
+      <c r="C51">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>10.870031432437999</v>
+      </c>
+      <c r="B52">
+        <v>144.03291323881601</v>
+      </c>
+      <c r="C52">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>17.456048526607201</v>
+      </c>
+      <c r="B53">
+        <v>155.05315912809701</v>
+      </c>
+      <c r="C53">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>26.8509530236222</v>
+      </c>
+      <c r="B54">
+        <v>166.27015037546801</v>
+      </c>
+      <c r="C54">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>38.1669637311226</v>
+      </c>
+      <c r="B55">
+        <v>174.87266975113801</v>
+      </c>
+      <c r="C55">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>45.996724929245502</v>
+      </c>
+      <c r="B56">
+        <v>178.99181169566401</v>
+      </c>
+      <c r="C56">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>60.418363912476202</v>
+      </c>
+      <c r="B57">
+        <v>178.29861101405399</v>
+      </c>
+      <c r="C57">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>96.331252110017502</v>
+      </c>
+      <c r="B58">
+        <v>178.99181169566401</v>
+      </c>
+      <c r="C58">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>9.8778829120916095E-2</v>
+      </c>
+      <c r="B59">
+        <v>33.613232445261197</v>
+      </c>
+      <c r="C59">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>0.13940388761949199</v>
+      </c>
+      <c r="B60">
+        <v>33.613232445261197</v>
+      </c>
+      <c r="C60">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>0.201018757777637</v>
+      </c>
+      <c r="B61">
+        <v>39.105084733003302</v>
+      </c>
+      <c r="C61">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>0.26215716958275398</v>
+      </c>
+      <c r="B62">
+        <v>43.593219146130998</v>
+      </c>
+      <c r="C62">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>0.36732953985133698</v>
+      </c>
+      <c r="B63">
+        <v>49.934542768812499</v>
+      </c>
+      <c r="C63">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>0.54511124190995397</v>
+      </c>
+      <c r="B64">
+        <v>56.317374350112502</v>
+      </c>
+      <c r="C64">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>0.80893648296532505</v>
+      </c>
+      <c r="B65">
+        <v>64.259794400952501</v>
+      </c>
+      <c r="C65">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1.1013895549411401</v>
+      </c>
+      <c r="B66">
+        <v>69.986426284079201</v>
+      </c>
+      <c r="C66">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1.6820458183818701</v>
+      </c>
+      <c r="B67">
+        <v>78.322173521971095</v>
+      </c>
+      <c r="C67">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>2.8814097867749</v>
+      </c>
+      <c r="B68">
+        <v>89.021818189525604</v>
+      </c>
+      <c r="C68">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>4.6272202040636197</v>
+      </c>
+      <c r="B69">
+        <v>97.710526614793096</v>
+      </c>
+      <c r="C69">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>7.2205075081289403</v>
+      </c>
+      <c r="B70">
+        <v>107.247270450195</v>
+      </c>
+      <c r="C70">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>10.792297382669201</v>
+      </c>
+      <c r="B71">
+        <v>115.452973332534</v>
+      </c>
+      <c r="C71">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>16.130955153061102</v>
+      </c>
+      <c r="B72">
+        <v>122.848083211789</v>
+      </c>
+      <c r="C72">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>23.596933873778799</v>
+      </c>
+      <c r="B73">
+        <v>130.71687210118799</v>
+      </c>
+      <c r="C73">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>32.127882775106499</v>
+      </c>
+      <c r="B74">
+        <v>135.36253603973501</v>
+      </c>
+      <c r="C74">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>47.677271167909801</v>
+      </c>
+      <c r="B75">
+        <v>135.36253603973501</v>
+      </c>
+      <c r="C75">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>66.804467363412599</v>
+      </c>
+      <c r="B76">
+        <v>135.36253603973501</v>
+      </c>
+      <c r="C76">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>97.025100516922294</v>
+      </c>
+      <c r="B77">
+        <v>135.36253603973501</v>
+      </c>
+      <c r="C77">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>9.94903067745357E-2</v>
+      </c>
+      <c r="B78">
+        <v>20.855960608357499</v>
+      </c>
+      <c r="C78">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>0.16560764865816799</v>
+      </c>
+      <c r="B79">
+        <v>26.735188352834701</v>
+      </c>
+      <c r="C79">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>0.247529275629367</v>
+      </c>
+      <c r="B80">
+        <v>32.333911082490602</v>
+      </c>
+      <c r="C80">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>0.34933136613849602</v>
+      </c>
+      <c r="B81">
+        <v>36.608738584215303</v>
+      </c>
+      <c r="C81">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>0.53734269170742399</v>
+      </c>
+      <c r="B82">
+        <v>42.921819620029297</v>
+      </c>
+      <c r="C82">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>0.80315159547742399</v>
+      </c>
+      <c r="B83">
+        <v>49.548518058355199</v>
+      </c>
+      <c r="C83">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>1.3273340985534501</v>
+      </c>
+      <c r="B84">
+        <v>57.198312268977297</v>
+      </c>
+      <c r="C84">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>2.3568499669815002</v>
+      </c>
+      <c r="B85">
+        <v>66.543580761108203</v>
+      </c>
+      <c r="C85">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>3.8120972703762201</v>
+      </c>
+      <c r="B86">
+        <v>74.180862123002697</v>
+      </c>
+      <c r="C86">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>5.9914015314563001</v>
+      </c>
+      <c r="B87">
+        <v>81.737617389376695</v>
+      </c>
+      <c r="C87">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>8.76443486498707</v>
+      </c>
+      <c r="B88">
+        <v>87.991525761981606</v>
+      </c>
+      <c r="C88">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>12.729241131785701</v>
+      </c>
+      <c r="B89">
+        <v>93.627647402426504</v>
+      </c>
+      <c r="C89">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>19.580161863950099</v>
+      </c>
+      <c r="B90">
+        <v>100.791285720974</v>
+      </c>
+      <c r="C90">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>27.435342924806399</v>
+      </c>
+      <c r="B91">
+        <v>100.791285720974</v>
+      </c>
+      <c r="C91">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>43.4301912138448</v>
+      </c>
+      <c r="B92">
+        <v>100.791285720974</v>
+      </c>
+      <c r="C92">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>63.531225552021397</v>
+      </c>
+      <c r="B93">
+        <v>100.791285720974</v>
+      </c>
+      <c r="C93">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>97.723946529497297</v>
+      </c>
+      <c r="B94">
+        <v>100.791285720974</v>
+      </c>
+      <c r="C94">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>9.8778829120916095E-2</v>
+      </c>
+      <c r="B95">
+        <v>15.5294008679423</v>
+      </c>
+      <c r="C95">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>0.142437903732029</v>
+      </c>
+      <c r="B96">
+        <v>18.708737798052301</v>
+      </c>
+      <c r="C96">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>0.20539377314079699</v>
+      </c>
+      <c r="B97">
+        <v>22.191847557687002</v>
+      </c>
+      <c r="C97">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>0.29405737537915799</v>
+      </c>
+      <c r="B98">
+        <v>26.119930958121</v>
+      </c>
+      <c r="C98">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>0.42099494396845299</v>
+      </c>
+      <c r="B99">
+        <v>29.803615891275602</v>
+      </c>
+      <c r="C99">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>0.64757585008137597</v>
+      </c>
+      <c r="B100">
+        <v>34.943171351485397</v>
+      </c>
+      <c r="C100">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>0.92048889145434398</v>
+      </c>
+      <c r="B101">
+        <v>39.2571199689324</v>
+      </c>
+      <c r="C101">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>1.3084178466265699</v>
+      </c>
+      <c r="B102">
+        <v>43.762703636525103</v>
+      </c>
+      <c r="C102">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>1.62275643994015</v>
+      </c>
+      <c r="B103">
+        <v>46.5658363117942</v>
+      </c>
+      <c r="C103">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>2.72063235366377</v>
+      </c>
+      <c r="B104">
+        <v>53.133000286941098</v>
+      </c>
+      <c r="C104">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>4.0373754903737398</v>
+      </c>
+      <c r="B105">
+        <v>58.773241216454302</v>
+      </c>
+      <c r="C105">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>5.9914015314563001</v>
+      </c>
+      <c r="B106">
+        <v>64.5096277172388</v>
+      </c>
+      <c r="C106">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>7.8699228832080301</v>
+      </c>
+      <c r="B107">
+        <v>67.847240157605498</v>
+      </c>
+      <c r="C107">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>11.430074797989899</v>
+      </c>
+      <c r="B108">
+        <v>72.755504544385204</v>
+      </c>
+      <c r="C108">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>21.649746856857298</v>
+      </c>
+      <c r="B109">
+        <v>73.038368022985793</v>
+      </c>
+      <c r="C109">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>38.1669637311226</v>
+      </c>
+      <c r="B110">
+        <v>72.755504544385204</v>
+      </c>
+      <c r="C110">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>62.177970857002201</v>
+      </c>
+      <c r="B111">
+        <v>73.038368022985793</v>
+      </c>
+      <c r="C111">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>97.723946529497297</v>
+      </c>
+      <c r="B112">
+        <v>72.755504544385204</v>
+      </c>
+      <c r="C112">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>9.8778829120916095E-2</v>
+      </c>
+      <c r="B113">
+        <v>11.4738401676197</v>
+      </c>
+      <c r="C113">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>0.14040797677251901</v>
+      </c>
+      <c r="B114">
+        <v>13.8228814529404</v>
+      </c>
+      <c r="C114">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>0.19815397680930799</v>
+      </c>
+      <c r="B115">
+        <v>16.143836103775801</v>
+      </c>
+      <c r="C115">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>0.30045730317274999</v>
+      </c>
+      <c r="B116">
+        <v>19.6004903046789</v>
+      </c>
+      <c r="C116">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>0.44268535275575899</v>
+      </c>
+      <c r="B117">
+        <v>23.069888713533199</v>
+      </c>
+      <c r="C117">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>0.63834704481279203</v>
+      </c>
+      <c r="B118">
+        <v>26.425769126525001</v>
+      </c>
+      <c r="C118">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>0.89443949448243298</v>
+      </c>
+      <c r="B119">
+        <v>29.688192248961599</v>
+      </c>
+      <c r="C119">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>1.3465238293142401</v>
+      </c>
+      <c r="B120">
+        <v>33.613232445261197</v>
+      </c>
+      <c r="C120">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>2.2413705662831398</v>
+      </c>
+      <c r="B121">
+        <v>39.105084733003302</v>
+      </c>
+      <c r="C121">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>3.4230286382752402</v>
+      </c>
+      <c r="B122">
+        <v>43.762703636525103</v>
+      </c>
+      <c r="C122">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>4.6272202040636197</v>
+      </c>
+      <c r="B123">
+        <v>46.928623417925003</v>
+      </c>
+      <c r="C123">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>6.3000892016719199</v>
+      </c>
+      <c r="B124">
+        <v>49.934542768812499</v>
+      </c>
+      <c r="C124">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>10.263503419808099</v>
+      </c>
+      <c r="B125">
+        <v>49.741155938681302</v>
+      </c>
+      <c r="C125">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>15.6744568093882</v>
+      </c>
+      <c r="B126">
+        <v>49.934542768812499</v>
+      </c>
+      <c r="C126">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>25.535327503632601</v>
+      </c>
+      <c r="B127">
+        <v>49.934542768812499</v>
+      </c>
+      <c r="C127">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>42.505101076592801</v>
+      </c>
+      <c r="B128">
+        <v>49.934542768812499</v>
+      </c>
+      <c r="C128">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>71.2619283698494</v>
+      </c>
+      <c r="B129">
+        <v>49.934542768812499</v>
+      </c>
+      <c r="C129">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>96.331252110017502</v>
+      </c>
+      <c r="B130">
+        <v>49.934542768812499</v>
+      </c>
+      <c r="C130">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>0.100206909012604</v>
+      </c>
+      <c r="B131">
+        <v>8.6770902450238108</v>
+      </c>
+      <c r="C131">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>0.13940388761949199</v>
+      </c>
+      <c r="B132">
+        <v>10.2526913257988</v>
+      </c>
+      <c r="C132">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>0.18844495722447499</v>
+      </c>
+      <c r="B133">
+        <v>11.9278133600987</v>
+      </c>
+      <c r="C133">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>0.26215716958275398</v>
+      </c>
+      <c r="B134">
+        <v>13.716022082358799</v>
+      </c>
+      <c r="C134">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>0.37802753905880099</v>
+      </c>
+      <c r="B135">
+        <v>15.956995704113099</v>
+      </c>
+      <c r="C135">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>0.55299210474496296</v>
+      </c>
+      <c r="B136">
+        <v>18.854494631445501</v>
+      </c>
+      <c r="C136">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>0.79170563177312203</v>
+      </c>
+      <c r="B137">
+        <v>21.430219791654299</v>
+      </c>
+      <c r="C137">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>1.0324972150009799</v>
+      </c>
+      <c r="B138">
+        <v>23.521852326755599</v>
+      </c>
+      <c r="C138">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>1.3273340985534501</v>
+      </c>
+      <c r="B139">
+        <v>25.6180462336972</v>
+      </c>
+      <c r="C139">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>2.0564157034979198</v>
+      </c>
+      <c r="B140">
+        <v>29.117744715642999</v>
+      </c>
+      <c r="C140">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>3.0081978972728298</v>
+      </c>
+      <c r="B141">
+        <v>32.2086880960915</v>
+      </c>
+      <c r="C141">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>4.7279280171319797</v>
+      </c>
+      <c r="B142">
+        <v>32.333911082490602</v>
+      </c>
+      <c r="C142">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>7.1176058052249598</v>
+      </c>
+      <c r="B143">
+        <v>32.333911082490602</v>
+      </c>
+      <c r="C143">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>10.6384929890483</v>
+      </c>
+      <c r="B144">
+        <v>32.459620918781702</v>
+      </c>
+      <c r="C144">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>17.964433431830699</v>
+      </c>
+      <c r="B145">
+        <v>32.2086880960915</v>
+      </c>
+      <c r="C145">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>29.265938633627599</v>
+      </c>
+      <c r="B146">
+        <v>32.2086880960915</v>
+      </c>
+      <c r="C146">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>44.0580765949191</v>
+      </c>
+      <c r="B147">
+        <v>32.2086880960915</v>
+      </c>
+      <c r="C147">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>67.2856421871479</v>
+      </c>
+      <c r="B148">
+        <v>32.2086880960915</v>
+      </c>
+      <c r="C148">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>98.427826144167994</v>
+      </c>
+      <c r="B149">
+        <v>32.2086880960915</v>
+      </c>
+      <c r="C149">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>9.8778829120916095E-2</v>
+      </c>
+      <c r="B150">
+        <v>6.6906059489845999</v>
+      </c>
+      <c r="C150">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>0.13643449794086099</v>
+      </c>
+      <c r="B151">
+        <v>7.7837415064514097</v>
+      </c>
+      <c r="C151">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>0.201018757777637</v>
+      </c>
+      <c r="B152">
+        <v>9.2328839499580795</v>
+      </c>
+      <c r="C152">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>0.29195450467499601</v>
+      </c>
+      <c r="B153">
+        <v>10.867156990437801</v>
+      </c>
+      <c r="C153">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>0.45557799284904898</v>
+      </c>
+      <c r="B154">
+        <v>12.9907827785461</v>
+      </c>
+      <c r="C154">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>0.67123582067228504</v>
+      </c>
+      <c r="B155">
+        <v>15.1132641625695</v>
+      </c>
+      <c r="C155">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>0.94052260913449104</v>
+      </c>
+      <c r="B156">
+        <v>17.0451016130494</v>
+      </c>
+      <c r="C156">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>1.20909549336022</v>
+      </c>
+      <c r="B157">
+        <v>18.564107754578199</v>
+      </c>
+      <c r="C157">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>1.56555691562582</v>
+      </c>
+      <c r="B158">
+        <v>19.676694337687501</v>
+      </c>
+      <c r="C158">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>2.40814495521147</v>
+      </c>
+      <c r="B159">
+        <v>19.8299923682263</v>
+      </c>
+      <c r="C159">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>5.0073278153094298</v>
+      </c>
+      <c r="B160">
+        <v>19.8299923682263</v>
+      </c>
+      <c r="C160">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>7.9266078461392802</v>
+      </c>
+      <c r="B161">
+        <v>19.7531946415831</v>
+      </c>
+      <c r="C161">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>14.176073442637399</v>
+      </c>
+      <c r="B162">
+        <v>19.7531946415831</v>
+      </c>
+      <c r="C162">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>29.9028887996467</v>
+      </c>
+      <c r="B163">
+        <v>19.7531946415831</v>
+      </c>
+      <c r="C163">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>53.4788090945205</v>
+      </c>
+      <c r="B164">
+        <v>19.676694337687501</v>
+      </c>
+      <c r="C164">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>99.136775616632406</v>
+      </c>
+      <c r="B165">
+        <v>19.7531946415831</v>
+      </c>
+      <c r="C165">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>9.8778829120916095E-2</v>
+      </c>
+      <c r="B166">
+        <v>5.2599644622797399</v>
+      </c>
+      <c r="C166">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>0.144497178051681</v>
+      </c>
+      <c r="B167">
+        <v>6.1910081276367803</v>
+      </c>
+      <c r="C167">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>0.20836322236297</v>
+      </c>
+      <c r="B168">
+        <v>7.2586312557389396</v>
+      </c>
+      <c r="C168">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>0.31143487584782398</v>
+      </c>
+      <c r="B169">
+        <v>8.6100110036066102</v>
+      </c>
+      <c r="C169">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>0.42402725866165297</v>
+      </c>
+      <c r="B170">
+        <v>9.7483302045986999</v>
+      </c>
+      <c r="C170">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>0.56098690395524498</v>
+      </c>
+      <c r="B171">
+        <v>10.7831471868405</v>
+      </c>
+      <c r="C171">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>0.72118068275953295</v>
+      </c>
+      <c r="B172">
+        <v>11.744107536251301</v>
+      </c>
+      <c r="C172">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>0.94729694352454596</v>
+      </c>
+      <c r="B173">
+        <v>11.7897670245824</v>
+      </c>
+      <c r="C173">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>1.33689453329855</v>
+      </c>
+      <c r="B174">
+        <v>11.835604030776601</v>
+      </c>
+      <c r="C174">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>2.3909237667574801</v>
+      </c>
+      <c r="B175">
+        <v>11.835604030776601</v>
+      </c>
+      <c r="C175">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>4.0957452321930097</v>
+      </c>
+      <c r="B176">
+        <v>11.835604030776601</v>
+      </c>
+      <c r="C176">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>6.8176163024958703</v>
+      </c>
+      <c r="B177">
+        <v>11.835604030776601</v>
+      </c>
+      <c r="C177">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>11.595323365165401</v>
+      </c>
+      <c r="B178">
+        <v>11.7897670245824</v>
+      </c>
+      <c r="C178">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>17.964433431830699</v>
+      </c>
+      <c r="B179">
+        <v>11.7897670245824</v>
+      </c>
+      <c r="C179">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>28.437726516891999</v>
+      </c>
+      <c r="B180">
+        <v>11.7897670245824</v>
+      </c>
+      <c r="C180">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>51.593768082933998</v>
+      </c>
+      <c r="B181">
+        <v>11.7897670245824</v>
+      </c>
+      <c r="C181">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>98.427826144167994</v>
+      </c>
+      <c r="B182">
+        <v>11.7897670245824</v>
+      </c>
+      <c r="C182">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>0.100206909012604</v>
+      </c>
+      <c r="B183">
+        <v>4.1836541861088303</v>
+      </c>
+      <c r="C183">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>0.14553795282204199</v>
+      </c>
+      <c r="B184">
+        <v>4.90511438725642</v>
+      </c>
+      <c r="C184">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>0.220676574441273</v>
+      </c>
+      <c r="B185">
+        <v>5.8183268112477604</v>
+      </c>
+      <c r="C185">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>0.32050501503767698</v>
+      </c>
+      <c r="B186">
+        <v>6.7166181123875903</v>
+      </c>
+      <c r="C186">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>0.406155557144254</v>
+      </c>
+      <c r="B187">
+        <v>7.2305199802209703</v>
+      </c>
+      <c r="C187">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>0.65224016682269503</v>
+      </c>
+      <c r="B188">
+        <v>7.2025175742382297</v>
+      </c>
+      <c r="C188">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>0.92711892830032805</v>
+      </c>
+      <c r="B189">
+        <v>7.2025175742382297</v>
+      </c>
+      <c r="C189">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>1.4363692797802201</v>
+      </c>
+      <c r="B190">
+        <v>7.2025175742382297</v>
+      </c>
+      <c r="C190">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>2.58732858035484</v>
+      </c>
+      <c r="B191">
+        <v>7.2025175742382297</v>
+      </c>
+      <c r="C191">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>4.1252457965706002</v>
+      </c>
+      <c r="B192">
+        <v>7.2025175742382297</v>
+      </c>
+      <c r="C192">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>6.4835711762327399</v>
+      </c>
+      <c r="B193">
+        <v>7.2025175742382297</v>
+      </c>
+      <c r="C193">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>10.337428707200401</v>
+      </c>
+      <c r="B194">
+        <v>7.2305199802209703</v>
+      </c>
+      <c r="C194">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>17.581779804834699</v>
+      </c>
+      <c r="B195">
+        <v>7.2305199802209703</v>
+      </c>
+      <c r="C195">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>29.265938633627599</v>
+      </c>
+      <c r="B196">
+        <v>7.2025175742382297</v>
+      </c>
+      <c r="C196">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>50.858489213825401</v>
+      </c>
+      <c r="B197">
+        <v>7.2025175742382297</v>
+      </c>
+      <c r="C197">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>76.016808986202506</v>
+      </c>
+      <c r="B198">
+        <v>7.2025175742382297</v>
+      </c>
+      <c r="C198">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>99.850831463728696</v>
+      </c>
+      <c r="B199">
+        <v>7.2025175742382297</v>
+      </c>
+      <c r="C199">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>9.94903067745357E-2</v>
+      </c>
+      <c r="B200">
+        <v>3.37963317258555</v>
+      </c>
+      <c r="C200">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>0.13162540386475299</v>
+      </c>
+      <c r="B201">
+        <v>3.7675174605034201</v>
+      </c>
+      <c r="C201">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>0.17665765272819201</v>
+      </c>
+      <c r="B202">
+        <v>4.2326405764467996</v>
+      </c>
+      <c r="C202">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>0.22386697243779499</v>
+      </c>
+      <c r="B203">
+        <v>4.57420336669764</v>
+      </c>
+      <c r="C203">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>0.33701800383753799</v>
+      </c>
+      <c r="B204">
+        <v>4.57420336669764</v>
+      </c>
+      <c r="C204">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>0.51840223607097702</v>
+      </c>
+      <c r="B205">
+        <v>4.5919872455152397</v>
+      </c>
+      <c r="C205">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>0.74218414024275703</v>
+      </c>
+      <c r="B206">
+        <v>4.5919872455152397</v>
+      </c>
+      <c r="C206">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>1.09351326948505</v>
+      </c>
+      <c r="B207">
+        <v>4.57420336669764</v>
+      </c>
+      <c r="C207">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>1.87323068267758</v>
+      </c>
+      <c r="B208">
+        <v>4.57420336669764</v>
+      </c>
+      <c r="C208">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>3.2089168814358899</v>
+      </c>
+      <c r="B209">
+        <v>4.57420336669764</v>
+      </c>
+      <c r="C209">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>5.4186597447755203</v>
+      </c>
+      <c r="B210">
+        <v>4.5919872455152397</v>
+      </c>
+      <c r="C210">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>8.3950355853980199</v>
+      </c>
+      <c r="B211">
+        <v>4.5919872455152397</v>
+      </c>
+      <c r="C211">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>15.121957708897501</v>
+      </c>
+      <c r="B212">
+        <v>4.5388419629019303</v>
+      </c>
+      <c r="C212">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>25.352718609503199</v>
+      </c>
+      <c r="B213">
+        <v>4.5919872455152397</v>
+      </c>
+      <c r="C213">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>41.599715935752499</v>
+      </c>
+      <c r="B214">
+        <v>4.5919872455152397</v>
+      </c>
+      <c r="C214">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>68.258414120789197</v>
+      </c>
+      <c r="B215">
+        <v>4.5919872455152397</v>
+      </c>
+      <c r="C215">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>99.136775616632406</v>
+      </c>
+      <c r="B216">
+        <v>4.5919872455152397</v>
+      </c>
+      <c r="C216">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>9.94903067745357E-2</v>
+      </c>
+      <c r="B217">
+        <v>2.7944386066395799</v>
+      </c>
+      <c r="C217">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>0.134490127388353</v>
+      </c>
+      <c r="B218">
+        <v>3.09107736069191</v>
+      </c>
+      <c r="C218">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>0.19958122724070401</v>
+      </c>
+      <c r="B219">
+        <v>3.0791062156822999</v>
+      </c>
+      <c r="C219">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>0.33944545494960099</v>
+      </c>
+      <c r="B220">
+        <v>3.0791062156822999</v>
+      </c>
+      <c r="C220">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>0.52213614960116705</v>
+      </c>
+      <c r="B221">
+        <v>3.1030950478805899</v>
+      </c>
+      <c r="C221">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>0.97488574554455099</v>
+      </c>
+      <c r="B222">
+        <v>3.1030950478805899</v>
+      </c>
+      <c r="C222">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>1.6700171288447501</v>
+      </c>
+      <c r="B223">
+        <v>3.09107736069191</v>
+      </c>
+      <c r="C223">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>2.4782790719305798</v>
+      </c>
+      <c r="B224">
+        <v>3.1030950478805899</v>
+      </c>
+      <c r="C224">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>4.4004986801861499</v>
+      </c>
+      <c r="B225">
+        <v>3.09107736069191</v>
+      </c>
+      <c r="C225">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>7.16887202818749</v>
+      </c>
+      <c r="B226">
+        <v>3.1030950478805899</v>
+      </c>
+      <c r="C226">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>11.106609128175</v>
+      </c>
+      <c r="B227">
+        <v>3.11515945819797</v>
+      </c>
+      <c r="C227">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>21.805684229594501</v>
+      </c>
+      <c r="B228">
+        <v>3.1030950478805899</v>
+      </c>
+      <c r="C228">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>35.523737442051903</v>
+      </c>
+      <c r="B229">
+        <v>3.1030950478805899</v>
+      </c>
+      <c r="C229">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>67.7702827852561</v>
+      </c>
+      <c r="B230">
+        <v>3.09107736069191</v>
+      </c>
+      <c r="C230">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>99.136775616632406</v>
+      </c>
+      <c r="B231">
+        <v>3.09107736069191</v>
+      </c>
+      <c r="C231">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>0.10092867274614099</v>
+      </c>
+      <c r="B232">
+        <v>2.20544958307566</v>
+      </c>
+      <c r="C232">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>0.18050246777555501</v>
+      </c>
+      <c r="B233">
+        <v>2.19690830322737</v>
+      </c>
+      <c r="C233">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>0.29830866513951199</v>
+      </c>
+      <c r="B234">
+        <v>2.19690830322737</v>
+      </c>
+      <c r="C234">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>0.52968485353504402</v>
+      </c>
+      <c r="B235">
+        <v>2.20544958307566</v>
+      </c>
+      <c r="C235">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>0.81476303746034695</v>
+      </c>
+      <c r="B236">
+        <v>2.19690830322737</v>
+      </c>
+      <c r="C236">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>1.1918642966472099</v>
+      </c>
+      <c r="B237">
+        <v>2.19690830322737</v>
+      </c>
+      <c r="C237">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>1.6820458183818701</v>
+      </c>
+      <c r="B238">
+        <v>2.20544958307566</v>
+      </c>
+      <c r="C238">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>2.4782790719305798</v>
+      </c>
+      <c r="B239">
+        <v>2.19690830322737</v>
+      </c>
+      <c r="C239">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>4.6605488414130098</v>
+      </c>
+      <c r="B240">
+        <v>2.19690830322737</v>
+      </c>
+      <c r="C240">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>7.3776561823478</v>
+      </c>
+      <c r="B241">
+        <v>2.19690830322737</v>
+      </c>
+      <c r="C241">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>12.1927350619441</v>
+      </c>
+      <c r="B242">
+        <v>2.19690830322737</v>
+      </c>
+      <c r="C242">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>24.2841641465808</v>
+      </c>
+      <c r="B243">
+        <v>2.20544958307566</v>
+      </c>
+      <c r="C243">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>40.713616062621298</v>
+      </c>
+      <c r="B244">
+        <v>2.20544958307566</v>
+      </c>
+      <c r="C244">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>70.752318225577895</v>
+      </c>
+      <c r="B245">
+        <v>2.20544958307566</v>
+      </c>
+      <c r="C245">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>99.850831463728696</v>
+      </c>
+      <c r="B246">
+        <v>2.20544958307566</v>
+      </c>
+      <c r="C246">
+        <v>0.21</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/contour_data.xlsx
+++ b/contour_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thorntontomasettigbr-my.sharepoint.com/personal/amccrone_thorntontomasetti_com/Documents/R&amp;D/Graph Digitizer/NA Plots/Excel_CSVs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{0DC470F0-22FC-4171-892E-4A202F40D8FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA480B11-3278-4F02-9ED1-88B5ADB62C30}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{0DC470F0-22FC-4171-892E-4A202F40D8FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E514FDD-771E-4CD8-A79C-7900032AB93F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{5D713D43-6F59-44AB-BBC5-917AE4047E47}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{5D713D43-6F59-44AB-BBC5-917AE4047E47}"/>
   </bookViews>
   <sheets>
     <sheet name="NA.3" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="3">
   <si>
     <t>X</t>
   </si>
@@ -891,9 +891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F310B867-9AF6-4746-B1BF-BBCA3FE770BE}">
   <dimension ref="A1:C274"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3920,9 +3918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B391DE-D223-4375-ADCD-508A9BC7CB9A}">
   <dimension ref="A1:C286"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -7081,9 +7077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D13B1B-3E70-468E-B40B-280FBA626341}">
   <dimension ref="A1:C246"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -9800,12 +9794,2950 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A3FBCA-AD34-4F10-8370-6BA350BEDFFB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C267"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>9.8648951460132805E-2</v>
+      </c>
+      <c r="B2">
+        <v>33.394644831361298</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.12124778626520701</v>
+      </c>
+      <c r="B3">
+        <v>37.884830211773199</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.12057373122131999</v>
+      </c>
+      <c r="B4">
+        <v>40.034584092368398</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.14902363843324301</v>
+      </c>
+      <c r="B5">
+        <v>45.9579089970022</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.14902363843324301</v>
+      </c>
+      <c r="B6">
+        <v>48.757606479574001</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.18316247657755999</v>
+      </c>
+      <c r="B7">
+        <v>55.095832931932399</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.18418642756536999</v>
+      </c>
+      <c r="B8">
+        <v>58.683095048807402</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.212915205204845</v>
+      </c>
+      <c r="B9">
+        <v>63.4973840832875</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.21173154179613901</v>
+      </c>
+      <c r="B10">
+        <v>66.573521097538006</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.251675071115944</v>
+      </c>
+      <c r="B11">
+        <v>74.343239127138105</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.27362574768875703</v>
+      </c>
+      <c r="B12">
+        <v>82.367739781059598</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.29749092536756999</v>
+      </c>
+      <c r="B13">
+        <v>87.385477940669901</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.29749092536756999</v>
+      </c>
+      <c r="B14">
+        <v>92.3441188864129</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.369740736489097</v>
+      </c>
+      <c r="B15">
+        <v>106.006911484291</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.369740736489097</v>
+      </c>
+      <c r="B16">
+        <v>111.142426732533</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.42503553186019799</v>
+      </c>
+      <c r="B17">
+        <v>122.171881534435</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.42503553186019799</v>
+      </c>
+      <c r="B18">
+        <v>128.09051034591101</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.52240410627102096</v>
+      </c>
+      <c r="B19">
+        <v>147.04216744889601</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.52240410627102096</v>
+      </c>
+      <c r="B20">
+        <v>153.55906115408001</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0.60052973676435095</v>
+      </c>
+      <c r="B21">
+        <v>168.13367059017901</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0.59719120077504195</v>
+      </c>
+      <c r="B22">
+        <v>176.975247794437</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.68268477602301803</v>
+      </c>
+      <c r="B23">
+        <v>193.009921484069</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0.68268477602301803</v>
+      </c>
+      <c r="B24">
+        <v>201.564101310034</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>9.9755008125477204E-2</v>
+      </c>
+      <c r="B25">
+        <v>25.845661679515601</v>
+      </c>
+      <c r="C25">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0.13330081790488399</v>
+      </c>
+      <c r="B26">
+        <v>33.0020110583636</v>
+      </c>
+      <c r="C26">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0.16475373772625301</v>
+      </c>
+      <c r="B27">
+        <v>39.720164535785202</v>
+      </c>
+      <c r="C27">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0.212915205204845</v>
+      </c>
+      <c r="B28">
+        <v>49.337688795180597</v>
+      </c>
+      <c r="C28">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0.264624625725637</v>
+      </c>
+      <c r="B29">
+        <v>60.087738374823402</v>
+      </c>
+      <c r="C29">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0.34389255635426802</v>
+      </c>
+      <c r="B30">
+        <v>75.524879995476795</v>
+      </c>
+      <c r="C30">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0.42503553186019799</v>
+      </c>
+      <c r="B31">
+        <v>92.708890340041194</v>
+      </c>
+      <c r="C31">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0.51661183022792201</v>
+      </c>
+      <c r="B32">
+        <v>112.022215447893</v>
+      </c>
+      <c r="C32">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0.61407156443953503</v>
+      </c>
+      <c r="B33">
+        <v>130.64044819057301</v>
+      </c>
+      <c r="C33">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0.73810111604208195</v>
+      </c>
+      <c r="B34">
+        <v>155.38599447193999</v>
+      </c>
+      <c r="C34">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0.86279406647365897</v>
+      </c>
+      <c r="B35">
+        <v>181.92715039856299</v>
+      </c>
+      <c r="C35">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0.95386576810259105</v>
+      </c>
+      <c r="B36">
+        <v>201.564101310034</v>
+      </c>
+      <c r="C36">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>9.9200438277637498E-2</v>
+      </c>
+      <c r="B37">
+        <v>21.305549486667299</v>
+      </c>
+      <c r="C37">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0.12677766755089601</v>
+      </c>
+      <c r="B38">
+        <v>25.7439696028848</v>
+      </c>
+      <c r="C38">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0.15844825263836401</v>
+      </c>
+      <c r="B39">
+        <v>30.620319922389001</v>
+      </c>
+      <c r="C39">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0.195834821336139</v>
+      </c>
+      <c r="B40">
+        <v>36.7086333470113</v>
+      </c>
+      <c r="C40">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>0.24750093717052901</v>
+      </c>
+      <c r="B41">
+        <v>44.531070123207002</v>
+      </c>
+      <c r="C41">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>0.31105892154734499</v>
+      </c>
+      <c r="B42">
+        <v>54.2338191442716</v>
+      </c>
+      <c r="C42">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0.40423617951046598</v>
+      </c>
+      <c r="B43">
+        <v>67.631666992197395</v>
+      </c>
+      <c r="C43">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0.49683996807362502</v>
+      </c>
+      <c r="B44">
+        <v>81.399310363503403</v>
+      </c>
+      <c r="C44">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0.59387122477014398</v>
+      </c>
+      <c r="B45">
+        <v>96.436800717226603</v>
+      </c>
+      <c r="C45">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>0.72585940727864096</v>
+      </c>
+      <c r="B46">
+        <v>116.526732521841</v>
+      </c>
+      <c r="C46">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>0.87246775396772702</v>
+      </c>
+      <c r="B47">
+        <v>138.59889847483299</v>
+      </c>
+      <c r="C47">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1.01986026704508</v>
+      </c>
+      <c r="B48">
+        <v>160.998244967857</v>
+      </c>
+      <c r="C48">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1.2817593275513699</v>
+      </c>
+      <c r="B49">
+        <v>200.771029254436</v>
+      </c>
+      <c r="C49">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>9.9200438277637498E-2</v>
+      </c>
+      <c r="B50">
+        <v>17.562964514411899</v>
+      </c>
+      <c r="C50">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>0.13479539292020101</v>
+      </c>
+      <c r="B51">
+        <v>22.075065948422399</v>
+      </c>
+      <c r="C51">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>0.19151616931427701</v>
+      </c>
+      <c r="B52">
+        <v>28.862078720820399</v>
+      </c>
+      <c r="C52">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>0.26610398248021699</v>
+      </c>
+      <c r="B53">
+        <v>37.587294174207997</v>
+      </c>
+      <c r="C53">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>0.33630885763475799</v>
+      </c>
+      <c r="B54">
+        <v>44.706973725692499</v>
+      </c>
+      <c r="C54">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>0.39312403214583402</v>
+      </c>
+      <c r="B55">
+        <v>50.918538573131201</v>
+      </c>
+      <c r="C55">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>0.48859967408272997</v>
+      </c>
+      <c r="B56">
+        <v>61.526003357496698</v>
+      </c>
+      <c r="C56">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>0.63495901219859197</v>
+      </c>
+      <c r="B57">
+        <v>77.944804655228097</v>
+      </c>
+      <c r="C57">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>0.84848427414976701</v>
+      </c>
+      <c r="B58">
+        <v>101.108691008534</v>
+      </c>
+      <c r="C58">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1.0783303941494</v>
+      </c>
+      <c r="B59">
+        <v>126.08644252243199</v>
+      </c>
+      <c r="C59">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1.39355222113639</v>
+      </c>
+      <c r="B60">
+        <v>161.63420927784</v>
+      </c>
+      <c r="C60">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1.73199577076966</v>
+      </c>
+      <c r="B61">
+        <v>203.15965601373799</v>
+      </c>
+      <c r="C61">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>9.8648951460132805E-2</v>
+      </c>
+      <c r="B62">
+        <v>14.7660254935798</v>
+      </c>
+      <c r="C62">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>0.13554895270117701</v>
+      </c>
+      <c r="B63">
+        <v>18.197305830955699</v>
+      </c>
+      <c r="C63">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>0.17912328173772499</v>
+      </c>
+      <c r="B64">
+        <v>22.337698926066501</v>
+      </c>
+      <c r="C64">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>0.234080735594727</v>
+      </c>
+      <c r="B65">
+        <v>27.4201465836104</v>
+      </c>
+      <c r="C65">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>0.32343758372008502</v>
+      </c>
+      <c r="B66">
+        <v>34.874692048184002</v>
+      </c>
+      <c r="C66">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>0.42980105015576903</v>
+      </c>
+      <c r="B67">
+        <v>42.809654261369801</v>
+      </c>
+      <c r="C67">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>0.59056970556879296</v>
+      </c>
+      <c r="B68">
+        <v>55.531964241117599</v>
+      </c>
+      <c r="C68">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>0.73810111604208195</v>
+      </c>
+      <c r="B69">
+        <v>67.631666992197395</v>
+      </c>
+      <c r="C69">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>0.92764471833394002</v>
+      </c>
+      <c r="B70">
+        <v>82.043656512865894</v>
+      </c>
+      <c r="C70">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1.1723805581789699</v>
+      </c>
+      <c r="B71">
+        <v>101.108691008534</v>
+      </c>
+      <c r="C71">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1.44900895608457</v>
+      </c>
+      <c r="B72">
+        <v>123.138977951782</v>
+      </c>
+      <c r="C72">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1.7909090526668301</v>
+      </c>
+      <c r="B73">
+        <v>149.96938185788301</v>
+      </c>
+      <c r="C73">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>2.3798551260382599</v>
+      </c>
+      <c r="B74">
+        <v>201.564101310034</v>
+      </c>
+      <c r="C74">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>9.8100530533416205E-2</v>
+      </c>
+      <c r="B75">
+        <v>12.414504891707301</v>
+      </c>
+      <c r="C75">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>0.13479539292020101</v>
+      </c>
+      <c r="B76">
+        <v>15.2993466219138</v>
+      </c>
+      <c r="C76">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>0.19151616931427701</v>
+      </c>
+      <c r="B77">
+        <v>19.2299019547287</v>
+      </c>
+      <c r="C77">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>0.26169053914093199</v>
+      </c>
+      <c r="B78">
+        <v>23.886077242944701</v>
+      </c>
+      <c r="C78">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>0.35558995161166701</v>
+      </c>
+      <c r="B79">
+        <v>29.904522836614799</v>
+      </c>
+      <c r="C79">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>0.46989989827555001</v>
+      </c>
+      <c r="B80">
+        <v>36.420334805102698</v>
+      </c>
+      <c r="C80">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>0.59387122477014398</v>
+      </c>
+      <c r="B81">
+        <v>43.1485298090331</v>
+      </c>
+      <c r="C81">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>0.82057275449227296</v>
+      </c>
+      <c r="B82">
+        <v>55.751322826843897</v>
+      </c>
+      <c r="C82">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>1.0604458437144599</v>
+      </c>
+      <c r="B83">
+        <v>68.436299065627907</v>
+      </c>
+      <c r="C83">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>1.3552445227499399</v>
+      </c>
+      <c r="B84">
+        <v>84.339300685716296</v>
+      </c>
+      <c r="C84">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>1.7032699128289901</v>
+      </c>
+      <c r="B85">
+        <v>102.71575256305699</v>
+      </c>
+      <c r="C85">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>2.1767704912122099</v>
+      </c>
+      <c r="B86">
+        <v>129.61443748699901</v>
+      </c>
+      <c r="C86">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>2.69038915316575</v>
+      </c>
+      <c r="B87">
+        <v>160.364782916557</v>
+      </c>
+      <c r="C87">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>3.3251984188011798</v>
+      </c>
+      <c r="B88">
+        <v>202.36030610488999</v>
+      </c>
+      <c r="C88">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>9.8648951460132805E-2</v>
+      </c>
+      <c r="B89">
+        <v>10.6452508462697</v>
+      </c>
+      <c r="C89">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>0.130361198470337</v>
+      </c>
+      <c r="B90">
+        <v>12.6118259462169</v>
+      </c>
+      <c r="C90">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>0.178127478389457</v>
+      </c>
+      <c r="B91">
+        <v>15.35978105969</v>
+      </c>
+      <c r="C91">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>0.232779406264398</v>
+      </c>
+      <c r="B92">
+        <v>18.3413532914143</v>
+      </c>
+      <c r="C92">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>0.30250814665257098</v>
+      </c>
+      <c r="B93">
+        <v>21.7296857227605</v>
+      </c>
+      <c r="C93">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>0.397531757211596</v>
+      </c>
+      <c r="B94">
+        <v>26.2564628561706</v>
+      </c>
+      <c r="C94">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>0.52240410627102096</v>
+      </c>
+      <c r="B95">
+        <v>31.353250385304801</v>
+      </c>
+      <c r="C95">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>0.68650125505209303</v>
+      </c>
+      <c r="B96">
+        <v>37.884830211773199</v>
+      </c>
+      <c r="C96">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>0.92248764602285704</v>
+      </c>
+      <c r="B97">
+        <v>47.057961236861097</v>
+      </c>
+      <c r="C97">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1.1988175096181</v>
+      </c>
+      <c r="B98">
+        <v>57.311287421499401</v>
+      </c>
+      <c r="C98">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>1.50667260470594</v>
+      </c>
+      <c r="B99">
+        <v>68.706631476529097</v>
+      </c>
+      <c r="C99">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>1.91481552833104</v>
+      </c>
+      <c r="B100">
+        <v>84.007460134111398</v>
+      </c>
+      <c r="C100">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>2.4335203919455899</v>
+      </c>
+      <c r="B101">
+        <v>103.528836842853</v>
+      </c>
+      <c r="C101">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>3.1624779675421402</v>
+      </c>
+      <c r="B102">
+        <v>131.15649519783</v>
+      </c>
+      <c r="C102">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>3.9525029734689698</v>
+      </c>
+      <c r="B103">
+        <v>166.15685790703401</v>
+      </c>
+      <c r="C103">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>4.7508255141886702</v>
+      </c>
+      <c r="B104">
+        <v>203.15965601373799</v>
+      </c>
+      <c r="C104">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>9.9755008125477204E-2</v>
+      </c>
+      <c r="B105">
+        <v>9.2367421211444505</v>
+      </c>
+      <c r="C105">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>0.12607287013646701</v>
+      </c>
+      <c r="B106">
+        <v>10.6033661509488</v>
+      </c>
+      <c r="C106">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>0.18113162036425801</v>
+      </c>
+      <c r="B107">
+        <v>13.1189591526194</v>
+      </c>
+      <c r="C107">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>0.25878898491810698</v>
+      </c>
+      <c r="B108">
+        <v>16.295479425959702</v>
+      </c>
+      <c r="C108">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>0.35757784066520798</v>
+      </c>
+      <c r="B109">
+        <v>20.0821692272688</v>
+      </c>
+      <c r="C109">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>0.50241056107196402</v>
+      </c>
+      <c r="B110">
+        <v>24.846558539804398</v>
+      </c>
+      <c r="C110">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>0.69807918370578603</v>
+      </c>
+      <c r="B111">
+        <v>30.862706315420201</v>
+      </c>
+      <c r="C111">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>0.89214173054721202</v>
+      </c>
+      <c r="B112">
+        <v>35.992126823236802</v>
+      </c>
+      <c r="C112">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>1.1789346311150199</v>
+      </c>
+      <c r="B113">
+        <v>43.834349620353002</v>
+      </c>
+      <c r="C113">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>1.50667260470594</v>
+      </c>
+      <c r="B114">
+        <v>52.137328845146499</v>
+      </c>
+      <c r="C114">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>1.96894020804282</v>
+      </c>
+      <c r="B115">
+        <v>63.4973840832875</v>
+      </c>
+      <c r="C115">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>2.3144347054835399</v>
+      </c>
+      <c r="B116">
+        <v>71.751702301735406</v>
+      </c>
+      <c r="C116">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>2.9250403718752001</v>
+      </c>
+      <c r="B117">
+        <v>86.699178735899096</v>
+      </c>
+      <c r="C117">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>3.8653403083140998</v>
+      </c>
+      <c r="B118">
+        <v>111.142426732533</v>
+      </c>
+      <c r="C118">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>5.1079143531613402</v>
+      </c>
+      <c r="B119">
+        <v>145.887342585932</v>
+      </c>
+      <c r="C119">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>6.1739285464736904</v>
+      </c>
+      <c r="B120">
+        <v>180.49834939424099</v>
+      </c>
+      <c r="C120">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>6.9407286317638297</v>
+      </c>
+      <c r="B121">
+        <v>203.15965601373799</v>
+      </c>
+      <c r="C121">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>9.8648951460132805E-2</v>
+      </c>
+      <c r="B122">
+        <v>7.9830637388312597</v>
+      </c>
+      <c r="C122">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>0.130361198470337</v>
+      </c>
+      <c r="B123">
+        <v>9.3098589472187108</v>
+      </c>
+      <c r="C123">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>0.17035778339315599</v>
+      </c>
+      <c r="B124">
+        <v>10.857169183744601</v>
+      </c>
+      <c r="C124">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>0.22015744777617099</v>
+      </c>
+      <c r="B125">
+        <v>12.463543824018601</v>
+      </c>
+      <c r="C125">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>0.32343758372008502</v>
+      </c>
+      <c r="B126">
+        <v>15.542520492726901</v>
+      </c>
+      <c r="C126">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>0.44194991976502401</v>
+      </c>
+      <c r="B127">
+        <v>18.854558365337699</v>
+      </c>
+      <c r="C127">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>0.63495901219859197</v>
+      </c>
+      <c r="B128">
+        <v>23.419850946526498</v>
+      </c>
+      <c r="C128">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>0.798015829027654</v>
+      </c>
+      <c r="B129">
+        <v>26.991138741148799</v>
+      </c>
+      <c r="C129">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>1.0723356121946701</v>
+      </c>
+      <c r="B130">
+        <v>32.103724331268303</v>
+      </c>
+      <c r="C130">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>1.5666309916437</v>
+      </c>
+      <c r="B131">
+        <v>41.154782333042</v>
+      </c>
+      <c r="C131">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>2.1169327139340202</v>
+      </c>
+      <c r="B132">
+        <v>50.918538573131201</v>
+      </c>
+      <c r="C132">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>3.2337912248901701</v>
+      </c>
+      <c r="B133">
+        <v>68.167030301871307</v>
+      </c>
+      <c r="C133">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>4.2733439478057598</v>
+      </c>
+      <c r="B134">
+        <v>84.672452051283699</v>
+      </c>
+      <c r="C134">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>5.7103924317751602</v>
+      </c>
+      <c r="B135">
+        <v>108.973065833989</v>
+      </c>
+      <c r="C135">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>7.2572820844255101</v>
+      </c>
+      <c r="B136">
+        <v>136.96933754623799</v>
+      </c>
+      <c r="C136">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>8.9696700135481002</v>
+      </c>
+      <c r="B137">
+        <v>170.806053699198</v>
+      </c>
+      <c r="C137">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>10.3110858192692</v>
+      </c>
+      <c r="B138">
+        <v>203.96216346019401</v>
+      </c>
+      <c r="C138">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>9.9755008125477204E-2</v>
+      </c>
+      <c r="B139">
+        <v>7.14874235343978</v>
+      </c>
+      <c r="C139">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>0.13255975622094901</v>
+      </c>
+      <c r="B140">
+        <v>8.2388524643892698</v>
+      </c>
+      <c r="C140">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>0.178127478389457</v>
+      </c>
+      <c r="B141">
+        <v>9.60816007985912</v>
+      </c>
+      <c r="C141">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>0.25308203471728602</v>
+      </c>
+      <c r="B142">
+        <v>11.655613714260999</v>
+      </c>
+      <c r="C142">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>0.35957684280805702</v>
+      </c>
+      <c r="B143">
+        <v>14.083737448342999</v>
+      </c>
+      <c r="C143">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>0.50804361181997504</v>
+      </c>
+      <c r="B144">
+        <v>17.084915528735198</v>
+      </c>
+      <c r="C144">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>0.65290693076143902</v>
+      </c>
+      <c r="B145">
+        <v>19.535549627746999</v>
+      </c>
+      <c r="C145">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>0.84848427414976701</v>
+      </c>
+      <c r="B146">
+        <v>22.6927431542383</v>
+      </c>
+      <c r="C146">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>1.09042068504696</v>
+      </c>
+      <c r="B147">
+        <v>26.360179348771101</v>
+      </c>
+      <c r="C147">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>1.4013427315076099</v>
+      </c>
+      <c r="B148">
+        <v>30.3798371590306</v>
+      </c>
+      <c r="C148">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>1.9579942426011101</v>
+      </c>
+      <c r="B149">
+        <v>37.145365799077197</v>
+      </c>
+      <c r="C149">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>2.7054294970312101</v>
+      </c>
+      <c r="B150">
+        <v>45.417564061468397</v>
+      </c>
+      <c r="C150">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>3.6354271311678001</v>
+      </c>
+      <c r="B151">
+        <v>55.531964241117599</v>
+      </c>
+      <c r="C151">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>4.8040919924236603</v>
+      </c>
+      <c r="B152">
+        <v>67.365564125583802</v>
+      </c>
+      <c r="C152">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>6.0715314174766402</v>
+      </c>
+      <c r="B153">
+        <v>79.8104978257319</v>
+      </c>
+      <c r="C153">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>7.4624183299728699</v>
+      </c>
+      <c r="B154">
+        <v>94.5544752110536</v>
+      </c>
+      <c r="C154">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>9.1209446087506407</v>
+      </c>
+      <c r="B155">
+        <v>112.022215447893</v>
+      </c>
+      <c r="C155">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>11.5272775451486</v>
+      </c>
+      <c r="B156">
+        <v>139.696028980477</v>
+      </c>
+      <c r="C156">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>14.167985197275399</v>
+      </c>
+      <c r="B157">
+        <v>176.27892279089701</v>
+      </c>
+      <c r="C157">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>15.663478236353599</v>
+      </c>
+      <c r="B158">
+        <v>202.36030610488999</v>
+      </c>
+      <c r="C158">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>9.9755008125477204E-2</v>
+      </c>
+      <c r="B159">
+        <v>6.3014592001482104</v>
+      </c>
+      <c r="C159">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>0.11857396659550801</v>
+      </c>
+      <c r="B160">
+        <v>6.89954378095665</v>
+      </c>
+      <c r="C160">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>0.152384092225365</v>
+      </c>
+      <c r="B161">
+        <v>7.7657715203217199</v>
+      </c>
+      <c r="C161">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>0.198030530527563</v>
+      </c>
+      <c r="B162">
+        <v>8.8099435402445501</v>
+      </c>
+      <c r="C162">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>0.25591960234709599</v>
+      </c>
+      <c r="B163">
+        <v>10.0736283394921</v>
+      </c>
+      <c r="C163">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>0.34774829580702599</v>
+      </c>
+      <c r="B164">
+        <v>11.7942836753473</v>
+      </c>
+      <c r="C164">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>0.48049604873650797</v>
+      </c>
+      <c r="B165">
+        <v>13.918149492544201</v>
+      </c>
+      <c r="C165">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>0.64566767454575202</v>
+      </c>
+      <c r="B166">
+        <v>16.231363398942499</v>
+      </c>
+      <c r="C166">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>0.85799751958190296</v>
+      </c>
+      <c r="B167">
+        <v>18.9290363585806</v>
+      </c>
+      <c r="C167">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>1.0486879057851499</v>
+      </c>
+      <c r="B168">
+        <v>20.807499490062799</v>
+      </c>
+      <c r="C168">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>1.6109137955977599</v>
+      </c>
+      <c r="B169">
+        <v>20.807499490062799</v>
+      </c>
+      <c r="C169">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>2.1889395027715599</v>
+      </c>
+      <c r="B170">
+        <v>20.807499490062799</v>
+      </c>
+      <c r="C170">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>3.5751320859453899</v>
+      </c>
+      <c r="B171">
+        <v>20.889691858422498</v>
+      </c>
+      <c r="C171">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>5.8391606601154002</v>
+      </c>
+      <c r="B172">
+        <v>20.889691858422498</v>
+      </c>
+      <c r="C172">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>7.8902500264888102</v>
+      </c>
+      <c r="B173">
+        <v>20.807499490062799</v>
+      </c>
+      <c r="C173">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>11.591719604732299</v>
+      </c>
+      <c r="B174">
+        <v>20.889691858422498</v>
+      </c>
+      <c r="C174">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>19.7958949097901</v>
+      </c>
+      <c r="B175">
+        <v>20.807499490062799</v>
+      </c>
+      <c r="C175">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>19.576403358209198</v>
+      </c>
+      <c r="B176">
+        <v>99.919916969043598</v>
+      </c>
+      <c r="C176">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>16.654074366202401</v>
+      </c>
+      <c r="B177">
+        <v>99.135176058166294</v>
+      </c>
+      <c r="C177">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>13.104258469307</v>
+      </c>
+      <c r="B178">
+        <v>99.526773083645693</v>
+      </c>
+      <c r="C178">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>16.106226234879699</v>
+      </c>
+      <c r="B179">
+        <v>121.69118529639</v>
+      </c>
+      <c r="C179">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>19.7958949097901</v>
+      </c>
+      <c r="B180">
+        <v>148.791567535246</v>
+      </c>
+      <c r="C180">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>9.9755008125477204E-2</v>
+      </c>
+      <c r="B181">
+        <v>5.6206822686478599</v>
+      </c>
+      <c r="C181">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>0.14737130446344701</v>
+      </c>
+      <c r="B182">
+        <v>6.7382563305283796</v>
+      </c>
+      <c r="C182">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>0.20249608011596201</v>
+      </c>
+      <c r="B183">
+        <v>7.8581629860075504</v>
+      </c>
+      <c r="C183">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>0.28136012509244301</v>
+      </c>
+      <c r="B184">
+        <v>9.1641995325839396</v>
+      </c>
+      <c r="C184">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>0.365641150776782</v>
+      </c>
+      <c r="B185">
+        <v>10.3964017306364</v>
+      </c>
+      <c r="C185">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>0.48318221247995502</v>
+      </c>
+      <c r="B186">
+        <v>11.7942836753473</v>
+      </c>
+      <c r="C186">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>0.72585940727864096</v>
+      </c>
+      <c r="B187">
+        <v>11.7942836753473</v>
+      </c>
+      <c r="C187">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>0.97537525392172897</v>
+      </c>
+      <c r="B188">
+        <v>11.7942836753473</v>
+      </c>
+      <c r="C188">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>1.4013427315076099</v>
+      </c>
+      <c r="B189">
+        <v>11.7478780071856</v>
+      </c>
+      <c r="C189">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>2.2382996588525002</v>
+      </c>
+      <c r="B190">
+        <v>11.7478780071856</v>
+      </c>
+      <c r="C190">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>3.4001809903817701</v>
+      </c>
+      <c r="B191">
+        <v>11.7942836753473</v>
+      </c>
+      <c r="C191">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>5.2230968191001699</v>
+      </c>
+      <c r="B192">
+        <v>11.7942836753473</v>
+      </c>
+      <c r="C192">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>8.3426099593552401</v>
+      </c>
+      <c r="B193">
+        <v>11.7942836753473</v>
+      </c>
+      <c r="C193">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>12.602729900022901</v>
+      </c>
+      <c r="B194">
+        <v>11.840872652021099</v>
+      </c>
+      <c r="C194">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>19.7958949097901</v>
+      </c>
+      <c r="B195">
+        <v>11.7942836753473</v>
+      </c>
+      <c r="C195">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>9.9200438277637498E-2</v>
+      </c>
+      <c r="B196">
+        <v>5.0931387472988296</v>
+      </c>
+      <c r="C196">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>0.13108996934327999</v>
+      </c>
+      <c r="B197">
+        <v>5.7100196173370001</v>
+      </c>
+      <c r="C197">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>0.17912328173772499</v>
+      </c>
+      <c r="B198">
+        <v>6.5807392223852803</v>
+      </c>
+      <c r="C198">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>0.231485311438102</v>
+      </c>
+      <c r="B199">
+        <v>7.3198552306289502</v>
+      </c>
+      <c r="C199">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>0.28610529843384902</v>
+      </c>
+      <c r="B200">
+        <v>8.04625661303694</v>
+      </c>
+      <c r="C200">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>0.43220380872341901</v>
+      </c>
+      <c r="B201">
+        <v>8.0780403882940792</v>
+      </c>
+      <c r="C201">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>0.65290693076143902</v>
+      </c>
+      <c r="B202">
+        <v>8.1099497136570804</v>
+      </c>
+      <c r="C202">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>1.0428579158601201</v>
+      </c>
+      <c r="B203">
+        <v>8.1099497136570804</v>
+      </c>
+      <c r="C203">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>1.61991944349628</v>
+      </c>
+      <c r="B204">
+        <v>8.0780403882940792</v>
+      </c>
+      <c r="C204">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>2.6457679491632602</v>
+      </c>
+      <c r="B205">
+        <v>8.0780403882940792</v>
+      </c>
+      <c r="C205">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>4.1097937491263297</v>
+      </c>
+      <c r="B206">
+        <v>8.0780403882940792</v>
+      </c>
+      <c r="C206">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>5.7103924317751602</v>
+      </c>
+      <c r="B207">
+        <v>8.1099497136570804</v>
+      </c>
+      <c r="C207">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>7.6733530106296399</v>
+      </c>
+      <c r="B208">
+        <v>8.1099497136570804</v>
+      </c>
+      <c r="C208">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>11.591719604732299</v>
+      </c>
+      <c r="B209">
+        <v>8.1099497136570804</v>
+      </c>
+      <c r="C209">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>19.6858432278318</v>
+      </c>
+      <c r="B210">
+        <v>8.1099497136570804</v>
+      </c>
+      <c r="C210">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>9.9755008125477204E-2</v>
+      </c>
+      <c r="B211">
+        <v>4.59695061203072</v>
+      </c>
+      <c r="C211">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>0.138605554975231</v>
+      </c>
+      <c r="B212">
+        <v>5.2770933601804098</v>
+      </c>
+      <c r="C212">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>0.198030530527563</v>
+      </c>
+      <c r="B213">
+        <v>6.0578667648026601</v>
+      </c>
+      <c r="C213">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>0.32889239861033598</v>
+      </c>
+      <c r="B214">
+        <v>6.0340315440640797</v>
+      </c>
+      <c r="C214">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>0.519499895533439</v>
+      </c>
+      <c r="B215">
+        <v>6.0340315440640797</v>
+      </c>
+      <c r="C215">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>0.75896447645963105</v>
+      </c>
+      <c r="B216">
+        <v>6.0578667648026601</v>
+      </c>
+      <c r="C216">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>1.1275109957098599</v>
+      </c>
+      <c r="B217">
+        <v>6.0578667648026601</v>
+      </c>
+      <c r="C217">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>1.6843845147385501</v>
+      </c>
+      <c r="B218">
+        <v>6.0578667648026601</v>
+      </c>
+      <c r="C218">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>2.8765273814792298</v>
+      </c>
+      <c r="B219">
+        <v>6.0817961378080101</v>
+      </c>
+      <c r="C219">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>4.2259622609551704</v>
+      </c>
+      <c r="B220">
+        <v>6.0817961378080101</v>
+      </c>
+      <c r="C220">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>6.2780526157277903</v>
+      </c>
+      <c r="B221">
+        <v>6.0817961378080101</v>
+      </c>
+      <c r="C221">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>9.3787596297348497</v>
+      </c>
+      <c r="B222">
+        <v>6.0578667648026601</v>
+      </c>
+      <c r="C222">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>13.7785179814445</v>
+      </c>
+      <c r="B223">
+        <v>6.0817961378080101</v>
+      </c>
+      <c r="C223">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>19.906561824358</v>
+      </c>
+      <c r="B224">
+        <v>6.0578667648026601</v>
+      </c>
+      <c r="C224">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>9.9200438277637498E-2</v>
+      </c>
+      <c r="B225">
+        <v>4.1654920457165598</v>
+      </c>
+      <c r="C225">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>0.11990342346401101</v>
+      </c>
+      <c r="B226">
+        <v>4.4894898193322996</v>
+      </c>
+      <c r="C226">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>0.14094315481892999</v>
+      </c>
+      <c r="B227">
+        <v>4.7442434530968498</v>
+      </c>
+      <c r="C227">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>0.193663457576909</v>
+      </c>
+      <c r="B228">
+        <v>4.7817982553057403</v>
+      </c>
+      <c r="C228">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>0.26610398248021699</v>
+      </c>
+      <c r="B229">
+        <v>4.7629838406994596</v>
+      </c>
+      <c r="C229">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>0.365641150776782</v>
+      </c>
+      <c r="B230">
+        <v>4.7629838406994596</v>
+      </c>
+      <c r="C230">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>0.53418421631527502</v>
+      </c>
+      <c r="B231">
+        <v>4.7817982553057403</v>
+      </c>
+      <c r="C231">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>0.79357940498044299</v>
+      </c>
+      <c r="B232">
+        <v>4.7817982553057403</v>
+      </c>
+      <c r="C232">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>1.1658629214209</v>
+      </c>
+      <c r="B233">
+        <v>4.7817982553057403</v>
+      </c>
+      <c r="C233">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>1.82111295555038</v>
+      </c>
+      <c r="B234">
+        <v>4.7629838406994596</v>
+      </c>
+      <c r="C234">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>2.5162958093413699</v>
+      </c>
+      <c r="B235">
+        <v>4.7817982553057403</v>
+      </c>
+      <c r="C235">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>3.7174052993118498</v>
+      </c>
+      <c r="B236">
+        <v>4.7817982553057403</v>
+      </c>
+      <c r="C236">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>5.4309511725375597</v>
+      </c>
+      <c r="B237">
+        <v>4.8006869893321102</v>
+      </c>
+      <c r="C237">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>7.6733530106296399</v>
+      </c>
+      <c r="B238">
+        <v>4.7817982553057403</v>
+      </c>
+      <c r="C238">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>12.188153750459</v>
+      </c>
+      <c r="B239">
+        <v>4.7817982553057403</v>
+      </c>
+      <c r="C239">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>19.906561824358</v>
+      </c>
+      <c r="B240">
+        <v>4.8006869893321102</v>
+      </c>
+      <c r="C240">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>9.9755008125477204E-2</v>
+      </c>
+      <c r="B241">
+        <v>3.8194357124656402</v>
+      </c>
+      <c r="C241">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>0.110901121828482</v>
+      </c>
+      <c r="B242">
+        <v>3.9108580356781499</v>
+      </c>
+      <c r="C242">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>0.18625153442012399</v>
+      </c>
+      <c r="B243">
+        <v>3.9108580356781499</v>
+      </c>
+      <c r="C243">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>0.25735029456375302</v>
+      </c>
+      <c r="B244">
+        <v>3.9108580356781499</v>
+      </c>
+      <c r="C244">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>0.38019192546410802</v>
+      </c>
+      <c r="B245">
+        <v>3.9108580356781499</v>
+      </c>
+      <c r="C245">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>0.54319329925418203</v>
+      </c>
+      <c r="B246">
+        <v>3.92630644092378</v>
+      </c>
+      <c r="C246">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>0.82977305465839102</v>
+      </c>
+      <c r="B247">
+        <v>3.92630644092378</v>
+      </c>
+      <c r="C247">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>1.3704395878304301</v>
+      </c>
+      <c r="B248">
+        <v>3.92630644092378</v>
+      </c>
+      <c r="C248">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>2.0934607341073299</v>
+      </c>
+      <c r="B249">
+        <v>3.94181586940842</v>
+      </c>
+      <c r="C249">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>3.5354919841855699</v>
+      </c>
+      <c r="B250">
+        <v>3.9108580356781499</v>
+      </c>
+      <c r="C250">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>5.07951783113361</v>
+      </c>
+      <c r="B251">
+        <v>3.94181586940842</v>
+      </c>
+      <c r="C251">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>7.0185484063471399</v>
+      </c>
+      <c r="B252">
+        <v>3.94181586940842</v>
+      </c>
+      <c r="C252">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>11.3994661961079</v>
+      </c>
+      <c r="B253">
+        <v>3.92630644092378</v>
+      </c>
+      <c r="C253">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>19.7958949097901</v>
+      </c>
+      <c r="B254">
+        <v>3.94181586940842</v>
+      </c>
+      <c r="C254">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>9.9755008125477204E-2</v>
+      </c>
+      <c r="B255">
+        <v>3.3271644327002599</v>
+      </c>
+      <c r="C255">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>0.16846890216948601</v>
+      </c>
+      <c r="B256">
+        <v>3.3010338860909698</v>
+      </c>
+      <c r="C256">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>0.27362574768875703</v>
+      </c>
+      <c r="B257">
+        <v>3.3140734054845802</v>
+      </c>
+      <c r="C257">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>0.44690508297019998</v>
+      </c>
+      <c r="B258">
+        <v>3.3140734054845802</v>
+      </c>
+      <c r="C258">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>0.74637674033421098</v>
+      </c>
+      <c r="B259">
+        <v>3.3271644327002599</v>
+      </c>
+      <c r="C259">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>1.20551937561224</v>
+      </c>
+      <c r="B260">
+        <v>3.3271644327002599</v>
+      </c>
+      <c r="C260">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>1.8518262509952399</v>
+      </c>
+      <c r="B261">
+        <v>3.3010338860909698</v>
+      </c>
+      <c r="C261">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>2.7205539223922202</v>
+      </c>
+      <c r="B262">
+        <v>3.3271644327002599</v>
+      </c>
+      <c r="C262">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>3.9525029734689698</v>
+      </c>
+      <c r="B263">
+        <v>3.3271644327002599</v>
+      </c>
+      <c r="C263">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>6.2431509225771604</v>
+      </c>
+      <c r="B264">
+        <v>3.34030717120068</v>
+      </c>
+      <c r="C264">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>9.0198140312656907</v>
+      </c>
+      <c r="B265">
+        <v>3.3271644327002599</v>
+      </c>
+      <c r="C265">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>12.8152764999751</v>
+      </c>
+      <c r="B266">
+        <v>3.3271644327002599</v>
+      </c>
+      <c r="C266">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>19.7958949097901</v>
+      </c>
+      <c r="B267">
+        <v>3.34030717120068</v>
+      </c>
+      <c r="C267">
+        <v>1.8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/contour_data.xlsx
+++ b/contour_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thorntontomasettigbr-my.sharepoint.com/personal/amccrone_thorntontomasetti_com/Documents/R&amp;D/Graph Digitizer/NA Plots/Excel_CSVs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="8_{0DC470F0-22FC-4171-892E-4A202F40D8FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E514FDD-771E-4CD8-A79C-7900032AB93F}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{0DC470F0-22FC-4171-892E-4A202F40D8FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{945D2FD1-FFE4-48D5-B858-BFF40F2C8180}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{5D713D43-6F59-44AB-BBC5-917AE4047E47}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" activeTab="3" xr2:uid="{5D713D43-6F59-44AB-BBC5-917AE4047E47}"/>
   </bookViews>
   <sheets>
     <sheet name="NA.3" sheetId="1" r:id="rId1"/>
@@ -891,7 +891,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F310B867-9AF6-4746-B1BF-BBCA3FE770BE}">
   <dimension ref="A1:C274"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3916,9 +3918,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B391DE-D223-4375-ADCD-508A9BC7CB9A}">
-  <dimension ref="A1:C286"/>
+  <dimension ref="A1:C287"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A262" workbookViewId="0">
+      <selection activeCell="D286" sqref="D286"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -7066,6 +7070,17 @@
       </c>
       <c r="C286">
         <v>0.6</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>0.1</v>
+      </c>
+      <c r="B287">
+        <v>200</v>
+      </c>
+      <c r="C287">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -9796,7 +9811,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A3FBCA-AD34-4F10-8370-6BA350BEDFFB}">
   <dimension ref="A1:C267"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
+      <selection activeCell="J166" sqref="J166"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -11738,10 +11755,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>16.654074366202401</v>
+        <v>13.104258469307</v>
       </c>
       <c r="B177">
-        <v>99.135176058166294</v>
+        <v>99.526773083645693</v>
       </c>
       <c r="C177">
         <v>1.5</v>
@@ -11749,10 +11766,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>13.104258469307</v>
+        <v>16.106226234879699</v>
       </c>
       <c r="B178">
-        <v>99.526773083645693</v>
+        <v>121.69118529639</v>
       </c>
       <c r="C178">
         <v>1.5</v>
@@ -11760,10 +11777,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>16.106226234879699</v>
+        <v>19.7958949097901</v>
       </c>
       <c r="B179">
-        <v>121.69118529639</v>
+        <v>148.791567535246</v>
       </c>
       <c r="C179">
         <v>1.5</v>
@@ -11771,21 +11788,21 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>19.7958949097901</v>
+        <v>9.9755008125477204E-2</v>
       </c>
       <c r="B180">
-        <v>148.791567535246</v>
+        <v>5.6206822686478599</v>
       </c>
       <c r="C180">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>9.9755008125477204E-2</v>
+        <v>0.14737130446344701</v>
       </c>
       <c r="B181">
-        <v>5.6206822686478599</v>
+        <v>6.7382563305283796</v>
       </c>
       <c r="C181">
         <v>1.55</v>
@@ -11793,10 +11810,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>0.14737130446344701</v>
+        <v>0.20249608011596201</v>
       </c>
       <c r="B182">
-        <v>6.7382563305283796</v>
+        <v>7.8581629860075504</v>
       </c>
       <c r="C182">
         <v>1.55</v>
@@ -11804,10 +11821,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>0.20249608011596201</v>
+        <v>0.28136012509244301</v>
       </c>
       <c r="B183">
-        <v>7.8581629860075504</v>
+        <v>9.1641995325839396</v>
       </c>
       <c r="C183">
         <v>1.55</v>
@@ -11815,10 +11832,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>0.28136012509244301</v>
+        <v>0.365641150776782</v>
       </c>
       <c r="B184">
-        <v>9.1641995325839396</v>
+        <v>10.3964017306364</v>
       </c>
       <c r="C184">
         <v>1.55</v>
@@ -11826,10 +11843,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>0.365641150776782</v>
+        <v>0.48318221247995502</v>
       </c>
       <c r="B185">
-        <v>10.3964017306364</v>
+        <v>11.7942836753473</v>
       </c>
       <c r="C185">
         <v>1.55</v>
@@ -11837,7 +11854,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>0.48318221247995502</v>
+        <v>0.72585940727864096</v>
       </c>
       <c r="B186">
         <v>11.7942836753473</v>
@@ -11848,7 +11865,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>0.72585940727864096</v>
+        <v>0.97537525392172897</v>
       </c>
       <c r="B187">
         <v>11.7942836753473</v>
@@ -11859,10 +11876,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>0.97537525392172897</v>
+        <v>1.4013427315076099</v>
       </c>
       <c r="B188">
-        <v>11.7942836753473</v>
+        <v>11.7478780071856</v>
       </c>
       <c r="C188">
         <v>1.55</v>
@@ -11870,7 +11887,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>1.4013427315076099</v>
+        <v>2.2382996588525002</v>
       </c>
       <c r="B189">
         <v>11.7478780071856</v>
@@ -11881,10 +11898,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>2.2382996588525002</v>
+        <v>3.4001809903817701</v>
       </c>
       <c r="B190">
-        <v>11.7478780071856</v>
+        <v>11.7942836753473</v>
       </c>
       <c r="C190">
         <v>1.55</v>
@@ -11892,7 +11909,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>3.4001809903817701</v>
+        <v>5.2230968191001699</v>
       </c>
       <c r="B191">
         <v>11.7942836753473</v>
@@ -11903,7 +11920,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>5.2230968191001699</v>
+        <v>8.3426099593552401</v>
       </c>
       <c r="B192">
         <v>11.7942836753473</v>
@@ -11914,10 +11931,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>8.3426099593552401</v>
+        <v>12.602729900022901</v>
       </c>
       <c r="B193">
-        <v>11.7942836753473</v>
+        <v>11.840872652021099</v>
       </c>
       <c r="C193">
         <v>1.55</v>
@@ -11925,10 +11942,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>12.602729900022901</v>
+        <v>19.7958949097901</v>
       </c>
       <c r="B194">
-        <v>11.840872652021099</v>
+        <v>11.7942836753473</v>
       </c>
       <c r="C194">
         <v>1.55</v>
@@ -11936,21 +11953,21 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>19.7958949097901</v>
+        <v>9.9200438277637498E-2</v>
       </c>
       <c r="B195">
-        <v>11.7942836753473</v>
+        <v>5.0931387472988296</v>
       </c>
       <c r="C195">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>9.9200438277637498E-2</v>
+        <v>0.13108996934327999</v>
       </c>
       <c r="B196">
-        <v>5.0931387472988296</v>
+        <v>5.7100196173370001</v>
       </c>
       <c r="C196">
         <v>1.6</v>
@@ -11958,10 +11975,10 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>0.13108996934327999</v>
+        <v>0.17912328173772499</v>
       </c>
       <c r="B197">
-        <v>5.7100196173370001</v>
+        <v>6.5807392223852803</v>
       </c>
       <c r="C197">
         <v>1.6</v>
@@ -11969,10 +11986,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>0.17912328173772499</v>
+        <v>0.231485311438102</v>
       </c>
       <c r="B198">
-        <v>6.5807392223852803</v>
+        <v>7.3198552306289502</v>
       </c>
       <c r="C198">
         <v>1.6</v>
@@ -11980,10 +11997,10 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>0.231485311438102</v>
+        <v>0.28610529843384902</v>
       </c>
       <c r="B199">
-        <v>7.3198552306289502</v>
+        <v>8.04625661303694</v>
       </c>
       <c r="C199">
         <v>1.6</v>
@@ -11991,10 +12008,10 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>0.28610529843384902</v>
+        <v>0.43220380872341901</v>
       </c>
       <c r="B200">
-        <v>8.04625661303694</v>
+        <v>8.0780403882940792</v>
       </c>
       <c r="C200">
         <v>1.6</v>
@@ -12002,10 +12019,10 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>0.43220380872341901</v>
+        <v>0.65290693076143902</v>
       </c>
       <c r="B201">
-        <v>8.0780403882940792</v>
+        <v>8.1099497136570804</v>
       </c>
       <c r="C201">
         <v>1.6</v>
@@ -12013,7 +12030,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>0.65290693076143902</v>
+        <v>1.0428579158601201</v>
       </c>
       <c r="B202">
         <v>8.1099497136570804</v>
@@ -12024,10 +12041,10 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>1.0428579158601201</v>
+        <v>1.61991944349628</v>
       </c>
       <c r="B203">
-        <v>8.1099497136570804</v>
+        <v>8.0780403882940792</v>
       </c>
       <c r="C203">
         <v>1.6</v>
@@ -12035,7 +12052,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>1.61991944349628</v>
+        <v>2.6457679491632602</v>
       </c>
       <c r="B204">
         <v>8.0780403882940792</v>
@@ -12046,7 +12063,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>2.6457679491632602</v>
+        <v>4.1097937491263297</v>
       </c>
       <c r="B205">
         <v>8.0780403882940792</v>
@@ -12057,10 +12074,10 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>4.1097937491263297</v>
+        <v>5.7103924317751602</v>
       </c>
       <c r="B206">
-        <v>8.0780403882940792</v>
+        <v>8.1099497136570804</v>
       </c>
       <c r="C206">
         <v>1.6</v>
@@ -12068,7 +12085,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>5.7103924317751602</v>
+        <v>7.6733530106296399</v>
       </c>
       <c r="B207">
         <v>8.1099497136570804</v>
@@ -12079,7 +12096,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>7.6733530106296399</v>
+        <v>11.591719604732299</v>
       </c>
       <c r="B208">
         <v>8.1099497136570804</v>
@@ -12090,7 +12107,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>11.591719604732299</v>
+        <v>19.6858432278318</v>
       </c>
       <c r="B209">
         <v>8.1099497136570804</v>
@@ -12101,21 +12118,21 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>19.6858432278318</v>
+        <v>9.9755008125477204E-2</v>
       </c>
       <c r="B210">
-        <v>8.1099497136570804</v>
+        <v>4.59695061203072</v>
       </c>
       <c r="C210">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>9.9755008125477204E-2</v>
+        <v>0.138605554975231</v>
       </c>
       <c r="B211">
-        <v>4.59695061203072</v>
+        <v>5.2770933601804098</v>
       </c>
       <c r="C211">
         <v>1.65</v>
@@ -12123,10 +12140,10 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>0.138605554975231</v>
+        <v>0.198030530527563</v>
       </c>
       <c r="B212">
-        <v>5.2770933601804098</v>
+        <v>6.0578667648026601</v>
       </c>
       <c r="C212">
         <v>1.65</v>
@@ -12134,10 +12151,10 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>0.198030530527563</v>
+        <v>0.32889239861033598</v>
       </c>
       <c r="B213">
-        <v>6.0578667648026601</v>
+        <v>6.0340315440640797</v>
       </c>
       <c r="C213">
         <v>1.65</v>
@@ -12145,7 +12162,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>0.32889239861033598</v>
+        <v>0.519499895533439</v>
       </c>
       <c r="B214">
         <v>6.0340315440640797</v>
@@ -12156,10 +12173,10 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>0.519499895533439</v>
+        <v>0.75896447645963105</v>
       </c>
       <c r="B215">
-        <v>6.0340315440640797</v>
+        <v>6.0578667648026601</v>
       </c>
       <c r="C215">
         <v>1.65</v>
@@ -12167,7 +12184,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>0.75896447645963105</v>
+        <v>1.1275109957098599</v>
       </c>
       <c r="B216">
         <v>6.0578667648026601</v>
@@ -12178,7 +12195,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>1.1275109957098599</v>
+        <v>1.6843845147385501</v>
       </c>
       <c r="B217">
         <v>6.0578667648026601</v>
@@ -12189,10 +12206,10 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>1.6843845147385501</v>
+        <v>2.8765273814792298</v>
       </c>
       <c r="B218">
-        <v>6.0578667648026601</v>
+        <v>6.0817961378080101</v>
       </c>
       <c r="C218">
         <v>1.65</v>
@@ -12200,7 +12217,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>2.8765273814792298</v>
+        <v>4.2259622609551704</v>
       </c>
       <c r="B219">
         <v>6.0817961378080101</v>
@@ -12211,7 +12228,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>4.2259622609551704</v>
+        <v>6.2780526157277903</v>
       </c>
       <c r="B220">
         <v>6.0817961378080101</v>
@@ -12222,10 +12239,10 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>6.2780526157277903</v>
+        <v>9.3787596297348497</v>
       </c>
       <c r="B221">
-        <v>6.0817961378080101</v>
+        <v>6.0578667648026601</v>
       </c>
       <c r="C221">
         <v>1.65</v>
@@ -12233,10 +12250,10 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>9.3787596297348497</v>
+        <v>13.7785179814445</v>
       </c>
       <c r="B222">
-        <v>6.0578667648026601</v>
+        <v>6.0817961378080101</v>
       </c>
       <c r="C222">
         <v>1.65</v>
@@ -12244,10 +12261,10 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>13.7785179814445</v>
+        <v>19.906561824358</v>
       </c>
       <c r="B223">
-        <v>6.0817961378080101</v>
+        <v>6.0578667648026601</v>
       </c>
       <c r="C223">
         <v>1.65</v>
@@ -12255,21 +12272,21 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>19.906561824358</v>
+        <v>9.9200438277637498E-2</v>
       </c>
       <c r="B224">
-        <v>6.0578667648026601</v>
+        <v>4.1654920457165598</v>
       </c>
       <c r="C224">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>9.9200438277637498E-2</v>
+        <v>0.11990342346401101</v>
       </c>
       <c r="B225">
-        <v>4.1654920457165598</v>
+        <v>4.4894898193322996</v>
       </c>
       <c r="C225">
         <v>1.7</v>
@@ -12277,10 +12294,10 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>0.11990342346401101</v>
+        <v>0.14094315481892999</v>
       </c>
       <c r="B226">
-        <v>4.4894898193322996</v>
+        <v>4.7442434530968498</v>
       </c>
       <c r="C226">
         <v>1.7</v>
@@ -12288,10 +12305,10 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>0.14094315481892999</v>
+        <v>0.193663457576909</v>
       </c>
       <c r="B227">
-        <v>4.7442434530968498</v>
+        <v>4.7817982553057403</v>
       </c>
       <c r="C227">
         <v>1.7</v>
@@ -12299,10 +12316,10 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>0.193663457576909</v>
+        <v>0.26610398248021699</v>
       </c>
       <c r="B228">
-        <v>4.7817982553057403</v>
+        <v>4.7629838406994596</v>
       </c>
       <c r="C228">
         <v>1.7</v>
@@ -12310,7 +12327,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>0.26610398248021699</v>
+        <v>0.365641150776782</v>
       </c>
       <c r="B229">
         <v>4.7629838406994596</v>
@@ -12321,10 +12338,10 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>0.365641150776782</v>
+        <v>0.53418421631527502</v>
       </c>
       <c r="B230">
-        <v>4.7629838406994596</v>
+        <v>4.7817982553057403</v>
       </c>
       <c r="C230">
         <v>1.7</v>
@@ -12332,7 +12349,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>0.53418421631527502</v>
+        <v>0.79357940498044299</v>
       </c>
       <c r="B231">
         <v>4.7817982553057403</v>
@@ -12343,7 +12360,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>0.79357940498044299</v>
+        <v>1.1658629214209</v>
       </c>
       <c r="B232">
         <v>4.7817982553057403</v>
@@ -12354,10 +12371,10 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>1.1658629214209</v>
+        <v>1.82111295555038</v>
       </c>
       <c r="B233">
-        <v>4.7817982553057403</v>
+        <v>4.7629838406994596</v>
       </c>
       <c r="C233">
         <v>1.7</v>
@@ -12365,10 +12382,10 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>1.82111295555038</v>
+        <v>2.5162958093413699</v>
       </c>
       <c r="B234">
-        <v>4.7629838406994596</v>
+        <v>4.7817982553057403</v>
       </c>
       <c r="C234">
         <v>1.7</v>
@@ -12376,7 +12393,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>2.5162958093413699</v>
+        <v>3.7174052993118498</v>
       </c>
       <c r="B235">
         <v>4.7817982553057403</v>
@@ -12387,10 +12404,10 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>3.7174052993118498</v>
+        <v>5.4309511725375597</v>
       </c>
       <c r="B236">
-        <v>4.7817982553057403</v>
+        <v>4.8006869893321102</v>
       </c>
       <c r="C236">
         <v>1.7</v>
@@ -12398,10 +12415,10 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>5.4309511725375597</v>
+        <v>7.6733530106296399</v>
       </c>
       <c r="B237">
-        <v>4.8006869893321102</v>
+        <v>4.7817982553057403</v>
       </c>
       <c r="C237">
         <v>1.7</v>
@@ -12409,7 +12426,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>7.6733530106296399</v>
+        <v>12.188153750459</v>
       </c>
       <c r="B238">
         <v>4.7817982553057403</v>
@@ -12420,10 +12437,10 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>12.188153750459</v>
+        <v>19.906561824358</v>
       </c>
       <c r="B239">
-        <v>4.7817982553057403</v>
+        <v>4.8006869893321102</v>
       </c>
       <c r="C239">
         <v>1.7</v>
@@ -12431,21 +12448,21 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>19.906561824358</v>
+        <v>9.9755008125477204E-2</v>
       </c>
       <c r="B240">
-        <v>4.8006869893321102</v>
+        <v>3.8194357124656402</v>
       </c>
       <c r="C240">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>9.9755008125477204E-2</v>
+        <v>0.110901121828482</v>
       </c>
       <c r="B241">
-        <v>3.8194357124656402</v>
+        <v>3.9108580356781499</v>
       </c>
       <c r="C241">
         <v>1.75</v>
@@ -12453,7 +12470,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>0.110901121828482</v>
+        <v>0.18625153442012399</v>
       </c>
       <c r="B242">
         <v>3.9108580356781499</v>
@@ -12464,7 +12481,7 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>0.18625153442012399</v>
+        <v>0.25735029456375302</v>
       </c>
       <c r="B243">
         <v>3.9108580356781499</v>
@@ -12475,7 +12492,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>0.25735029456375302</v>
+        <v>0.38019192546410802</v>
       </c>
       <c r="B244">
         <v>3.9108580356781499</v>
@@ -12486,10 +12503,10 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>0.38019192546410802</v>
+        <v>0.54319329925418203</v>
       </c>
       <c r="B245">
-        <v>3.9108580356781499</v>
+        <v>3.92630644092378</v>
       </c>
       <c r="C245">
         <v>1.75</v>
@@ -12497,7 +12514,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>0.54319329925418203</v>
+        <v>0.82977305465839102</v>
       </c>
       <c r="B246">
         <v>3.92630644092378</v>
@@ -12508,7 +12525,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>0.82977305465839102</v>
+        <v>1.3704395878304301</v>
       </c>
       <c r="B247">
         <v>3.92630644092378</v>
@@ -12519,10 +12536,10 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>1.3704395878304301</v>
+        <v>2.0934607341073299</v>
       </c>
       <c r="B248">
-        <v>3.92630644092378</v>
+        <v>3.94181586940842</v>
       </c>
       <c r="C248">
         <v>1.75</v>
@@ -12530,10 +12547,10 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>2.0934607341073299</v>
+        <v>3.5354919841855699</v>
       </c>
       <c r="B249">
-        <v>3.94181586940842</v>
+        <v>3.9108580356781499</v>
       </c>
       <c r="C249">
         <v>1.75</v>
@@ -12541,10 +12558,10 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>3.5354919841855699</v>
+        <v>5.07951783113361</v>
       </c>
       <c r="B250">
-        <v>3.9108580356781499</v>
+        <v>3.94181586940842</v>
       </c>
       <c r="C250">
         <v>1.75</v>
@@ -12552,7 +12569,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>5.07951783113361</v>
+        <v>7.0185484063471399</v>
       </c>
       <c r="B251">
         <v>3.94181586940842</v>
@@ -12563,10 +12580,10 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>7.0185484063471399</v>
+        <v>11.3994661961079</v>
       </c>
       <c r="B252">
-        <v>3.94181586940842</v>
+        <v>3.92630644092378</v>
       </c>
       <c r="C252">
         <v>1.75</v>
@@ -12574,10 +12591,10 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>11.3994661961079</v>
+        <v>19.7958949097901</v>
       </c>
       <c r="B253">
-        <v>3.92630644092378</v>
+        <v>3.94181586940842</v>
       </c>
       <c r="C253">
         <v>1.75</v>
@@ -12585,21 +12602,21 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>19.7958949097901</v>
+        <v>9.9755008125477204E-2</v>
       </c>
       <c r="B254">
-        <v>3.94181586940842</v>
+        <v>3.3271644327002599</v>
       </c>
       <c r="C254">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>9.9755008125477204E-2</v>
+        <v>0.16846890216948601</v>
       </c>
       <c r="B255">
-        <v>3.3271644327002599</v>
+        <v>3.3010338860909698</v>
       </c>
       <c r="C255">
         <v>1.8</v>
@@ -12607,10 +12624,10 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>0.16846890216948601</v>
+        <v>0.27362574768875703</v>
       </c>
       <c r="B256">
-        <v>3.3010338860909698</v>
+        <v>3.3140734054845802</v>
       </c>
       <c r="C256">
         <v>1.8</v>
@@ -12618,7 +12635,7 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>0.27362574768875703</v>
+        <v>0.44690508297019998</v>
       </c>
       <c r="B257">
         <v>3.3140734054845802</v>
@@ -12629,10 +12646,10 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>0.44690508297019998</v>
+        <v>0.74637674033421098</v>
       </c>
       <c r="B258">
-        <v>3.3140734054845802</v>
+        <v>3.3271644327002599</v>
       </c>
       <c r="C258">
         <v>1.8</v>
@@ -12640,7 +12657,7 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>0.74637674033421098</v>
+        <v>1.20551937561224</v>
       </c>
       <c r="B259">
         <v>3.3271644327002599</v>
@@ -12651,10 +12668,10 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>1.20551937561224</v>
+        <v>1.8518262509952399</v>
       </c>
       <c r="B260">
-        <v>3.3271644327002599</v>
+        <v>3.3010338860909698</v>
       </c>
       <c r="C260">
         <v>1.8</v>
@@ -12662,10 +12679,10 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>1.8518262509952399</v>
+        <v>2.7205539223922202</v>
       </c>
       <c r="B261">
-        <v>3.3010338860909698</v>
+        <v>3.3271644327002599</v>
       </c>
       <c r="C261">
         <v>1.8</v>
@@ -12673,7 +12690,7 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>2.7205539223922202</v>
+        <v>3.9525029734689698</v>
       </c>
       <c r="B262">
         <v>3.3271644327002599</v>
@@ -12684,10 +12701,10 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>3.9525029734689698</v>
+        <v>6.2431509225771604</v>
       </c>
       <c r="B263">
-        <v>3.3271644327002599</v>
+        <v>3.34030717120068</v>
       </c>
       <c r="C263">
         <v>1.8</v>
@@ -12695,10 +12712,10 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>6.2431509225771604</v>
+        <v>9.0198140312656907</v>
       </c>
       <c r="B264">
-        <v>3.34030717120068</v>
+        <v>3.3271644327002599</v>
       </c>
       <c r="C264">
         <v>1.8</v>
@@ -12706,7 +12723,7 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>9.0198140312656907</v>
+        <v>12.8152764999751</v>
       </c>
       <c r="B265">
         <v>3.3271644327002599</v>
@@ -12717,10 +12734,10 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>12.8152764999751</v>
+        <v>19.7958949097901</v>
       </c>
       <c r="B266">
-        <v>3.3271644327002599</v>
+        <v>3.34030717120068</v>
       </c>
       <c r="C266">
         <v>1.8</v>
@@ -12728,13 +12745,13 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>19.7958949097901</v>
+        <v>0.1</v>
       </c>
       <c r="B267">
-        <v>3.34030717120068</v>
+        <v>200</v>
       </c>
       <c r="C267">
-        <v>1.8</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/contour_data.xlsx
+++ b/contour_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thorntontomasettigbr-my.sharepoint.com/personal/amccrone_thorntontomasetti_com/Documents/R&amp;D/Graph Digitizer/NA Plots/Excel_CSVs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{0DC470F0-22FC-4171-892E-4A202F40D8FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{945D2FD1-FFE4-48D5-B858-BFF40F2C8180}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="8_{0DC470F0-22FC-4171-892E-4A202F40D8FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05A37158-D42C-404B-85A1-2E7569588C20}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" activeTab="3" xr2:uid="{5D713D43-6F59-44AB-BBC5-917AE4047E47}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" activeTab="2" xr2:uid="{5D713D43-6F59-44AB-BBC5-917AE4047E47}"/>
   </bookViews>
   <sheets>
     <sheet name="NA.3" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="NA.5" sheetId="3" r:id="rId3"/>
     <sheet name="NA.6" sheetId="4" r:id="rId4"/>
     <sheet name="NA.7" sheetId="5" r:id="rId5"/>
+    <sheet name="NA.8" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="3">
   <si>
     <t>X</t>
   </si>
@@ -891,9 +892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F310B867-9AF6-4746-B1BF-BBCA3FE770BE}">
   <dimension ref="A1:C274"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -7090,6 +7089,5677 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D13B1B-3E70-468E-B40B-280FBA626341}">
+  <dimension ref="A1:C247"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="D243" sqref="D243"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>9.8778829120916095E-2</v>
+      </c>
+      <c r="B2">
+        <v>162.44377226327401</v>
+      </c>
+      <c r="C2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.16442335096014499</v>
+      </c>
+      <c r="B3">
+        <v>161.814658939097</v>
+      </c>
+      <c r="C3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.247529275629367</v>
+      </c>
+      <c r="B4">
+        <v>162.44377226327401</v>
+      </c>
+      <c r="C4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.36470268335052403</v>
+      </c>
+      <c r="B5">
+        <v>163.075331494251</v>
+      </c>
+      <c r="C5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.68094011041345504</v>
+      </c>
+      <c r="B6">
+        <v>163.075331494251</v>
+      </c>
+      <c r="C6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.91390626749923998</v>
+      </c>
+      <c r="B7">
+        <v>176.23507521456801</v>
+      </c>
+      <c r="C7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1.1748786670889899</v>
+      </c>
+      <c r="B8">
+        <v>186.07378974277</v>
+      </c>
+      <c r="C8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1.5768332060096</v>
+      </c>
+      <c r="B9">
+        <v>200.31066706757801</v>
+      </c>
+      <c r="C9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9.8778829120916095E-2</v>
+      </c>
+      <c r="B10">
+        <v>116.352449287589</v>
+      </c>
+      <c r="C10">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.134490127388353</v>
+      </c>
+      <c r="B11">
+        <v>116.804811741197</v>
+      </c>
+      <c r="C11">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.193933173619633</v>
+      </c>
+      <c r="B12">
+        <v>116.804811741197</v>
+      </c>
+      <c r="C12">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.29617539250211999</v>
+      </c>
+      <c r="B13">
+        <v>116.804811741197</v>
+      </c>
+      <c r="C13">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.39466154842929502</v>
+      </c>
+      <c r="B14">
+        <v>116.352449287589</v>
+      </c>
+      <c r="C14">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.49300190071622502</v>
+      </c>
+      <c r="B15">
+        <v>116.804811741197</v>
+      </c>
+      <c r="C15">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.70077161311394998</v>
+      </c>
+      <c r="B16">
+        <v>128.70364050918201</v>
+      </c>
+      <c r="C16">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1.1173127268427001</v>
+      </c>
+      <c r="B17">
+        <v>145.155051010199</v>
+      </c>
+      <c r="C17">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1.7310332339848999</v>
+      </c>
+      <c r="B18">
+        <v>160.563732157733</v>
+      </c>
+      <c r="C18">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2.4782790719305798</v>
+      </c>
+      <c r="B19">
+        <v>172.848784021851</v>
+      </c>
+      <c r="C19">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3.6514267871000099</v>
+      </c>
+      <c r="B20">
+        <v>186.797219258827</v>
+      </c>
+      <c r="C20">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>5.1163083719627096</v>
+      </c>
+      <c r="B21">
+        <v>201.08944762091701</v>
+      </c>
+      <c r="C21">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>9.94903067745357E-2</v>
+      </c>
+      <c r="B22">
+        <v>81.737617389376695</v>
+      </c>
+      <c r="C22">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.13643449794086099</v>
+      </c>
+      <c r="B23">
+        <v>81.737617389376695</v>
+      </c>
+      <c r="C23">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0.18844495722447499</v>
+      </c>
+      <c r="B24">
+        <v>82.055402097655005</v>
+      </c>
+      <c r="C24">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0.25842108605286601</v>
+      </c>
+      <c r="B25">
+        <v>82.055402097655005</v>
+      </c>
+      <c r="C25">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0.33701800383753799</v>
+      </c>
+      <c r="B26">
+        <v>81.737617389376695</v>
+      </c>
+      <c r="C26">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0.48250065300691802</v>
+      </c>
+      <c r="B27">
+        <v>90.765850122412999</v>
+      </c>
+      <c r="C27">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0.66166982978874</v>
+      </c>
+      <c r="B28">
+        <v>99.238952060057898</v>
+      </c>
+      <c r="C28">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0.93379671953964405</v>
+      </c>
+      <c r="B29">
+        <v>109.773489846148</v>
+      </c>
+      <c r="C29">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1.26229824630369</v>
+      </c>
+      <c r="B30">
+        <v>118.172478820447</v>
+      </c>
+      <c r="C30">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2.14690233356403</v>
+      </c>
+      <c r="B31">
+        <v>132.761595432099</v>
+      </c>
+      <c r="C31">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>3.2320298568961499</v>
+      </c>
+      <c r="B32">
+        <v>144.59289356094899</v>
+      </c>
+      <c r="C32">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>4.7619820260936896</v>
+      </c>
+      <c r="B33">
+        <v>156.86867595580401</v>
+      </c>
+      <c r="C33">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>7.2205075081289403</v>
+      </c>
+      <c r="B34">
+        <v>168.87101168925199</v>
+      </c>
+      <c r="C34">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>10.7151192266465</v>
+      </c>
+      <c r="B35">
+        <v>179.68770744698</v>
+      </c>
+      <c r="C35">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>14.9064499765483</v>
+      </c>
+      <c r="B36">
+        <v>189.719172838562</v>
+      </c>
+      <c r="C36">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>21.037069337930699</v>
+      </c>
+      <c r="B37">
+        <v>200.31066706757801</v>
+      </c>
+      <c r="C37">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0.100206909012604</v>
+      </c>
+      <c r="B38">
+        <v>54.384553033473402</v>
+      </c>
+      <c r="C38">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0.138406978934773</v>
+      </c>
+      <c r="B39">
+        <v>54.5959927581996</v>
+      </c>
+      <c r="C39">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0.185759369406689</v>
+      </c>
+      <c r="B40">
+        <v>54.5959927581996</v>
+      </c>
+      <c r="C40">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>0.23038680935231601</v>
+      </c>
+      <c r="B41">
+        <v>54.5959927581996</v>
+      </c>
+      <c r="C41">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>0.29830866513951199</v>
+      </c>
+      <c r="B42">
+        <v>60.8620360512895</v>
+      </c>
+      <c r="C42">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0.449085408883591</v>
+      </c>
+      <c r="B43">
+        <v>69.176439625776695</v>
+      </c>
+      <c r="C43">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0.65693807939786197</v>
+      </c>
+      <c r="B44">
+        <v>78.018846886208806</v>
+      </c>
+      <c r="C44">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0.900881904445199</v>
+      </c>
+      <c r="B45">
+        <v>85.3020006475938</v>
+      </c>
+      <c r="C45">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1.2532712664544501</v>
+      </c>
+      <c r="B46">
+        <v>92.544049492506204</v>
+      </c>
+      <c r="C46">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1.718654224375</v>
+      </c>
+      <c r="B47">
+        <v>100.012107125764</v>
+      </c>
+      <c r="C47">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2.1011719759737399</v>
+      </c>
+      <c r="B48">
+        <v>105.186554177193</v>
+      </c>
+      <c r="C48">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>3.1631856068398401</v>
+      </c>
+      <c r="B49">
+        <v>114.560450879521</v>
+      </c>
+      <c r="C49">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>4.6941175360794496</v>
+      </c>
+      <c r="B50">
+        <v>124.769719935979</v>
+      </c>
+      <c r="C50">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>7.3248968967449901</v>
+      </c>
+      <c r="B51">
+        <v>134.83830310774599</v>
+      </c>
+      <c r="C51">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>10.870031432437999</v>
+      </c>
+      <c r="B52">
+        <v>144.03291323881601</v>
+      </c>
+      <c r="C52">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>17.456048526607201</v>
+      </c>
+      <c r="B53">
+        <v>155.05315912809701</v>
+      </c>
+      <c r="C53">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>26.8509530236222</v>
+      </c>
+      <c r="B54">
+        <v>166.27015037546801</v>
+      </c>
+      <c r="C54">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>38.1669637311226</v>
+      </c>
+      <c r="B55">
+        <v>174.87266975113801</v>
+      </c>
+      <c r="C55">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>45.996724929245502</v>
+      </c>
+      <c r="B56">
+        <v>178.99181169566401</v>
+      </c>
+      <c r="C56">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>60.418363912476202</v>
+      </c>
+      <c r="B57">
+        <v>178.29861101405399</v>
+      </c>
+      <c r="C57">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>96.331252110017502</v>
+      </c>
+      <c r="B58">
+        <v>178.99181169566401</v>
+      </c>
+      <c r="C58">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>9.8778829120916095E-2</v>
+      </c>
+      <c r="B59">
+        <v>33.613232445261197</v>
+      </c>
+      <c r="C59">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>0.13940388761949199</v>
+      </c>
+      <c r="B60">
+        <v>33.613232445261197</v>
+      </c>
+      <c r="C60">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>0.201018757777637</v>
+      </c>
+      <c r="B61">
+        <v>39.105084733003302</v>
+      </c>
+      <c r="C61">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>0.26215716958275398</v>
+      </c>
+      <c r="B62">
+        <v>43.593219146130998</v>
+      </c>
+      <c r="C62">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>0.36732953985133698</v>
+      </c>
+      <c r="B63">
+        <v>49.934542768812499</v>
+      </c>
+      <c r="C63">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>0.54511124190995397</v>
+      </c>
+      <c r="B64">
+        <v>56.317374350112502</v>
+      </c>
+      <c r="C64">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>0.80893648296532505</v>
+      </c>
+      <c r="B65">
+        <v>64.259794400952501</v>
+      </c>
+      <c r="C65">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1.1013895549411401</v>
+      </c>
+      <c r="B66">
+        <v>69.986426284079201</v>
+      </c>
+      <c r="C66">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1.6820458183818701</v>
+      </c>
+      <c r="B67">
+        <v>78.322173521971095</v>
+      </c>
+      <c r="C67">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>2.8814097867749</v>
+      </c>
+      <c r="B68">
+        <v>89.021818189525604</v>
+      </c>
+      <c r="C68">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>4.6272202040636197</v>
+      </c>
+      <c r="B69">
+        <v>97.710526614793096</v>
+      </c>
+      <c r="C69">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>7.2205075081289403</v>
+      </c>
+      <c r="B70">
+        <v>107.247270450195</v>
+      </c>
+      <c r="C70">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>10.792297382669201</v>
+      </c>
+      <c r="B71">
+        <v>115.452973332534</v>
+      </c>
+      <c r="C71">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>16.130955153061102</v>
+      </c>
+      <c r="B72">
+        <v>122.848083211789</v>
+      </c>
+      <c r="C72">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>23.596933873778799</v>
+      </c>
+      <c r="B73">
+        <v>130.71687210118799</v>
+      </c>
+      <c r="C73">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>32.127882775106499</v>
+      </c>
+      <c r="B74">
+        <v>135.36253603973501</v>
+      </c>
+      <c r="C74">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>47.677271167909801</v>
+      </c>
+      <c r="B75">
+        <v>135.36253603973501</v>
+      </c>
+      <c r="C75">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>66.804467363412599</v>
+      </c>
+      <c r="B76">
+        <v>135.36253603973501</v>
+      </c>
+      <c r="C76">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>97.025100516922294</v>
+      </c>
+      <c r="B77">
+        <v>135.36253603973501</v>
+      </c>
+      <c r="C77">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>9.94903067745357E-2</v>
+      </c>
+      <c r="B78">
+        <v>20.855960608357499</v>
+      </c>
+      <c r="C78">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>0.16560764865816799</v>
+      </c>
+      <c r="B79">
+        <v>26.735188352834701</v>
+      </c>
+      <c r="C79">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>0.247529275629367</v>
+      </c>
+      <c r="B80">
+        <v>32.333911082490602</v>
+      </c>
+      <c r="C80">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>0.34933136613849602</v>
+      </c>
+      <c r="B81">
+        <v>36.608738584215303</v>
+      </c>
+      <c r="C81">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>0.53734269170742399</v>
+      </c>
+      <c r="B82">
+        <v>42.921819620029297</v>
+      </c>
+      <c r="C82">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>0.80315159547742399</v>
+      </c>
+      <c r="B83">
+        <v>49.548518058355199</v>
+      </c>
+      <c r="C83">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>1.3273340985534501</v>
+      </c>
+      <c r="B84">
+        <v>57.198312268977297</v>
+      </c>
+      <c r="C84">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>2.3568499669815002</v>
+      </c>
+      <c r="B85">
+        <v>66.543580761108203</v>
+      </c>
+      <c r="C85">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>3.8120972703762201</v>
+      </c>
+      <c r="B86">
+        <v>74.180862123002697</v>
+      </c>
+      <c r="C86">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>5.9914015314563001</v>
+      </c>
+      <c r="B87">
+        <v>81.737617389376695</v>
+      </c>
+      <c r="C87">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>8.76443486498707</v>
+      </c>
+      <c r="B88">
+        <v>87.991525761981606</v>
+      </c>
+      <c r="C88">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>12.729241131785701</v>
+      </c>
+      <c r="B89">
+        <v>93.627647402426504</v>
+      </c>
+      <c r="C89">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>19.580161863950099</v>
+      </c>
+      <c r="B90">
+        <v>100.791285720974</v>
+      </c>
+      <c r="C90">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>27.435342924806399</v>
+      </c>
+      <c r="B91">
+        <v>100.791285720974</v>
+      </c>
+      <c r="C91">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>43.4301912138448</v>
+      </c>
+      <c r="B92">
+        <v>100.791285720974</v>
+      </c>
+      <c r="C92">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>63.531225552021397</v>
+      </c>
+      <c r="B93">
+        <v>100.791285720974</v>
+      </c>
+      <c r="C93">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>97.723946529497297</v>
+      </c>
+      <c r="B94">
+        <v>100.791285720974</v>
+      </c>
+      <c r="C94">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>9.8778829120916095E-2</v>
+      </c>
+      <c r="B95">
+        <v>15.5294008679423</v>
+      </c>
+      <c r="C95">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>0.142437903732029</v>
+      </c>
+      <c r="B96">
+        <v>18.708737798052301</v>
+      </c>
+      <c r="C96">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>0.20539377314079699</v>
+      </c>
+      <c r="B97">
+        <v>22.191847557687002</v>
+      </c>
+      <c r="C97">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>0.29405737537915799</v>
+      </c>
+      <c r="B98">
+        <v>26.119930958121</v>
+      </c>
+      <c r="C98">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>0.42099494396845299</v>
+      </c>
+      <c r="B99">
+        <v>29.803615891275602</v>
+      </c>
+      <c r="C99">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>0.64757585008137597</v>
+      </c>
+      <c r="B100">
+        <v>34.943171351485397</v>
+      </c>
+      <c r="C100">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>0.92048889145434398</v>
+      </c>
+      <c r="B101">
+        <v>39.2571199689324</v>
+      </c>
+      <c r="C101">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>1.3084178466265699</v>
+      </c>
+      <c r="B102">
+        <v>43.762703636525103</v>
+      </c>
+      <c r="C102">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>1.62275643994015</v>
+      </c>
+      <c r="B103">
+        <v>46.5658363117942</v>
+      </c>
+      <c r="C103">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>2.72063235366377</v>
+      </c>
+      <c r="B104">
+        <v>53.133000286941098</v>
+      </c>
+      <c r="C104">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>4.0373754903737398</v>
+      </c>
+      <c r="B105">
+        <v>58.773241216454302</v>
+      </c>
+      <c r="C105">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>5.9914015314563001</v>
+      </c>
+      <c r="B106">
+        <v>64.5096277172388</v>
+      </c>
+      <c r="C106">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>7.8699228832080301</v>
+      </c>
+      <c r="B107">
+        <v>67.847240157605498</v>
+      </c>
+      <c r="C107">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>11.430074797989899</v>
+      </c>
+      <c r="B108">
+        <v>72.755504544385204</v>
+      </c>
+      <c r="C108">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>21.649746856857298</v>
+      </c>
+      <c r="B109">
+        <v>73.038368022985793</v>
+      </c>
+      <c r="C109">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>38.1669637311226</v>
+      </c>
+      <c r="B110">
+        <v>72.755504544385204</v>
+      </c>
+      <c r="C110">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>62.177970857002201</v>
+      </c>
+      <c r="B111">
+        <v>73.038368022985793</v>
+      </c>
+      <c r="C111">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>97.723946529497297</v>
+      </c>
+      <c r="B112">
+        <v>72.755504544385204</v>
+      </c>
+      <c r="C112">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>9.8778829120916095E-2</v>
+      </c>
+      <c r="B113">
+        <v>11.4738401676197</v>
+      </c>
+      <c r="C113">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>0.14040797677251901</v>
+      </c>
+      <c r="B114">
+        <v>13.8228814529404</v>
+      </c>
+      <c r="C114">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>0.19815397680930799</v>
+      </c>
+      <c r="B115">
+        <v>16.143836103775801</v>
+      </c>
+      <c r="C115">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>0.30045730317274999</v>
+      </c>
+      <c r="B116">
+        <v>19.6004903046789</v>
+      </c>
+      <c r="C116">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>0.44268535275575899</v>
+      </c>
+      <c r="B117">
+        <v>23.069888713533199</v>
+      </c>
+      <c r="C117">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>0.63834704481279203</v>
+      </c>
+      <c r="B118">
+        <v>26.425769126525001</v>
+      </c>
+      <c r="C118">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>0.89443949448243298</v>
+      </c>
+      <c r="B119">
+        <v>29.688192248961599</v>
+      </c>
+      <c r="C119">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>1.3465238293142401</v>
+      </c>
+      <c r="B120">
+        <v>33.613232445261197</v>
+      </c>
+      <c r="C120">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>2.2413705662831398</v>
+      </c>
+      <c r="B121">
+        <v>39.105084733003302</v>
+      </c>
+      <c r="C121">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>3.4230286382752402</v>
+      </c>
+      <c r="B122">
+        <v>43.762703636525103</v>
+      </c>
+      <c r="C122">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>4.6272202040636197</v>
+      </c>
+      <c r="B123">
+        <v>46.928623417925003</v>
+      </c>
+      <c r="C123">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>6.3000892016719199</v>
+      </c>
+      <c r="B124">
+        <v>49.934542768812499</v>
+      </c>
+      <c r="C124">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>10.263503419808099</v>
+      </c>
+      <c r="B125">
+        <v>49.741155938681302</v>
+      </c>
+      <c r="C125">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>15.6744568093882</v>
+      </c>
+      <c r="B126">
+        <v>49.934542768812499</v>
+      </c>
+      <c r="C126">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>25.535327503632601</v>
+      </c>
+      <c r="B127">
+        <v>49.934542768812499</v>
+      </c>
+      <c r="C127">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>42.505101076592801</v>
+      </c>
+      <c r="B128">
+        <v>49.934542768812499</v>
+      </c>
+      <c r="C128">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>71.2619283698494</v>
+      </c>
+      <c r="B129">
+        <v>49.934542768812499</v>
+      </c>
+      <c r="C129">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>96.331252110017502</v>
+      </c>
+      <c r="B130">
+        <v>49.934542768812499</v>
+      </c>
+      <c r="C130">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>0.100206909012604</v>
+      </c>
+      <c r="B131">
+        <v>8.6770902450238108</v>
+      </c>
+      <c r="C131">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>0.13940388761949199</v>
+      </c>
+      <c r="B132">
+        <v>10.2526913257988</v>
+      </c>
+      <c r="C132">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>0.18844495722447499</v>
+      </c>
+      <c r="B133">
+        <v>11.9278133600987</v>
+      </c>
+      <c r="C133">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>0.26215716958275398</v>
+      </c>
+      <c r="B134">
+        <v>13.716022082358799</v>
+      </c>
+      <c r="C134">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>0.37802753905880099</v>
+      </c>
+      <c r="B135">
+        <v>15.956995704113099</v>
+      </c>
+      <c r="C135">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>0.55299210474496296</v>
+      </c>
+      <c r="B136">
+        <v>18.854494631445501</v>
+      </c>
+      <c r="C136">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>0.79170563177312203</v>
+      </c>
+      <c r="B137">
+        <v>21.430219791654299</v>
+      </c>
+      <c r="C137">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>1.0324972150009799</v>
+      </c>
+      <c r="B138">
+        <v>23.521852326755599</v>
+      </c>
+      <c r="C138">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>1.3273340985534501</v>
+      </c>
+      <c r="B139">
+        <v>25.6180462336972</v>
+      </c>
+      <c r="C139">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>2.0564157034979198</v>
+      </c>
+      <c r="B140">
+        <v>29.117744715642999</v>
+      </c>
+      <c r="C140">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>3.0081978972728298</v>
+      </c>
+      <c r="B141">
+        <v>32.2086880960915</v>
+      </c>
+      <c r="C141">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>4.7279280171319797</v>
+      </c>
+      <c r="B142">
+        <v>32.333911082490602</v>
+      </c>
+      <c r="C142">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>7.1176058052249598</v>
+      </c>
+      <c r="B143">
+        <v>32.333911082490602</v>
+      </c>
+      <c r="C143">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>10.6384929890483</v>
+      </c>
+      <c r="B144">
+        <v>32.459620918781702</v>
+      </c>
+      <c r="C144">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>17.964433431830699</v>
+      </c>
+      <c r="B145">
+        <v>32.2086880960915</v>
+      </c>
+      <c r="C145">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>29.265938633627599</v>
+      </c>
+      <c r="B146">
+        <v>32.2086880960915</v>
+      </c>
+      <c r="C146">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>44.0580765949191</v>
+      </c>
+      <c r="B147">
+        <v>32.2086880960915</v>
+      </c>
+      <c r="C147">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>67.2856421871479</v>
+      </c>
+      <c r="B148">
+        <v>32.2086880960915</v>
+      </c>
+      <c r="C148">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>98.427826144167994</v>
+      </c>
+      <c r="B149">
+        <v>32.2086880960915</v>
+      </c>
+      <c r="C149">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>9.8778829120916095E-2</v>
+      </c>
+      <c r="B150">
+        <v>6.6906059489845999</v>
+      </c>
+      <c r="C150">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>0.13643449794086099</v>
+      </c>
+      <c r="B151">
+        <v>7.7837415064514097</v>
+      </c>
+      <c r="C151">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>0.201018757777637</v>
+      </c>
+      <c r="B152">
+        <v>9.2328839499580795</v>
+      </c>
+      <c r="C152">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>0.29195450467499601</v>
+      </c>
+      <c r="B153">
+        <v>10.867156990437801</v>
+      </c>
+      <c r="C153">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>0.45557799284904898</v>
+      </c>
+      <c r="B154">
+        <v>12.9907827785461</v>
+      </c>
+      <c r="C154">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>0.67123582067228504</v>
+      </c>
+      <c r="B155">
+        <v>15.1132641625695</v>
+      </c>
+      <c r="C155">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>0.94052260913449104</v>
+      </c>
+      <c r="B156">
+        <v>17.0451016130494</v>
+      </c>
+      <c r="C156">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>1.20909549336022</v>
+      </c>
+      <c r="B157">
+        <v>18.564107754578199</v>
+      </c>
+      <c r="C157">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>1.56555691562582</v>
+      </c>
+      <c r="B158">
+        <v>19.676694337687501</v>
+      </c>
+      <c r="C158">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>2.40814495521147</v>
+      </c>
+      <c r="B159">
+        <v>19.8299923682263</v>
+      </c>
+      <c r="C159">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>5.0073278153094298</v>
+      </c>
+      <c r="B160">
+        <v>19.8299923682263</v>
+      </c>
+      <c r="C160">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>7.9266078461392802</v>
+      </c>
+      <c r="B161">
+        <v>19.7531946415831</v>
+      </c>
+      <c r="C161">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>14.176073442637399</v>
+      </c>
+      <c r="B162">
+        <v>19.7531946415831</v>
+      </c>
+      <c r="C162">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>29.9028887996467</v>
+      </c>
+      <c r="B163">
+        <v>19.7531946415831</v>
+      </c>
+      <c r="C163">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>53.4788090945205</v>
+      </c>
+      <c r="B164">
+        <v>19.676694337687501</v>
+      </c>
+      <c r="C164">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>99.136775616632406</v>
+      </c>
+      <c r="B165">
+        <v>19.7531946415831</v>
+      </c>
+      <c r="C165">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>9.8778829120916095E-2</v>
+      </c>
+      <c r="B166">
+        <v>5.2599644622797399</v>
+      </c>
+      <c r="C166">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>0.144497178051681</v>
+      </c>
+      <c r="B167">
+        <v>6.1910081276367803</v>
+      </c>
+      <c r="C167">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>0.20836322236297</v>
+      </c>
+      <c r="B168">
+        <v>7.2586312557389396</v>
+      </c>
+      <c r="C168">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>0.31143487584782398</v>
+      </c>
+      <c r="B169">
+        <v>8.6100110036066102</v>
+      </c>
+      <c r="C169">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>0.42402725866165297</v>
+      </c>
+      <c r="B170">
+        <v>9.7483302045986999</v>
+      </c>
+      <c r="C170">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>0.56098690395524498</v>
+      </c>
+      <c r="B171">
+        <v>10.7831471868405</v>
+      </c>
+      <c r="C171">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>0.72118068275953295</v>
+      </c>
+      <c r="B172">
+        <v>11.744107536251301</v>
+      </c>
+      <c r="C172">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>0.94729694352454596</v>
+      </c>
+      <c r="B173">
+        <v>11.7897670245824</v>
+      </c>
+      <c r="C173">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>1.33689453329855</v>
+      </c>
+      <c r="B174">
+        <v>11.835604030776601</v>
+      </c>
+      <c r="C174">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>2.3909237667574801</v>
+      </c>
+      <c r="B175">
+        <v>11.835604030776601</v>
+      </c>
+      <c r="C175">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>4.0957452321930097</v>
+      </c>
+      <c r="B176">
+        <v>11.835604030776601</v>
+      </c>
+      <c r="C176">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>6.8176163024958703</v>
+      </c>
+      <c r="B177">
+        <v>11.835604030776601</v>
+      </c>
+      <c r="C177">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>11.595323365165401</v>
+      </c>
+      <c r="B178">
+        <v>11.7897670245824</v>
+      </c>
+      <c r="C178">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>17.964433431830699</v>
+      </c>
+      <c r="B179">
+        <v>11.7897670245824</v>
+      </c>
+      <c r="C179">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>28.437726516891999</v>
+      </c>
+      <c r="B180">
+        <v>11.7897670245824</v>
+      </c>
+      <c r="C180">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>51.593768082933998</v>
+      </c>
+      <c r="B181">
+        <v>11.7897670245824</v>
+      </c>
+      <c r="C181">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>98.427826144167994</v>
+      </c>
+      <c r="B182">
+        <v>11.7897670245824</v>
+      </c>
+      <c r="C182">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>0.100206909012604</v>
+      </c>
+      <c r="B183">
+        <v>4.1836541861088303</v>
+      </c>
+      <c r="C183">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>0.14553795282204199</v>
+      </c>
+      <c r="B184">
+        <v>4.90511438725642</v>
+      </c>
+      <c r="C184">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>0.220676574441273</v>
+      </c>
+      <c r="B185">
+        <v>5.8183268112477604</v>
+      </c>
+      <c r="C185">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>0.32050501503767698</v>
+      </c>
+      <c r="B186">
+        <v>6.7166181123875903</v>
+      </c>
+      <c r="C186">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>0.406155557144254</v>
+      </c>
+      <c r="B187">
+        <v>7.2305199802209703</v>
+      </c>
+      <c r="C187">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>0.65224016682269503</v>
+      </c>
+      <c r="B188">
+        <v>7.2025175742382297</v>
+      </c>
+      <c r="C188">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>0.92711892830032805</v>
+      </c>
+      <c r="B189">
+        <v>7.2025175742382297</v>
+      </c>
+      <c r="C189">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>1.4363692797802201</v>
+      </c>
+      <c r="B190">
+        <v>7.2025175742382297</v>
+      </c>
+      <c r="C190">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>2.58732858035484</v>
+      </c>
+      <c r="B191">
+        <v>7.2025175742382297</v>
+      </c>
+      <c r="C191">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>4.1252457965706002</v>
+      </c>
+      <c r="B192">
+        <v>7.2025175742382297</v>
+      </c>
+      <c r="C192">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>6.4835711762327399</v>
+      </c>
+      <c r="B193">
+        <v>7.2025175742382297</v>
+      </c>
+      <c r="C193">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>10.337428707200401</v>
+      </c>
+      <c r="B194">
+        <v>7.2305199802209703</v>
+      </c>
+      <c r="C194">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>17.581779804834699</v>
+      </c>
+      <c r="B195">
+        <v>7.2305199802209703</v>
+      </c>
+      <c r="C195">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>29.265938633627599</v>
+      </c>
+      <c r="B196">
+        <v>7.2025175742382297</v>
+      </c>
+      <c r="C196">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>50.858489213825401</v>
+      </c>
+      <c r="B197">
+        <v>7.2025175742382297</v>
+      </c>
+      <c r="C197">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>76.016808986202506</v>
+      </c>
+      <c r="B198">
+        <v>7.2025175742382297</v>
+      </c>
+      <c r="C198">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>99.850831463728696</v>
+      </c>
+      <c r="B199">
+        <v>7.2025175742382297</v>
+      </c>
+      <c r="C199">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>9.94903067745357E-2</v>
+      </c>
+      <c r="B200">
+        <v>3.37963317258555</v>
+      </c>
+      <c r="C200">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>0.13162540386475299</v>
+      </c>
+      <c r="B201">
+        <v>3.7675174605034201</v>
+      </c>
+      <c r="C201">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>0.17665765272819201</v>
+      </c>
+      <c r="B202">
+        <v>4.2326405764467996</v>
+      </c>
+      <c r="C202">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>0.22386697243779499</v>
+      </c>
+      <c r="B203">
+        <v>4.57420336669764</v>
+      </c>
+      <c r="C203">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>0.33701800383753799</v>
+      </c>
+      <c r="B204">
+        <v>4.57420336669764</v>
+      </c>
+      <c r="C204">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>0.51840223607097702</v>
+      </c>
+      <c r="B205">
+        <v>4.5919872455152397</v>
+      </c>
+      <c r="C205">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>0.74218414024275703</v>
+      </c>
+      <c r="B206">
+        <v>4.5919872455152397</v>
+      </c>
+      <c r="C206">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>1.09351326948505</v>
+      </c>
+      <c r="B207">
+        <v>4.57420336669764</v>
+      </c>
+      <c r="C207">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>1.87323068267758</v>
+      </c>
+      <c r="B208">
+        <v>4.57420336669764</v>
+      </c>
+      <c r="C208">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>3.2089168814358899</v>
+      </c>
+      <c r="B209">
+        <v>4.57420336669764</v>
+      </c>
+      <c r="C209">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>5.4186597447755203</v>
+      </c>
+      <c r="B210">
+        <v>4.5919872455152397</v>
+      </c>
+      <c r="C210">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>8.3950355853980199</v>
+      </c>
+      <c r="B211">
+        <v>4.5919872455152397</v>
+      </c>
+      <c r="C211">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>15.121957708897501</v>
+      </c>
+      <c r="B212">
+        <v>4.5388419629019303</v>
+      </c>
+      <c r="C212">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>25.352718609503199</v>
+      </c>
+      <c r="B213">
+        <v>4.5919872455152397</v>
+      </c>
+      <c r="C213">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>41.599715935752499</v>
+      </c>
+      <c r="B214">
+        <v>4.5919872455152397</v>
+      </c>
+      <c r="C214">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>68.258414120789197</v>
+      </c>
+      <c r="B215">
+        <v>4.5919872455152397</v>
+      </c>
+      <c r="C215">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>99.136775616632406</v>
+      </c>
+      <c r="B216">
+        <v>4.5919872455152397</v>
+      </c>
+      <c r="C216">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>9.94903067745357E-2</v>
+      </c>
+      <c r="B217">
+        <v>2.7944386066395799</v>
+      </c>
+      <c r="C217">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>0.134490127388353</v>
+      </c>
+      <c r="B218">
+        <v>3.09107736069191</v>
+      </c>
+      <c r="C218">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>0.19958122724070401</v>
+      </c>
+      <c r="B219">
+        <v>3.0791062156822999</v>
+      </c>
+      <c r="C219">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>0.33944545494960099</v>
+      </c>
+      <c r="B220">
+        <v>3.0791062156822999</v>
+      </c>
+      <c r="C220">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>0.52213614960116705</v>
+      </c>
+      <c r="B221">
+        <v>3.1030950478805899</v>
+      </c>
+      <c r="C221">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>0.97488574554455099</v>
+      </c>
+      <c r="B222">
+        <v>3.1030950478805899</v>
+      </c>
+      <c r="C222">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>1.6700171288447501</v>
+      </c>
+      <c r="B223">
+        <v>3.09107736069191</v>
+      </c>
+      <c r="C223">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>2.4782790719305798</v>
+      </c>
+      <c r="B224">
+        <v>3.1030950478805899</v>
+      </c>
+      <c r="C224">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>4.4004986801861499</v>
+      </c>
+      <c r="B225">
+        <v>3.09107736069191</v>
+      </c>
+      <c r="C225">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>7.16887202818749</v>
+      </c>
+      <c r="B226">
+        <v>3.1030950478805899</v>
+      </c>
+      <c r="C226">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>11.106609128175</v>
+      </c>
+      <c r="B227">
+        <v>3.11515945819797</v>
+      </c>
+      <c r="C227">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>21.805684229594501</v>
+      </c>
+      <c r="B228">
+        <v>3.1030950478805899</v>
+      </c>
+      <c r="C228">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>35.523737442051903</v>
+      </c>
+      <c r="B229">
+        <v>3.1030950478805899</v>
+      </c>
+      <c r="C229">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>67.7702827852561</v>
+      </c>
+      <c r="B230">
+        <v>3.09107736069191</v>
+      </c>
+      <c r="C230">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>99.136775616632406</v>
+      </c>
+      <c r="B231">
+        <v>3.09107736069191</v>
+      </c>
+      <c r="C231">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>0.10092867274614099</v>
+      </c>
+      <c r="B232">
+        <v>2.20544958307566</v>
+      </c>
+      <c r="C232">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>0.18050246777555501</v>
+      </c>
+      <c r="B233">
+        <v>2.19690830322737</v>
+      </c>
+      <c r="C233">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>0.29830866513951199</v>
+      </c>
+      <c r="B234">
+        <v>2.19690830322737</v>
+      </c>
+      <c r="C234">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>0.52968485353504402</v>
+      </c>
+      <c r="B235">
+        <v>2.20544958307566</v>
+      </c>
+      <c r="C235">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>0.81476303746034695</v>
+      </c>
+      <c r="B236">
+        <v>2.19690830322737</v>
+      </c>
+      <c r="C236">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>1.1918642966472099</v>
+      </c>
+      <c r="B237">
+        <v>2.19690830322737</v>
+      </c>
+      <c r="C237">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>1.6820458183818701</v>
+      </c>
+      <c r="B238">
+        <v>2.20544958307566</v>
+      </c>
+      <c r="C238">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>2.4782790719305798</v>
+      </c>
+      <c r="B239">
+        <v>2.19690830322737</v>
+      </c>
+      <c r="C239">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>4.6605488414130098</v>
+      </c>
+      <c r="B240">
+        <v>2.19690830322737</v>
+      </c>
+      <c r="C240">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>7.3776561823478</v>
+      </c>
+      <c r="B241">
+        <v>2.19690830322737</v>
+      </c>
+      <c r="C241">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>12.1927350619441</v>
+      </c>
+      <c r="B242">
+        <v>2.19690830322737</v>
+      </c>
+      <c r="C242">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>24.2841641465808</v>
+      </c>
+      <c r="B243">
+        <v>2.20544958307566</v>
+      </c>
+      <c r="C243">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>40.713616062621298</v>
+      </c>
+      <c r="B244">
+        <v>2.20544958307566</v>
+      </c>
+      <c r="C244">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>70.752318225577895</v>
+      </c>
+      <c r="B245">
+        <v>2.20544958307566</v>
+      </c>
+      <c r="C245">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>99.850831463728696</v>
+      </c>
+      <c r="B246">
+        <v>2.20544958307566</v>
+      </c>
+      <c r="C246">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>0.1</v>
+      </c>
+      <c r="B247">
+        <v>200</v>
+      </c>
+      <c r="C247">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A3FBCA-AD34-4F10-8370-6BA350BEDFFB}">
+  <dimension ref="A1:C266"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>9.8648951460132805E-2</v>
+      </c>
+      <c r="B2">
+        <v>33.394644831361298</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.12124778626520701</v>
+      </c>
+      <c r="B3">
+        <v>37.884830211773199</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.12057373122131999</v>
+      </c>
+      <c r="B4">
+        <v>40.034584092368398</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.14902363843324301</v>
+      </c>
+      <c r="B5">
+        <v>45.9579089970022</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.14902363843324301</v>
+      </c>
+      <c r="B6">
+        <v>48.757606479574001</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.18316247657755999</v>
+      </c>
+      <c r="B7">
+        <v>55.095832931932399</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.18418642756536999</v>
+      </c>
+      <c r="B8">
+        <v>58.683095048807402</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.212915205204845</v>
+      </c>
+      <c r="B9">
+        <v>63.4973840832875</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.21173154179613901</v>
+      </c>
+      <c r="B10">
+        <v>66.573521097538006</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.251675071115944</v>
+      </c>
+      <c r="B11">
+        <v>74.343239127138105</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.27362574768875703</v>
+      </c>
+      <c r="B12">
+        <v>82.367739781059598</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.29749092536756999</v>
+      </c>
+      <c r="B13">
+        <v>87.385477940669901</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.29749092536756999</v>
+      </c>
+      <c r="B14">
+        <v>92.3441188864129</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.369740736489097</v>
+      </c>
+      <c r="B15">
+        <v>106.006911484291</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.369740736489097</v>
+      </c>
+      <c r="B16">
+        <v>111.142426732533</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.42503553186019799</v>
+      </c>
+      <c r="B17">
+        <v>122.171881534435</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.42503553186019799</v>
+      </c>
+      <c r="B18">
+        <v>128.09051034591101</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.52240410627102096</v>
+      </c>
+      <c r="B19">
+        <v>147.04216744889601</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.52240410627102096</v>
+      </c>
+      <c r="B20">
+        <v>153.55906115408001</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0.60052973676435095</v>
+      </c>
+      <c r="B21">
+        <v>168.13367059017901</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0.59719120077504195</v>
+      </c>
+      <c r="B22">
+        <v>176.975247794437</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.68268477602301803</v>
+      </c>
+      <c r="B23">
+        <v>193.009921484069</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0.68268477602301803</v>
+      </c>
+      <c r="B24">
+        <v>201.564101310034</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>9.9755008125477204E-2</v>
+      </c>
+      <c r="B25">
+        <v>25.845661679515601</v>
+      </c>
+      <c r="C25">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0.13330081790488399</v>
+      </c>
+      <c r="B26">
+        <v>33.0020110583636</v>
+      </c>
+      <c r="C26">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0.16475373772625301</v>
+      </c>
+      <c r="B27">
+        <v>39.720164535785202</v>
+      </c>
+      <c r="C27">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0.212915205204845</v>
+      </c>
+      <c r="B28">
+        <v>49.337688795180597</v>
+      </c>
+      <c r="C28">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0.264624625725637</v>
+      </c>
+      <c r="B29">
+        <v>60.087738374823402</v>
+      </c>
+      <c r="C29">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0.34389255635426802</v>
+      </c>
+      <c r="B30">
+        <v>75.524879995476795</v>
+      </c>
+      <c r="C30">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0.42503553186019799</v>
+      </c>
+      <c r="B31">
+        <v>92.708890340041194</v>
+      </c>
+      <c r="C31">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0.51661183022792201</v>
+      </c>
+      <c r="B32">
+        <v>112.022215447893</v>
+      </c>
+      <c r="C32">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0.61407156443953503</v>
+      </c>
+      <c r="B33">
+        <v>130.64044819057301</v>
+      </c>
+      <c r="C33">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0.73810111604208195</v>
+      </c>
+      <c r="B34">
+        <v>155.38599447193999</v>
+      </c>
+      <c r="C34">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0.86279406647365897</v>
+      </c>
+      <c r="B35">
+        <v>181.92715039856299</v>
+      </c>
+      <c r="C35">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0.95386576810259105</v>
+      </c>
+      <c r="B36">
+        <v>201.564101310034</v>
+      </c>
+      <c r="C36">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>9.9200438277637498E-2</v>
+      </c>
+      <c r="B37">
+        <v>21.305549486667299</v>
+      </c>
+      <c r="C37">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0.12677766755089601</v>
+      </c>
+      <c r="B38">
+        <v>25.7439696028848</v>
+      </c>
+      <c r="C38">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0.15844825263836401</v>
+      </c>
+      <c r="B39">
+        <v>30.620319922389001</v>
+      </c>
+      <c r="C39">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0.195834821336139</v>
+      </c>
+      <c r="B40">
+        <v>36.7086333470113</v>
+      </c>
+      <c r="C40">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>0.24750093717052901</v>
+      </c>
+      <c r="B41">
+        <v>44.531070123207002</v>
+      </c>
+      <c r="C41">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>0.31105892154734499</v>
+      </c>
+      <c r="B42">
+        <v>54.2338191442716</v>
+      </c>
+      <c r="C42">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0.40423617951046598</v>
+      </c>
+      <c r="B43">
+        <v>67.631666992197395</v>
+      </c>
+      <c r="C43">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0.49683996807362502</v>
+      </c>
+      <c r="B44">
+        <v>81.399310363503403</v>
+      </c>
+      <c r="C44">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0.59387122477014398</v>
+      </c>
+      <c r="B45">
+        <v>96.436800717226603</v>
+      </c>
+      <c r="C45">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>0.72585940727864096</v>
+      </c>
+      <c r="B46">
+        <v>116.526732521841</v>
+      </c>
+      <c r="C46">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>0.87246775396772702</v>
+      </c>
+      <c r="B47">
+        <v>138.59889847483299</v>
+      </c>
+      <c r="C47">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1.01986026704508</v>
+      </c>
+      <c r="B48">
+        <v>160.998244967857</v>
+      </c>
+      <c r="C48">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1.2817593275513699</v>
+      </c>
+      <c r="B49">
+        <v>200.771029254436</v>
+      </c>
+      <c r="C49">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>9.9200438277637498E-2</v>
+      </c>
+      <c r="B50">
+        <v>17.562964514411899</v>
+      </c>
+      <c r="C50">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>0.13479539292020101</v>
+      </c>
+      <c r="B51">
+        <v>22.075065948422399</v>
+      </c>
+      <c r="C51">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>0.19151616931427701</v>
+      </c>
+      <c r="B52">
+        <v>28.862078720820399</v>
+      </c>
+      <c r="C52">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>0.26610398248021699</v>
+      </c>
+      <c r="B53">
+        <v>37.587294174207997</v>
+      </c>
+      <c r="C53">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>0.33630885763475799</v>
+      </c>
+      <c r="B54">
+        <v>44.706973725692499</v>
+      </c>
+      <c r="C54">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>0.39312403214583402</v>
+      </c>
+      <c r="B55">
+        <v>50.918538573131201</v>
+      </c>
+      <c r="C55">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>0.48859967408272997</v>
+      </c>
+      <c r="B56">
+        <v>61.526003357496698</v>
+      </c>
+      <c r="C56">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>0.63495901219859197</v>
+      </c>
+      <c r="B57">
+        <v>77.944804655228097</v>
+      </c>
+      <c r="C57">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>0.84848427414976701</v>
+      </c>
+      <c r="B58">
+        <v>101.108691008534</v>
+      </c>
+      <c r="C58">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1.0783303941494</v>
+      </c>
+      <c r="B59">
+        <v>126.08644252243199</v>
+      </c>
+      <c r="C59">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1.39355222113639</v>
+      </c>
+      <c r="B60">
+        <v>161.63420927784</v>
+      </c>
+      <c r="C60">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1.73199577076966</v>
+      </c>
+      <c r="B61">
+        <v>203.15965601373799</v>
+      </c>
+      <c r="C61">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>9.8648951460132805E-2</v>
+      </c>
+      <c r="B62">
+        <v>14.7660254935798</v>
+      </c>
+      <c r="C62">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>0.13554895270117701</v>
+      </c>
+      <c r="B63">
+        <v>18.197305830955699</v>
+      </c>
+      <c r="C63">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>0.17912328173772499</v>
+      </c>
+      <c r="B64">
+        <v>22.337698926066501</v>
+      </c>
+      <c r="C64">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>0.234080735594727</v>
+      </c>
+      <c r="B65">
+        <v>27.4201465836104</v>
+      </c>
+      <c r="C65">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>0.32343758372008502</v>
+      </c>
+      <c r="B66">
+        <v>34.874692048184002</v>
+      </c>
+      <c r="C66">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>0.42980105015576903</v>
+      </c>
+      <c r="B67">
+        <v>42.809654261369801</v>
+      </c>
+      <c r="C67">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>0.59056970556879296</v>
+      </c>
+      <c r="B68">
+        <v>55.531964241117599</v>
+      </c>
+      <c r="C68">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>0.73810111604208195</v>
+      </c>
+      <c r="B69">
+        <v>67.631666992197395</v>
+      </c>
+      <c r="C69">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>0.92764471833394002</v>
+      </c>
+      <c r="B70">
+        <v>82.043656512865894</v>
+      </c>
+      <c r="C70">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1.1723805581789699</v>
+      </c>
+      <c r="B71">
+        <v>101.108691008534</v>
+      </c>
+      <c r="C71">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1.44900895608457</v>
+      </c>
+      <c r="B72">
+        <v>123.138977951782</v>
+      </c>
+      <c r="C72">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1.7909090526668301</v>
+      </c>
+      <c r="B73">
+        <v>149.96938185788301</v>
+      </c>
+      <c r="C73">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>2.3798551260382599</v>
+      </c>
+      <c r="B74">
+        <v>201.564101310034</v>
+      </c>
+      <c r="C74">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>9.8100530533416205E-2</v>
+      </c>
+      <c r="B75">
+        <v>12.414504891707301</v>
+      </c>
+      <c r="C75">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>0.13479539292020101</v>
+      </c>
+      <c r="B76">
+        <v>15.2993466219138</v>
+      </c>
+      <c r="C76">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>0.19151616931427701</v>
+      </c>
+      <c r="B77">
+        <v>19.2299019547287</v>
+      </c>
+      <c r="C77">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>0.26169053914093199</v>
+      </c>
+      <c r="B78">
+        <v>23.886077242944701</v>
+      </c>
+      <c r="C78">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>0.35558995161166701</v>
+      </c>
+      <c r="B79">
+        <v>29.904522836614799</v>
+      </c>
+      <c r="C79">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>0.46989989827555001</v>
+      </c>
+      <c r="B80">
+        <v>36.420334805102698</v>
+      </c>
+      <c r="C80">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>0.59387122477014398</v>
+      </c>
+      <c r="B81">
+        <v>43.1485298090331</v>
+      </c>
+      <c r="C81">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>0.82057275449227296</v>
+      </c>
+      <c r="B82">
+        <v>55.751322826843897</v>
+      </c>
+      <c r="C82">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>1.0604458437144599</v>
+      </c>
+      <c r="B83">
+        <v>68.436299065627907</v>
+      </c>
+      <c r="C83">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>1.3552445227499399</v>
+      </c>
+      <c r="B84">
+        <v>84.339300685716296</v>
+      </c>
+      <c r="C84">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>1.7032699128289901</v>
+      </c>
+      <c r="B85">
+        <v>102.71575256305699</v>
+      </c>
+      <c r="C85">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>2.1767704912122099</v>
+      </c>
+      <c r="B86">
+        <v>129.61443748699901</v>
+      </c>
+      <c r="C86">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>2.69038915316575</v>
+      </c>
+      <c r="B87">
+        <v>160.364782916557</v>
+      </c>
+      <c r="C87">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>3.3251984188011798</v>
+      </c>
+      <c r="B88">
+        <v>202.36030610488999</v>
+      </c>
+      <c r="C88">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>9.8648951460132805E-2</v>
+      </c>
+      <c r="B89">
+        <v>10.6452508462697</v>
+      </c>
+      <c r="C89">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>0.130361198470337</v>
+      </c>
+      <c r="B90">
+        <v>12.6118259462169</v>
+      </c>
+      <c r="C90">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>0.178127478389457</v>
+      </c>
+      <c r="B91">
+        <v>15.35978105969</v>
+      </c>
+      <c r="C91">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>0.232779406264398</v>
+      </c>
+      <c r="B92">
+        <v>18.3413532914143</v>
+      </c>
+      <c r="C92">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>0.30250814665257098</v>
+      </c>
+      <c r="B93">
+        <v>21.7296857227605</v>
+      </c>
+      <c r="C93">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>0.397531757211596</v>
+      </c>
+      <c r="B94">
+        <v>26.2564628561706</v>
+      </c>
+      <c r="C94">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>0.52240410627102096</v>
+      </c>
+      <c r="B95">
+        <v>31.353250385304801</v>
+      </c>
+      <c r="C95">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>0.68650125505209303</v>
+      </c>
+      <c r="B96">
+        <v>37.884830211773199</v>
+      </c>
+      <c r="C96">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>0.92248764602285704</v>
+      </c>
+      <c r="B97">
+        <v>47.057961236861097</v>
+      </c>
+      <c r="C97">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1.1988175096181</v>
+      </c>
+      <c r="B98">
+        <v>57.311287421499401</v>
+      </c>
+      <c r="C98">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>1.50667260470594</v>
+      </c>
+      <c r="B99">
+        <v>68.706631476529097</v>
+      </c>
+      <c r="C99">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>1.91481552833104</v>
+      </c>
+      <c r="B100">
+        <v>84.007460134111398</v>
+      </c>
+      <c r="C100">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>2.4335203919455899</v>
+      </c>
+      <c r="B101">
+        <v>103.528836842853</v>
+      </c>
+      <c r="C101">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>3.1624779675421402</v>
+      </c>
+      <c r="B102">
+        <v>131.15649519783</v>
+      </c>
+      <c r="C102">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>3.9525029734689698</v>
+      </c>
+      <c r="B103">
+        <v>166.15685790703401</v>
+      </c>
+      <c r="C103">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>4.7508255141886702</v>
+      </c>
+      <c r="B104">
+        <v>203.15965601373799</v>
+      </c>
+      <c r="C104">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>9.9755008125477204E-2</v>
+      </c>
+      <c r="B105">
+        <v>9.2367421211444505</v>
+      </c>
+      <c r="C105">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>0.12607287013646701</v>
+      </c>
+      <c r="B106">
+        <v>10.6033661509488</v>
+      </c>
+      <c r="C106">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>0.18113162036425801</v>
+      </c>
+      <c r="B107">
+        <v>13.1189591526194</v>
+      </c>
+      <c r="C107">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>0.25878898491810698</v>
+      </c>
+      <c r="B108">
+        <v>16.295479425959702</v>
+      </c>
+      <c r="C108">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>0.35757784066520798</v>
+      </c>
+      <c r="B109">
+        <v>20.0821692272688</v>
+      </c>
+      <c r="C109">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>0.50241056107196402</v>
+      </c>
+      <c r="B110">
+        <v>24.846558539804398</v>
+      </c>
+      <c r="C110">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>0.69807918370578603</v>
+      </c>
+      <c r="B111">
+        <v>30.862706315420201</v>
+      </c>
+      <c r="C111">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>0.89214173054721202</v>
+      </c>
+      <c r="B112">
+        <v>35.992126823236802</v>
+      </c>
+      <c r="C112">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>1.1789346311150199</v>
+      </c>
+      <c r="B113">
+        <v>43.834349620353002</v>
+      </c>
+      <c r="C113">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>1.50667260470594</v>
+      </c>
+      <c r="B114">
+        <v>52.137328845146499</v>
+      </c>
+      <c r="C114">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>1.96894020804282</v>
+      </c>
+      <c r="B115">
+        <v>63.4973840832875</v>
+      </c>
+      <c r="C115">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>2.3144347054835399</v>
+      </c>
+      <c r="B116">
+        <v>71.751702301735406</v>
+      </c>
+      <c r="C116">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>2.9250403718752001</v>
+      </c>
+      <c r="B117">
+        <v>86.699178735899096</v>
+      </c>
+      <c r="C117">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>3.8653403083140998</v>
+      </c>
+      <c r="B118">
+        <v>111.142426732533</v>
+      </c>
+      <c r="C118">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>5.1079143531613402</v>
+      </c>
+      <c r="B119">
+        <v>145.887342585932</v>
+      </c>
+      <c r="C119">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>6.1739285464736904</v>
+      </c>
+      <c r="B120">
+        <v>180.49834939424099</v>
+      </c>
+      <c r="C120">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>6.9407286317638297</v>
+      </c>
+      <c r="B121">
+        <v>203.15965601373799</v>
+      </c>
+      <c r="C121">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>9.8648951460132805E-2</v>
+      </c>
+      <c r="B122">
+        <v>7.9830637388312597</v>
+      </c>
+      <c r="C122">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>0.130361198470337</v>
+      </c>
+      <c r="B123">
+        <v>9.3098589472187108</v>
+      </c>
+      <c r="C123">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>0.17035778339315599</v>
+      </c>
+      <c r="B124">
+        <v>10.857169183744601</v>
+      </c>
+      <c r="C124">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>0.22015744777617099</v>
+      </c>
+      <c r="B125">
+        <v>12.463543824018601</v>
+      </c>
+      <c r="C125">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>0.32343758372008502</v>
+      </c>
+      <c r="B126">
+        <v>15.542520492726901</v>
+      </c>
+      <c r="C126">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>0.44194991976502401</v>
+      </c>
+      <c r="B127">
+        <v>18.854558365337699</v>
+      </c>
+      <c r="C127">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>0.63495901219859197</v>
+      </c>
+      <c r="B128">
+        <v>23.419850946526498</v>
+      </c>
+      <c r="C128">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>0.798015829027654</v>
+      </c>
+      <c r="B129">
+        <v>26.991138741148799</v>
+      </c>
+      <c r="C129">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>1.0723356121946701</v>
+      </c>
+      <c r="B130">
+        <v>32.103724331268303</v>
+      </c>
+      <c r="C130">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>1.5666309916437</v>
+      </c>
+      <c r="B131">
+        <v>41.154782333042</v>
+      </c>
+      <c r="C131">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>2.1169327139340202</v>
+      </c>
+      <c r="B132">
+        <v>50.918538573131201</v>
+      </c>
+      <c r="C132">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>3.2337912248901701</v>
+      </c>
+      <c r="B133">
+        <v>68.167030301871307</v>
+      </c>
+      <c r="C133">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>4.2733439478057598</v>
+      </c>
+      <c r="B134">
+        <v>84.672452051283699</v>
+      </c>
+      <c r="C134">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>5.7103924317751602</v>
+      </c>
+      <c r="B135">
+        <v>108.973065833989</v>
+      </c>
+      <c r="C135">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>7.2572820844255101</v>
+      </c>
+      <c r="B136">
+        <v>136.96933754623799</v>
+      </c>
+      <c r="C136">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>8.9696700135481002</v>
+      </c>
+      <c r="B137">
+        <v>170.806053699198</v>
+      </c>
+      <c r="C137">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>10.3110858192692</v>
+      </c>
+      <c r="B138">
+        <v>203.96216346019401</v>
+      </c>
+      <c r="C138">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>9.9755008125477204E-2</v>
+      </c>
+      <c r="B139">
+        <v>7.14874235343978</v>
+      </c>
+      <c r="C139">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>0.13255975622094901</v>
+      </c>
+      <c r="B140">
+        <v>8.2388524643892698</v>
+      </c>
+      <c r="C140">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>0.178127478389457</v>
+      </c>
+      <c r="B141">
+        <v>9.60816007985912</v>
+      </c>
+      <c r="C141">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>0.25308203471728602</v>
+      </c>
+      <c r="B142">
+        <v>11.655613714260999</v>
+      </c>
+      <c r="C142">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>0.35957684280805702</v>
+      </c>
+      <c r="B143">
+        <v>14.083737448342999</v>
+      </c>
+      <c r="C143">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>0.50804361181997504</v>
+      </c>
+      <c r="B144">
+        <v>17.084915528735198</v>
+      </c>
+      <c r="C144">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>0.65290693076143902</v>
+      </c>
+      <c r="B145">
+        <v>19.535549627746999</v>
+      </c>
+      <c r="C145">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>0.84848427414976701</v>
+      </c>
+      <c r="B146">
+        <v>22.6927431542383</v>
+      </c>
+      <c r="C146">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>1.09042068504696</v>
+      </c>
+      <c r="B147">
+        <v>26.360179348771101</v>
+      </c>
+      <c r="C147">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>1.4013427315076099</v>
+      </c>
+      <c r="B148">
+        <v>30.3798371590306</v>
+      </c>
+      <c r="C148">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>1.9579942426011101</v>
+      </c>
+      <c r="B149">
+        <v>37.145365799077197</v>
+      </c>
+      <c r="C149">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>2.7054294970312101</v>
+      </c>
+      <c r="B150">
+        <v>45.417564061468397</v>
+      </c>
+      <c r="C150">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>3.6354271311678001</v>
+      </c>
+      <c r="B151">
+        <v>55.531964241117599</v>
+      </c>
+      <c r="C151">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>4.8040919924236603</v>
+      </c>
+      <c r="B152">
+        <v>67.365564125583802</v>
+      </c>
+      <c r="C152">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>6.0715314174766402</v>
+      </c>
+      <c r="B153">
+        <v>79.8104978257319</v>
+      </c>
+      <c r="C153">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>7.4624183299728699</v>
+      </c>
+      <c r="B154">
+        <v>94.5544752110536</v>
+      </c>
+      <c r="C154">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>9.1209446087506407</v>
+      </c>
+      <c r="B155">
+        <v>112.022215447893</v>
+      </c>
+      <c r="C155">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>11.5272775451486</v>
+      </c>
+      <c r="B156">
+        <v>139.696028980477</v>
+      </c>
+      <c r="C156">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>14.167985197275399</v>
+      </c>
+      <c r="B157">
+        <v>176.27892279089701</v>
+      </c>
+      <c r="C157">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>15.663478236353599</v>
+      </c>
+      <c r="B158">
+        <v>202.36030610488999</v>
+      </c>
+      <c r="C158">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>9.9755008125477204E-2</v>
+      </c>
+      <c r="B159">
+        <v>6.3014592001482104</v>
+      </c>
+      <c r="C159">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>0.11857396659550801</v>
+      </c>
+      <c r="B160">
+        <v>6.89954378095665</v>
+      </c>
+      <c r="C160">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>0.152384092225365</v>
+      </c>
+      <c r="B161">
+        <v>7.7657715203217199</v>
+      </c>
+      <c r="C161">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>0.198030530527563</v>
+      </c>
+      <c r="B162">
+        <v>8.8099435402445501</v>
+      </c>
+      <c r="C162">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>0.25591960234709599</v>
+      </c>
+      <c r="B163">
+        <v>10.0736283394921</v>
+      </c>
+      <c r="C163">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>0.34774829580702599</v>
+      </c>
+      <c r="B164">
+        <v>11.7942836753473</v>
+      </c>
+      <c r="C164">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>0.48049604873650797</v>
+      </c>
+      <c r="B165">
+        <v>13.918149492544201</v>
+      </c>
+      <c r="C165">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>0.64566767454575202</v>
+      </c>
+      <c r="B166">
+        <v>16.231363398942499</v>
+      </c>
+      <c r="C166">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>0.85799751958190296</v>
+      </c>
+      <c r="B167">
+        <v>18.9290363585806</v>
+      </c>
+      <c r="C167">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>1.0486879057851499</v>
+      </c>
+      <c r="B168">
+        <v>20.807499490062799</v>
+      </c>
+      <c r="C168">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>1.6109137955977599</v>
+      </c>
+      <c r="B169">
+        <v>20.807499490062799</v>
+      </c>
+      <c r="C169">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>2.1889395027715599</v>
+      </c>
+      <c r="B170">
+        <v>20.807499490062799</v>
+      </c>
+      <c r="C170">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>3.5751320859453899</v>
+      </c>
+      <c r="B171">
+        <v>20.889691858422498</v>
+      </c>
+      <c r="C171">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>5.8391606601154002</v>
+      </c>
+      <c r="B172">
+        <v>20.889691858422498</v>
+      </c>
+      <c r="C172">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>7.8902500264888102</v>
+      </c>
+      <c r="B173">
+        <v>20.807499490062799</v>
+      </c>
+      <c r="C173">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>11.591719604732299</v>
+      </c>
+      <c r="B174">
+        <v>20.889691858422498</v>
+      </c>
+      <c r="C174">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>19.7958949097901</v>
+      </c>
+      <c r="B175">
+        <v>20.807499490062799</v>
+      </c>
+      <c r="C175">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>9.9755008125477204E-2</v>
+      </c>
+      <c r="B176">
+        <v>5.6206822686478599</v>
+      </c>
+      <c r="C176">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>0.14737130446344701</v>
+      </c>
+      <c r="B177">
+        <v>6.7382563305283796</v>
+      </c>
+      <c r="C177">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>0.20249608011596201</v>
+      </c>
+      <c r="B178">
+        <v>7.8581629860075504</v>
+      </c>
+      <c r="C178">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>0.28136012509244301</v>
+      </c>
+      <c r="B179">
+        <v>9.1641995325839396</v>
+      </c>
+      <c r="C179">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>0.365641150776782</v>
+      </c>
+      <c r="B180">
+        <v>10.3964017306364</v>
+      </c>
+      <c r="C180">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>0.48318221247995502</v>
+      </c>
+      <c r="B181">
+        <v>11.7942836753473</v>
+      </c>
+      <c r="C181">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>0.72585940727864096</v>
+      </c>
+      <c r="B182">
+        <v>11.7942836753473</v>
+      </c>
+      <c r="C182">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>0.97537525392172897</v>
+      </c>
+      <c r="B183">
+        <v>11.7942836753473</v>
+      </c>
+      <c r="C183">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>1.4013427315076099</v>
+      </c>
+      <c r="B184">
+        <v>11.7478780071856</v>
+      </c>
+      <c r="C184">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>2.2382996588525002</v>
+      </c>
+      <c r="B185">
+        <v>11.7478780071856</v>
+      </c>
+      <c r="C185">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>3.4001809903817701</v>
+      </c>
+      <c r="B186">
+        <v>11.7942836753473</v>
+      </c>
+      <c r="C186">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>5.2230968191001699</v>
+      </c>
+      <c r="B187">
+        <v>11.7942836753473</v>
+      </c>
+      <c r="C187">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>8.3426099593552401</v>
+      </c>
+      <c r="B188">
+        <v>11.7942836753473</v>
+      </c>
+      <c r="C188">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>12.602729900022901</v>
+      </c>
+      <c r="B189">
+        <v>11.840872652021099</v>
+      </c>
+      <c r="C189">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>19.7958949097901</v>
+      </c>
+      <c r="B190">
+        <v>11.7942836753473</v>
+      </c>
+      <c r="C190">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>9.9200438277637498E-2</v>
+      </c>
+      <c r="B191">
+        <v>5.0931387472988296</v>
+      </c>
+      <c r="C191">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>0.13108996934327999</v>
+      </c>
+      <c r="B192">
+        <v>5.7100196173370001</v>
+      </c>
+      <c r="C192">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>0.17912328173772499</v>
+      </c>
+      <c r="B193">
+        <v>6.5807392223852803</v>
+      </c>
+      <c r="C193">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>0.231485311438102</v>
+      </c>
+      <c r="B194">
+        <v>7.3198552306289502</v>
+      </c>
+      <c r="C194">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>0.28610529843384902</v>
+      </c>
+      <c r="B195">
+        <v>8.04625661303694</v>
+      </c>
+      <c r="C195">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>0.43220380872341901</v>
+      </c>
+      <c r="B196">
+        <v>8.0780403882940792</v>
+      </c>
+      <c r="C196">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>0.65290693076143902</v>
+      </c>
+      <c r="B197">
+        <v>8.1099497136570804</v>
+      </c>
+      <c r="C197">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>1.0428579158601201</v>
+      </c>
+      <c r="B198">
+        <v>8.1099497136570804</v>
+      </c>
+      <c r="C198">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>1.61991944349628</v>
+      </c>
+      <c r="B199">
+        <v>8.0780403882940792</v>
+      </c>
+      <c r="C199">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>2.6457679491632602</v>
+      </c>
+      <c r="B200">
+        <v>8.0780403882940792</v>
+      </c>
+      <c r="C200">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>4.1097937491263297</v>
+      </c>
+      <c r="B201">
+        <v>8.0780403882940792</v>
+      </c>
+      <c r="C201">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>5.7103924317751602</v>
+      </c>
+      <c r="B202">
+        <v>8.1099497136570804</v>
+      </c>
+      <c r="C202">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>7.6733530106296399</v>
+      </c>
+      <c r="B203">
+        <v>8.1099497136570804</v>
+      </c>
+      <c r="C203">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>11.591719604732299</v>
+      </c>
+      <c r="B204">
+        <v>8.1099497136570804</v>
+      </c>
+      <c r="C204">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>19.6858432278318</v>
+      </c>
+      <c r="B205">
+        <v>8.1099497136570804</v>
+      </c>
+      <c r="C205">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>9.9755008125477204E-2</v>
+      </c>
+      <c r="B206">
+        <v>4.59695061203072</v>
+      </c>
+      <c r="C206">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>0.138605554975231</v>
+      </c>
+      <c r="B207">
+        <v>5.2770933601804098</v>
+      </c>
+      <c r="C207">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>0.198030530527563</v>
+      </c>
+      <c r="B208">
+        <v>6.0578667648026601</v>
+      </c>
+      <c r="C208">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>0.32889239861033598</v>
+      </c>
+      <c r="B209">
+        <v>6.0340315440640797</v>
+      </c>
+      <c r="C209">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>0.519499895533439</v>
+      </c>
+      <c r="B210">
+        <v>6.0340315440640797</v>
+      </c>
+      <c r="C210">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>0.75896447645963105</v>
+      </c>
+      <c r="B211">
+        <v>6.0578667648026601</v>
+      </c>
+      <c r="C211">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>1.1275109957098599</v>
+      </c>
+      <c r="B212">
+        <v>6.0578667648026601</v>
+      </c>
+      <c r="C212">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>1.6843845147385501</v>
+      </c>
+      <c r="B213">
+        <v>6.0578667648026601</v>
+      </c>
+      <c r="C213">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>2.8765273814792298</v>
+      </c>
+      <c r="B214">
+        <v>6.0817961378080101</v>
+      </c>
+      <c r="C214">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>4.2259622609551704</v>
+      </c>
+      <c r="B215">
+        <v>6.0817961378080101</v>
+      </c>
+      <c r="C215">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>6.2780526157277903</v>
+      </c>
+      <c r="B216">
+        <v>6.0817961378080101</v>
+      </c>
+      <c r="C216">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>9.3787596297348497</v>
+      </c>
+      <c r="B217">
+        <v>6.0578667648026601</v>
+      </c>
+      <c r="C217">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>13.7785179814445</v>
+      </c>
+      <c r="B218">
+        <v>6.0817961378080101</v>
+      </c>
+      <c r="C218">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>19.906561824358</v>
+      </c>
+      <c r="B219">
+        <v>6.0578667648026601</v>
+      </c>
+      <c r="C219">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>9.9200438277637498E-2</v>
+      </c>
+      <c r="B220">
+        <v>4.1654920457165598</v>
+      </c>
+      <c r="C220">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>0.11990342346401101</v>
+      </c>
+      <c r="B221">
+        <v>4.4894898193322996</v>
+      </c>
+      <c r="C221">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>0.14094315481892999</v>
+      </c>
+      <c r="B222">
+        <v>4.7442434530968498</v>
+      </c>
+      <c r="C222">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>0.193663457576909</v>
+      </c>
+      <c r="B223">
+        <v>4.7817982553057403</v>
+      </c>
+      <c r="C223">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>0.26610398248021699</v>
+      </c>
+      <c r="B224">
+        <v>4.7629838406994596</v>
+      </c>
+      <c r="C224">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>0.365641150776782</v>
+      </c>
+      <c r="B225">
+        <v>4.7629838406994596</v>
+      </c>
+      <c r="C225">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>0.53418421631527502</v>
+      </c>
+      <c r="B226">
+        <v>4.7817982553057403</v>
+      </c>
+      <c r="C226">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>0.79357940498044299</v>
+      </c>
+      <c r="B227">
+        <v>4.7817982553057403</v>
+      </c>
+      <c r="C227">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>1.1658629214209</v>
+      </c>
+      <c r="B228">
+        <v>4.7817982553057403</v>
+      </c>
+      <c r="C228">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>1.82111295555038</v>
+      </c>
+      <c r="B229">
+        <v>4.7629838406994596</v>
+      </c>
+      <c r="C229">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>2.5162958093413699</v>
+      </c>
+      <c r="B230">
+        <v>4.7817982553057403</v>
+      </c>
+      <c r="C230">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>3.7174052993118498</v>
+      </c>
+      <c r="B231">
+        <v>4.7817982553057403</v>
+      </c>
+      <c r="C231">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>5.4309511725375597</v>
+      </c>
+      <c r="B232">
+        <v>4.8006869893321102</v>
+      </c>
+      <c r="C232">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>7.6733530106296399</v>
+      </c>
+      <c r="B233">
+        <v>4.7817982553057403</v>
+      </c>
+      <c r="C233">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>12.188153750459</v>
+      </c>
+      <c r="B234">
+        <v>4.7817982553057403</v>
+      </c>
+      <c r="C234">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>19.906561824358</v>
+      </c>
+      <c r="B235">
+        <v>4.8006869893321102</v>
+      </c>
+      <c r="C235">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>9.9755008125477204E-2</v>
+      </c>
+      <c r="B236">
+        <v>3.8194357124656402</v>
+      </c>
+      <c r="C236">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>0.110901121828482</v>
+      </c>
+      <c r="B237">
+        <v>3.9108580356781499</v>
+      </c>
+      <c r="C237">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>0.18625153442012399</v>
+      </c>
+      <c r="B238">
+        <v>3.9108580356781499</v>
+      </c>
+      <c r="C238">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>0.25735029456375302</v>
+      </c>
+      <c r="B239">
+        <v>3.9108580356781499</v>
+      </c>
+      <c r="C239">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>0.38019192546410802</v>
+      </c>
+      <c r="B240">
+        <v>3.9108580356781499</v>
+      </c>
+      <c r="C240">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>0.54319329925418203</v>
+      </c>
+      <c r="B241">
+        <v>3.92630644092378</v>
+      </c>
+      <c r="C241">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>0.82977305465839102</v>
+      </c>
+      <c r="B242">
+        <v>3.92630644092378</v>
+      </c>
+      <c r="C242">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>1.3704395878304301</v>
+      </c>
+      <c r="B243">
+        <v>3.92630644092378</v>
+      </c>
+      <c r="C243">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>2.0934607341073299</v>
+      </c>
+      <c r="B244">
+        <v>3.94181586940842</v>
+      </c>
+      <c r="C244">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>3.5354919841855699</v>
+      </c>
+      <c r="B245">
+        <v>3.9108580356781499</v>
+      </c>
+      <c r="C245">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>5.07951783113361</v>
+      </c>
+      <c r="B246">
+        <v>3.94181586940842</v>
+      </c>
+      <c r="C246">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>7.0185484063471399</v>
+      </c>
+      <c r="B247">
+        <v>3.94181586940842</v>
+      </c>
+      <c r="C247">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>11.3994661961079</v>
+      </c>
+      <c r="B248">
+        <v>3.92630644092378</v>
+      </c>
+      <c r="C248">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>19.7958949097901</v>
+      </c>
+      <c r="B249">
+        <v>3.94181586940842</v>
+      </c>
+      <c r="C249">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>9.9755008125477204E-2</v>
+      </c>
+      <c r="B250">
+        <v>3.3271644327002599</v>
+      </c>
+      <c r="C250">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>0.16846890216948601</v>
+      </c>
+      <c r="B251">
+        <v>3.3010338860909698</v>
+      </c>
+      <c r="C251">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>0.27362574768875703</v>
+      </c>
+      <c r="B252">
+        <v>3.3140734054845802</v>
+      </c>
+      <c r="C252">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>0.44690508297019998</v>
+      </c>
+      <c r="B253">
+        <v>3.3140734054845802</v>
+      </c>
+      <c r="C253">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>0.74637674033421098</v>
+      </c>
+      <c r="B254">
+        <v>3.3271644327002599</v>
+      </c>
+      <c r="C254">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>1.20551937561224</v>
+      </c>
+      <c r="B255">
+        <v>3.3271644327002599</v>
+      </c>
+      <c r="C255">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>1.8518262509952399</v>
+      </c>
+      <c r="B256">
+        <v>3.3010338860909698</v>
+      </c>
+      <c r="C256">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>2.7205539223922202</v>
+      </c>
+      <c r="B257">
+        <v>3.3271644327002599</v>
+      </c>
+      <c r="C257">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>3.9525029734689698</v>
+      </c>
+      <c r="B258">
+        <v>3.3271644327002599</v>
+      </c>
+      <c r="C258">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>6.2431509225771604</v>
+      </c>
+      <c r="B259">
+        <v>3.34030717120068</v>
+      </c>
+      <c r="C259">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>9.0198140312656907</v>
+      </c>
+      <c r="B260">
+        <v>3.3271644327002599</v>
+      </c>
+      <c r="C260">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>12.8152764999751</v>
+      </c>
+      <c r="B261">
+        <v>3.3271644327002599</v>
+      </c>
+      <c r="C261">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>19.7958949097901</v>
+      </c>
+      <c r="B262">
+        <v>3.34030717120068</v>
+      </c>
+      <c r="C262">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>0.1</v>
+      </c>
+      <c r="B263">
+        <v>200</v>
+      </c>
+      <c r="C263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>19.576403358209198</v>
+      </c>
+      <c r="B264">
+        <v>99.919916969043598</v>
+      </c>
+      <c r="C264">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>13.104258469307</v>
+      </c>
+      <c r="B265">
+        <v>99.526773083645693</v>
+      </c>
+      <c r="C265">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>19.7958949097901</v>
+      </c>
+      <c r="B266">
+        <v>148.791567535246</v>
+      </c>
+      <c r="C266">
+        <v>1.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDAFBC3F-6EC4-4B74-BE2C-717C2DA26CF1}">
   <dimension ref="A1:C246"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9807,13 +15477,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A3FBCA-AD34-4F10-8370-6BA350BEDFFB}">
-  <dimension ref="A1:C267"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C05470-24AE-4D33-9446-2C355901D5C0}">
+  <dimension ref="A1:C266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="J166" sqref="J166"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -11744,54 +17412,54 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>19.576403358209198</v>
+        <v>9.9755008125477204E-2</v>
       </c>
       <c r="B176">
-        <v>99.919916969043598</v>
+        <v>5.6206822686478599</v>
       </c>
       <c r="C176">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>13.104258469307</v>
+        <v>0.14737130446344701</v>
       </c>
       <c r="B177">
-        <v>99.526773083645693</v>
+        <v>6.7382563305283796</v>
       </c>
       <c r="C177">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>16.106226234879699</v>
+        <v>0.20249608011596201</v>
       </c>
       <c r="B178">
-        <v>121.69118529639</v>
+        <v>7.8581629860075504</v>
       </c>
       <c r="C178">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>19.7958949097901</v>
+        <v>0.28136012509244301</v>
       </c>
       <c r="B179">
-        <v>148.791567535246</v>
+        <v>9.1641995325839396</v>
       </c>
       <c r="C179">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>9.9755008125477204E-2</v>
+        <v>0.365641150776782</v>
       </c>
       <c r="B180">
-        <v>5.6206822686478599</v>
+        <v>10.3964017306364</v>
       </c>
       <c r="C180">
         <v>1.55</v>
@@ -11799,10 +17467,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>0.14737130446344701</v>
+        <v>0.48318221247995502</v>
       </c>
       <c r="B181">
-        <v>6.7382563305283796</v>
+        <v>11.7942836753473</v>
       </c>
       <c r="C181">
         <v>1.55</v>
@@ -11810,10 +17478,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>0.20249608011596201</v>
+        <v>0.72585940727864096</v>
       </c>
       <c r="B182">
-        <v>7.8581629860075504</v>
+        <v>11.7942836753473</v>
       </c>
       <c r="C182">
         <v>1.55</v>
@@ -11821,10 +17489,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>0.28136012509244301</v>
+        <v>0.97537525392172897</v>
       </c>
       <c r="B183">
-        <v>9.1641995325839396</v>
+        <v>11.7942836753473</v>
       </c>
       <c r="C183">
         <v>1.55</v>
@@ -11832,10 +17500,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>0.365641150776782</v>
+        <v>1.4013427315076099</v>
       </c>
       <c r="B184">
-        <v>10.3964017306364</v>
+        <v>11.7478780071856</v>
       </c>
       <c r="C184">
         <v>1.55</v>
@@ -11843,10 +17511,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>0.48318221247995502</v>
+        <v>2.2382996588525002</v>
       </c>
       <c r="B185">
-        <v>11.7942836753473</v>
+        <v>11.7478780071856</v>
       </c>
       <c r="C185">
         <v>1.55</v>
@@ -11854,7 +17522,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>0.72585940727864096</v>
+        <v>3.4001809903817701</v>
       </c>
       <c r="B186">
         <v>11.7942836753473</v>
@@ -11865,7 +17533,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>0.97537525392172897</v>
+        <v>5.2230968191001699</v>
       </c>
       <c r="B187">
         <v>11.7942836753473</v>
@@ -11876,10 +17544,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>1.4013427315076099</v>
+        <v>8.3426099593552401</v>
       </c>
       <c r="B188">
-        <v>11.7478780071856</v>
+        <v>11.7942836753473</v>
       </c>
       <c r="C188">
         <v>1.55</v>
@@ -11887,10 +17555,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>2.2382996588525002</v>
+        <v>12.602729900022901</v>
       </c>
       <c r="B189">
-        <v>11.7478780071856</v>
+        <v>11.840872652021099</v>
       </c>
       <c r="C189">
         <v>1.55</v>
@@ -11898,7 +17566,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>3.4001809903817701</v>
+        <v>19.7958949097901</v>
       </c>
       <c r="B190">
         <v>11.7942836753473</v>
@@ -11909,54 +17577,54 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>5.2230968191001699</v>
+        <v>9.9200438277637498E-2</v>
       </c>
       <c r="B191">
-        <v>11.7942836753473</v>
+        <v>5.0931387472988296</v>
       </c>
       <c r="C191">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>8.3426099593552401</v>
+        <v>0.13108996934327999</v>
       </c>
       <c r="B192">
-        <v>11.7942836753473</v>
+        <v>5.7100196173370001</v>
       </c>
       <c r="C192">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>12.602729900022901</v>
+        <v>0.17912328173772499</v>
       </c>
       <c r="B193">
-        <v>11.840872652021099</v>
+        <v>6.5807392223852803</v>
       </c>
       <c r="C193">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>19.7958949097901</v>
+        <v>0.231485311438102</v>
       </c>
       <c r="B194">
-        <v>11.7942836753473</v>
+        <v>7.3198552306289502</v>
       </c>
       <c r="C194">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>9.9200438277637498E-2</v>
+        <v>0.28610529843384902</v>
       </c>
       <c r="B195">
-        <v>5.0931387472988296</v>
+        <v>8.04625661303694</v>
       </c>
       <c r="C195">
         <v>1.6</v>
@@ -11964,10 +17632,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>0.13108996934327999</v>
+        <v>0.43220380872341901</v>
       </c>
       <c r="B196">
-        <v>5.7100196173370001</v>
+        <v>8.0780403882940792</v>
       </c>
       <c r="C196">
         <v>1.6</v>
@@ -11975,10 +17643,10 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>0.17912328173772499</v>
+        <v>0.65290693076143902</v>
       </c>
       <c r="B197">
-        <v>6.5807392223852803</v>
+        <v>8.1099497136570804</v>
       </c>
       <c r="C197">
         <v>1.6</v>
@@ -11986,10 +17654,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>0.231485311438102</v>
+        <v>1.0428579158601201</v>
       </c>
       <c r="B198">
-        <v>7.3198552306289502</v>
+        <v>8.1099497136570804</v>
       </c>
       <c r="C198">
         <v>1.6</v>
@@ -11997,10 +17665,10 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>0.28610529843384902</v>
+        <v>1.61991944349628</v>
       </c>
       <c r="B199">
-        <v>8.04625661303694</v>
+        <v>8.0780403882940792</v>
       </c>
       <c r="C199">
         <v>1.6</v>
@@ -12008,7 +17676,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>0.43220380872341901</v>
+        <v>2.6457679491632602</v>
       </c>
       <c r="B200">
         <v>8.0780403882940792</v>
@@ -12019,10 +17687,10 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>0.65290693076143902</v>
+        <v>4.1097937491263297</v>
       </c>
       <c r="B201">
-        <v>8.1099497136570804</v>
+        <v>8.0780403882940792</v>
       </c>
       <c r="C201">
         <v>1.6</v>
@@ -12030,7 +17698,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>1.0428579158601201</v>
+        <v>5.7103924317751602</v>
       </c>
       <c r="B202">
         <v>8.1099497136570804</v>
@@ -12041,10 +17709,10 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>1.61991944349628</v>
+        <v>7.6733530106296399</v>
       </c>
       <c r="B203">
-        <v>8.0780403882940792</v>
+        <v>8.1099497136570804</v>
       </c>
       <c r="C203">
         <v>1.6</v>
@@ -12052,10 +17720,10 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>2.6457679491632602</v>
+        <v>11.591719604732299</v>
       </c>
       <c r="B204">
-        <v>8.0780403882940792</v>
+        <v>8.1099497136570804</v>
       </c>
       <c r="C204">
         <v>1.6</v>
@@ -12063,10 +17731,10 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>4.1097937491263297</v>
+        <v>19.6858432278318</v>
       </c>
       <c r="B205">
-        <v>8.0780403882940792</v>
+        <v>8.1099497136570804</v>
       </c>
       <c r="C205">
         <v>1.6</v>
@@ -12074,54 +17742,54 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>5.7103924317751602</v>
+        <v>9.9755008125477204E-2</v>
       </c>
       <c r="B206">
-        <v>8.1099497136570804</v>
+        <v>4.59695061203072</v>
       </c>
       <c r="C206">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>7.6733530106296399</v>
+        <v>0.138605554975231</v>
       </c>
       <c r="B207">
-        <v>8.1099497136570804</v>
+        <v>5.2770933601804098</v>
       </c>
       <c r="C207">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>11.591719604732299</v>
+        <v>0.198030530527563</v>
       </c>
       <c r="B208">
-        <v>8.1099497136570804</v>
+        <v>6.0578667648026601</v>
       </c>
       <c r="C208">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>19.6858432278318</v>
+        <v>0.32889239861033598</v>
       </c>
       <c r="B209">
-        <v>8.1099497136570804</v>
+        <v>6.0340315440640797</v>
       </c>
       <c r="C209">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>9.9755008125477204E-2</v>
+        <v>0.519499895533439</v>
       </c>
       <c r="B210">
-        <v>4.59695061203072</v>
+        <v>6.0340315440640797</v>
       </c>
       <c r="C210">
         <v>1.65</v>
@@ -12129,10 +17797,10 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>0.138605554975231</v>
+        <v>0.75896447645963105</v>
       </c>
       <c r="B211">
-        <v>5.2770933601804098</v>
+        <v>6.0578667648026601</v>
       </c>
       <c r="C211">
         <v>1.65</v>
@@ -12140,7 +17808,7 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>0.198030530527563</v>
+        <v>1.1275109957098599</v>
       </c>
       <c r="B212">
         <v>6.0578667648026601</v>
@@ -12151,10 +17819,10 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>0.32889239861033598</v>
+        <v>1.6843845147385501</v>
       </c>
       <c r="B213">
-        <v>6.0340315440640797</v>
+        <v>6.0578667648026601</v>
       </c>
       <c r="C213">
         <v>1.65</v>
@@ -12162,10 +17830,10 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>0.519499895533439</v>
+        <v>2.8765273814792298</v>
       </c>
       <c r="B214">
-        <v>6.0340315440640797</v>
+        <v>6.0817961378080101</v>
       </c>
       <c r="C214">
         <v>1.65</v>
@@ -12173,10 +17841,10 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>0.75896447645963105</v>
+        <v>4.2259622609551704</v>
       </c>
       <c r="B215">
-        <v>6.0578667648026601</v>
+        <v>6.0817961378080101</v>
       </c>
       <c r="C215">
         <v>1.65</v>
@@ -12184,10 +17852,10 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>1.1275109957098599</v>
+        <v>6.2780526157277903</v>
       </c>
       <c r="B216">
-        <v>6.0578667648026601</v>
+        <v>6.0817961378080101</v>
       </c>
       <c r="C216">
         <v>1.65</v>
@@ -12195,7 +17863,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>1.6843845147385501</v>
+        <v>9.3787596297348497</v>
       </c>
       <c r="B217">
         <v>6.0578667648026601</v>
@@ -12206,7 +17874,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>2.8765273814792298</v>
+        <v>13.7785179814445</v>
       </c>
       <c r="B218">
         <v>6.0817961378080101</v>
@@ -12217,10 +17885,10 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>4.2259622609551704</v>
+        <v>19.906561824358</v>
       </c>
       <c r="B219">
-        <v>6.0817961378080101</v>
+        <v>6.0578667648026601</v>
       </c>
       <c r="C219">
         <v>1.65</v>
@@ -12228,54 +17896,54 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>6.2780526157277903</v>
+        <v>9.9200438277637498E-2</v>
       </c>
       <c r="B220">
-        <v>6.0817961378080101</v>
+        <v>4.1654920457165598</v>
       </c>
       <c r="C220">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>9.3787596297348497</v>
+        <v>0.11990342346401101</v>
       </c>
       <c r="B221">
-        <v>6.0578667648026601</v>
+        <v>4.4894898193322996</v>
       </c>
       <c r="C221">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>13.7785179814445</v>
+        <v>0.14094315481892999</v>
       </c>
       <c r="B222">
-        <v>6.0817961378080101</v>
+        <v>4.7442434530968498</v>
       </c>
       <c r="C222">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>19.906561824358</v>
+        <v>0.193663457576909</v>
       </c>
       <c r="B223">
-        <v>6.0578667648026601</v>
+        <v>4.7817982553057403</v>
       </c>
       <c r="C223">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>9.9200438277637498E-2</v>
+        <v>0.26610398248021699</v>
       </c>
       <c r="B224">
-        <v>4.1654920457165598</v>
+        <v>4.7629838406994596</v>
       </c>
       <c r="C224">
         <v>1.7</v>
@@ -12283,10 +17951,10 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>0.11990342346401101</v>
+        <v>0.365641150776782</v>
       </c>
       <c r="B225">
-        <v>4.4894898193322996</v>
+        <v>4.7629838406994596</v>
       </c>
       <c r="C225">
         <v>1.7</v>
@@ -12294,10 +17962,10 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>0.14094315481892999</v>
+        <v>0.53418421631527502</v>
       </c>
       <c r="B226">
-        <v>4.7442434530968498</v>
+        <v>4.7817982553057403</v>
       </c>
       <c r="C226">
         <v>1.7</v>
@@ -12305,7 +17973,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>0.193663457576909</v>
+        <v>0.79357940498044299</v>
       </c>
       <c r="B227">
         <v>4.7817982553057403</v>
@@ -12316,10 +17984,10 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>0.26610398248021699</v>
+        <v>1.1658629214209</v>
       </c>
       <c r="B228">
-        <v>4.7629838406994596</v>
+        <v>4.7817982553057403</v>
       </c>
       <c r="C228">
         <v>1.7</v>
@@ -12327,7 +17995,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>0.365641150776782</v>
+        <v>1.82111295555038</v>
       </c>
       <c r="B229">
         <v>4.7629838406994596</v>
@@ -12338,7 +18006,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>0.53418421631527502</v>
+        <v>2.5162958093413699</v>
       </c>
       <c r="B230">
         <v>4.7817982553057403</v>
@@ -12349,7 +18017,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>0.79357940498044299</v>
+        <v>3.7174052993118498</v>
       </c>
       <c r="B231">
         <v>4.7817982553057403</v>
@@ -12360,10 +18028,10 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>1.1658629214209</v>
+        <v>5.4309511725375597</v>
       </c>
       <c r="B232">
-        <v>4.7817982553057403</v>
+        <v>4.8006869893321102</v>
       </c>
       <c r="C232">
         <v>1.7</v>
@@ -12371,10 +18039,10 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>1.82111295555038</v>
+        <v>7.6733530106296399</v>
       </c>
       <c r="B233">
-        <v>4.7629838406994596</v>
+        <v>4.7817982553057403</v>
       </c>
       <c r="C233">
         <v>1.7</v>
@@ -12382,7 +18050,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>2.5162958093413699</v>
+        <v>12.188153750459</v>
       </c>
       <c r="B234">
         <v>4.7817982553057403</v>
@@ -12393,10 +18061,10 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>3.7174052993118498</v>
+        <v>19.906561824358</v>
       </c>
       <c r="B235">
-        <v>4.7817982553057403</v>
+        <v>4.8006869893321102</v>
       </c>
       <c r="C235">
         <v>1.7</v>
@@ -12404,54 +18072,54 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>5.4309511725375597</v>
+        <v>9.9755008125477204E-2</v>
       </c>
       <c r="B236">
-        <v>4.8006869893321102</v>
+        <v>3.8194357124656402</v>
       </c>
       <c r="C236">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>7.6733530106296399</v>
+        <v>0.110901121828482</v>
       </c>
       <c r="B237">
-        <v>4.7817982553057403</v>
+        <v>3.9108580356781499</v>
       </c>
       <c r="C237">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>12.188153750459</v>
+        <v>0.18625153442012399</v>
       </c>
       <c r="B238">
-        <v>4.7817982553057403</v>
+        <v>3.9108580356781499</v>
       </c>
       <c r="C238">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>19.906561824358</v>
+        <v>0.25735029456375302</v>
       </c>
       <c r="B239">
-        <v>4.8006869893321102</v>
+        <v>3.9108580356781499</v>
       </c>
       <c r="C239">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>9.9755008125477204E-2</v>
+        <v>0.38019192546410802</v>
       </c>
       <c r="B240">
-        <v>3.8194357124656402</v>
+        <v>3.9108580356781499</v>
       </c>
       <c r="C240">
         <v>1.75</v>
@@ -12459,10 +18127,10 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>0.110901121828482</v>
+        <v>0.54319329925418203</v>
       </c>
       <c r="B241">
-        <v>3.9108580356781499</v>
+        <v>3.92630644092378</v>
       </c>
       <c r="C241">
         <v>1.75</v>
@@ -12470,10 +18138,10 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>0.18625153442012399</v>
+        <v>0.82977305465839102</v>
       </c>
       <c r="B242">
-        <v>3.9108580356781499</v>
+        <v>3.92630644092378</v>
       </c>
       <c r="C242">
         <v>1.75</v>
@@ -12481,10 +18149,10 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>0.25735029456375302</v>
+        <v>1.3704395878304301</v>
       </c>
       <c r="B243">
-        <v>3.9108580356781499</v>
+        <v>3.92630644092378</v>
       </c>
       <c r="C243">
         <v>1.75</v>
@@ -12492,10 +18160,10 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>0.38019192546410802</v>
+        <v>2.0934607341073299</v>
       </c>
       <c r="B244">
-        <v>3.9108580356781499</v>
+        <v>3.94181586940842</v>
       </c>
       <c r="C244">
         <v>1.75</v>
@@ -12503,10 +18171,10 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>0.54319329925418203</v>
+        <v>3.5354919841855699</v>
       </c>
       <c r="B245">
-        <v>3.92630644092378</v>
+        <v>3.9108580356781499</v>
       </c>
       <c r="C245">
         <v>1.75</v>
@@ -12514,10 +18182,10 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>0.82977305465839102</v>
+        <v>5.07951783113361</v>
       </c>
       <c r="B246">
-        <v>3.92630644092378</v>
+        <v>3.94181586940842</v>
       </c>
       <c r="C246">
         <v>1.75</v>
@@ -12525,10 +18193,10 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>1.3704395878304301</v>
+        <v>7.0185484063471399</v>
       </c>
       <c r="B247">
-        <v>3.92630644092378</v>
+        <v>3.94181586940842</v>
       </c>
       <c r="C247">
         <v>1.75</v>
@@ -12536,10 +18204,10 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>2.0934607341073299</v>
+        <v>11.3994661961079</v>
       </c>
       <c r="B248">
-        <v>3.94181586940842</v>
+        <v>3.92630644092378</v>
       </c>
       <c r="C248">
         <v>1.75</v>
@@ -12547,10 +18215,10 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>3.5354919841855699</v>
+        <v>19.7958949097901</v>
       </c>
       <c r="B249">
-        <v>3.9108580356781499</v>
+        <v>3.94181586940842</v>
       </c>
       <c r="C249">
         <v>1.75</v>
@@ -12558,51 +18226,51 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>5.07951783113361</v>
+        <v>9.9755008125477204E-2</v>
       </c>
       <c r="B250">
-        <v>3.94181586940842</v>
+        <v>3.3271644327002599</v>
       </c>
       <c r="C250">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>7.0185484063471399</v>
+        <v>0.16846890216948601</v>
       </c>
       <c r="B251">
-        <v>3.94181586940842</v>
+        <v>3.3010338860909698</v>
       </c>
       <c r="C251">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>11.3994661961079</v>
+        <v>0.27362574768875703</v>
       </c>
       <c r="B252">
-        <v>3.92630644092378</v>
+        <v>3.3140734054845802</v>
       </c>
       <c r="C252">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>19.7958949097901</v>
+        <v>0.44690508297019998</v>
       </c>
       <c r="B253">
-        <v>3.94181586940842</v>
+        <v>3.3140734054845802</v>
       </c>
       <c r="C253">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>9.9755008125477204E-2</v>
+        <v>0.74637674033421098</v>
       </c>
       <c r="B254">
         <v>3.3271644327002599</v>
@@ -12613,10 +18281,10 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>0.16846890216948601</v>
+        <v>1.20551937561224</v>
       </c>
       <c r="B255">
-        <v>3.3010338860909698</v>
+        <v>3.3271644327002599</v>
       </c>
       <c r="C255">
         <v>1.8</v>
@@ -12624,10 +18292,10 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>0.27362574768875703</v>
+        <v>1.8518262509952399</v>
       </c>
       <c r="B256">
-        <v>3.3140734054845802</v>
+        <v>3.3010338860909698</v>
       </c>
       <c r="C256">
         <v>1.8</v>
@@ -12635,10 +18303,10 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>0.44690508297019998</v>
+        <v>2.7205539223922202</v>
       </c>
       <c r="B257">
-        <v>3.3140734054845802</v>
+        <v>3.3271644327002599</v>
       </c>
       <c r="C257">
         <v>1.8</v>
@@ -12646,7 +18314,7 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>0.74637674033421098</v>
+        <v>3.9525029734689698</v>
       </c>
       <c r="B258">
         <v>3.3271644327002599</v>
@@ -12657,10 +18325,10 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>1.20551937561224</v>
+        <v>6.2431509225771604</v>
       </c>
       <c r="B259">
-        <v>3.3271644327002599</v>
+        <v>3.34030717120068</v>
       </c>
       <c r="C259">
         <v>1.8</v>
@@ -12668,10 +18336,10 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>1.8518262509952399</v>
+        <v>9.0198140312656907</v>
       </c>
       <c r="B260">
-        <v>3.3010338860909698</v>
+        <v>3.3271644327002599</v>
       </c>
       <c r="C260">
         <v>1.8</v>
@@ -12679,7 +18347,7 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>2.7205539223922202</v>
+        <v>12.8152764999751</v>
       </c>
       <c r="B261">
         <v>3.3271644327002599</v>
@@ -12690,10 +18358,10 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>3.9525029734689698</v>
+        <v>19.7958949097901</v>
       </c>
       <c r="B262">
-        <v>3.3271644327002599</v>
+        <v>3.34030717120068</v>
       </c>
       <c r="C262">
         <v>1.8</v>
@@ -12701,35 +18369,35 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>6.2431509225771604</v>
+        <v>0.1</v>
       </c>
       <c r="B263">
-        <v>3.34030717120068</v>
+        <v>200</v>
       </c>
       <c r="C263">
-        <v>1.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>9.0198140312656907</v>
+        <v>19.576403358209198</v>
       </c>
       <c r="B264">
-        <v>3.3271644327002599</v>
+        <v>99.919916969043598</v>
       </c>
       <c r="C264">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>12.8152764999751</v>
+        <v>13.104258469307</v>
       </c>
       <c r="B265">
-        <v>3.3271644327002599</v>
+        <v>99.526773083645693</v>
       </c>
       <c r="C265">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -12737,36 +18405,13 @@
         <v>19.7958949097901</v>
       </c>
       <c r="B266">
-        <v>3.34030717120068</v>
+        <v>148.791567535246</v>
       </c>
       <c r="C266">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A267">
-        <v>0.1</v>
-      </c>
-      <c r="B267">
-        <v>200</v>
-      </c>
-      <c r="C267">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDAFBC3F-6EC4-4B74-BE2C-717C2DA26CF1}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/contour_data.xlsx
+++ b/contour_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thorntontomasettigbr-my.sharepoint.com/personal/amccrone_thorntontomasetti_com/Documents/R&amp;D/Graph Digitizer/NA Plots/Excel_CSVs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="8_{0DC470F0-22FC-4171-892E-4A202F40D8FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05A37158-D42C-404B-85A1-2E7569588C20}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="8_{0DC470F0-22FC-4171-892E-4A202F40D8FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6235FEA6-AB36-461C-A8E0-AB37F0F8839C}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" activeTab="2" xr2:uid="{5D713D43-6F59-44AB-BBC5-917AE4047E47}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{5D713D43-6F59-44AB-BBC5-917AE4047E47}"/>
   </bookViews>
   <sheets>
     <sheet name="NA.3" sheetId="1" r:id="rId1"/>
@@ -7091,7 +7091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D13B1B-3E70-468E-B40B-280FBA626341}">
   <dimension ref="A1:C247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
+    <sheetView topLeftCell="A223" workbookViewId="0">
       <selection activeCell="D243" sqref="D243"/>
     </sheetView>
   </sheetViews>
@@ -12760,7 +12760,3364 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDAFBC3F-6EC4-4B74-BE2C-717C2DA26CF1}">
-  <dimension ref="A1:C246"/>
+  <dimension ref="A1:C304"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>11.0960413688224</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>21.474980250766802</v>
+      </c>
+      <c r="B3">
+        <v>2.1454215443205</v>
+      </c>
+      <c r="C3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>45.015423939983499</v>
+      </c>
+      <c r="B4">
+        <v>2.2746513497220802</v>
+      </c>
+      <c r="C4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>71.621269848645696</v>
+      </c>
+      <c r="B5">
+        <v>2.3651007185493298</v>
+      </c>
+      <c r="C5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>100.728243434668</v>
+      </c>
+      <c r="B6">
+        <v>2.4305468724473398</v>
+      </c>
+      <c r="C6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1.94475790833714</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2.9839388300192602</v>
+      </c>
+      <c r="B8">
+        <v>2.1204703157229701</v>
+      </c>
+      <c r="C8">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5.0679454635993997</v>
+      </c>
+      <c r="B9">
+        <v>2.2481971799311302</v>
+      </c>
+      <c r="C9">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7.9471257312816501</v>
+      </c>
+      <c r="B10">
+        <v>2.3651007185493298</v>
+      </c>
+      <c r="C10">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>12.1055128562981</v>
+      </c>
+      <c r="B11">
+        <v>2.4591467213496299</v>
+      </c>
+      <c r="C11">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>21.3197207838686</v>
+      </c>
+      <c r="B12">
+        <v>2.5769512469989402</v>
+      </c>
+      <c r="C12">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>32.240618253567398</v>
+      </c>
+      <c r="B13">
+        <v>2.6689935434133498</v>
+      </c>
+      <c r="C13">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>58.452988855644001</v>
+      </c>
+      <c r="B14">
+        <v>2.8187479580102499</v>
+      </c>
+      <c r="C14">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>98.559270193562995</v>
+      </c>
+      <c r="B15">
+        <v>2.9308328160770798</v>
+      </c>
+      <c r="C15">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.56234132519034896</v>
+      </c>
+      <c r="B16">
+        <v>2.0078139890376501</v>
+      </c>
+      <c r="C16">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1.12039135183794</v>
+      </c>
+      <c r="B17">
+        <v>2.22205067183938</v>
+      </c>
+      <c r="C17">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2.2813571354864299</v>
+      </c>
+      <c r="B18">
+        <v>2.4305468724473398</v>
+      </c>
+      <c r="C18">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4.0765626176213097</v>
+      </c>
+      <c r="B19">
+        <v>2.6072738123146699</v>
+      </c>
+      <c r="C19">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>8.6701220293717594</v>
+      </c>
+      <c r="B20">
+        <v>2.82976079083214</v>
+      </c>
+      <c r="C20">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18.7093553427956</v>
+      </c>
+      <c r="B21">
+        <v>3.05928069892065</v>
+      </c>
+      <c r="C21">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>35.1737350096938</v>
+      </c>
+      <c r="B22">
+        <v>3.2435569547627399</v>
+      </c>
+      <c r="C22">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>63.309748494039297</v>
+      </c>
+      <c r="B23">
+        <v>3.41221799975748</v>
+      </c>
+      <c r="C23">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>99.277021608005001</v>
+      </c>
+      <c r="B24">
+        <v>3.5479016351492301</v>
+      </c>
+      <c r="C24">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0.23372086178621701</v>
+      </c>
+      <c r="B25">
+        <v>2.0156585072876299</v>
+      </c>
+      <c r="C25">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0.45563118952466303</v>
+      </c>
+      <c r="B26">
+        <v>2.2746513497220802</v>
+      </c>
+      <c r="C26">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0.83208571689932997</v>
+      </c>
+      <c r="B27">
+        <v>2.50756293368946</v>
+      </c>
+      <c r="C27">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1.6578216813183999</v>
+      </c>
+      <c r="B28">
+        <v>2.7535651978523301</v>
+      </c>
+      <c r="C28">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3.27911239273373</v>
+      </c>
+      <c r="B29">
+        <v>3.0002118787781602</v>
+      </c>
+      <c r="C29">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>6.5807790702969502</v>
+      </c>
+      <c r="B30">
+        <v>3.2689515848697499</v>
+      </c>
+      <c r="C30">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>13.0165472236389</v>
+      </c>
+      <c r="B31">
+        <v>3.5066395787601099</v>
+      </c>
+      <c r="C31">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>28.293108971381301</v>
+      </c>
+      <c r="B32">
+        <v>3.7763066400676299</v>
+      </c>
+      <c r="C32">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>53.191267113485203</v>
+      </c>
+      <c r="B33">
+        <v>4.0037730666654801</v>
+      </c>
+      <c r="C33">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>99.277021608005001</v>
+      </c>
+      <c r="B34">
+        <v>4.2284205534520103</v>
+      </c>
+      <c r="C34">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0.10752578084179901</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0.21579114203253399</v>
+      </c>
+      <c r="B36">
+        <v>2.3467275929908502</v>
+      </c>
+      <c r="C36">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0.45563118952466303</v>
+      </c>
+      <c r="B37">
+        <v>2.6586063828478599</v>
+      </c>
+      <c r="C37">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1.0495627369223299</v>
+      </c>
+      <c r="B38">
+        <v>3.0355148829623499</v>
+      </c>
+      <c r="C38">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2.1683753109874302</v>
+      </c>
+      <c r="B39">
+        <v>3.3594087509559998</v>
+      </c>
+      <c r="C39">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>4.4474312537964398</v>
+      </c>
+      <c r="B40">
+        <v>3.6603230052989599</v>
+      </c>
+      <c r="C40">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>10.024216091908899</v>
+      </c>
+      <c r="B41">
+        <v>4.0351196215366896</v>
+      </c>
+      <c r="C41">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>22.268403170597001</v>
+      </c>
+      <c r="B42">
+        <v>4.3794492306141697</v>
+      </c>
+      <c r="C42">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>43.097669016300401</v>
+      </c>
+      <c r="B43">
+        <v>4.6795991973942401</v>
+      </c>
+      <c r="C43">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>98.559270193562995</v>
+      </c>
+      <c r="B44">
+        <v>5.0198564684372702</v>
+      </c>
+      <c r="C44">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0.1</v>
+      </c>
+      <c r="B45">
+        <v>2.2746513497220802</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>0.220540012552953</v>
+      </c>
+      <c r="B46">
+        <v>2.70039915542936</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>0.47246511554168202</v>
+      </c>
+      <c r="B47">
+        <v>3.1073719934191</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>0.99758424083370301</v>
+      </c>
+      <c r="B48">
+        <v>3.5066395787601099</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2.2000724099609399</v>
+      </c>
+      <c r="B49">
+        <v>3.9111869314668501</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>4.5124433704328597</v>
+      </c>
+      <c r="B50">
+        <v>4.2948904978971498</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>9.7374530826284804</v>
+      </c>
+      <c r="B51">
+        <v>4.6978823658087503</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>26.697499572879298</v>
+      </c>
+      <c r="B52">
+        <v>5.2398587599403603</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>60.1743994589553</v>
+      </c>
+      <c r="B53">
+        <v>5.68699259676682</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>100</v>
+      </c>
+      <c r="B54">
+        <v>5.9362330702577504</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>0.1</v>
+      </c>
+      <c r="B55">
+        <v>2.7215412653567701</v>
+      </c>
+      <c r="C55">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>0.115617935456386</v>
+      </c>
+      <c r="B56">
+        <v>2.73217431216327</v>
+      </c>
+      <c r="C56">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>0.20362145171363499</v>
+      </c>
+      <c r="B57">
+        <v>3.0832325834801502</v>
+      </c>
+      <c r="C57">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>0.38840580693395599</v>
+      </c>
+      <c r="B58">
+        <v>3.4658573996259299</v>
+      </c>
+      <c r="C58">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>0.73552364505270196</v>
+      </c>
+      <c r="B59">
+        <v>3.8656998711392099</v>
+      </c>
+      <c r="C59">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1.45483964096967</v>
+      </c>
+      <c r="B60">
+        <v>4.2615259304777204</v>
+      </c>
+      <c r="C60">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2.4889054767798999</v>
+      </c>
+      <c r="B61">
+        <v>4.6071753023429904</v>
+      </c>
+      <c r="C61">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>4.7821351830468402</v>
+      </c>
+      <c r="B62">
+        <v>5.0591581979842299</v>
+      </c>
+      <c r="C62">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>9.4588935101791307</v>
+      </c>
+      <c r="B63">
+        <v>5.4908722803314598</v>
+      </c>
+      <c r="C63">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>19.260336281473499</v>
+      </c>
+      <c r="B64">
+        <v>5.9827093446536299</v>
+      </c>
+      <c r="C64">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>46.006068957657703</v>
+      </c>
+      <c r="B65">
+        <v>6.5953053409807003</v>
+      </c>
+      <c r="C65">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>98.559270193562995</v>
+      </c>
+      <c r="B66">
+        <v>7.0473212395009197</v>
+      </c>
+      <c r="C66">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>9.9277021608005001E-2</v>
+      </c>
+      <c r="B67">
+        <v>3.2945450359770598</v>
+      </c>
+      <c r="C67">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>0.13962332727599699</v>
+      </c>
+      <c r="B68">
+        <v>3.2689515848697499</v>
+      </c>
+      <c r="C68">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>0.25684071222017801</v>
+      </c>
+      <c r="B69">
+        <v>3.7469706564026999</v>
+      </c>
+      <c r="C69">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>0.489920994295172</v>
+      </c>
+      <c r="B70">
+        <v>4.2449409693776303</v>
+      </c>
+      <c r="C70">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>0.92776284257022301</v>
+      </c>
+      <c r="B71">
+        <v>4.6795991973942401</v>
+      </c>
+      <c r="C71">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1.5757197976037201</v>
+      </c>
+      <c r="B72">
+        <v>5.0789243013336201</v>
+      </c>
+      <c r="C72">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>2.4530470737218901</v>
+      </c>
+      <c r="B73">
+        <v>5.4270134970405399</v>
+      </c>
+      <c r="C73">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>4.7821351830468402</v>
+      </c>
+      <c r="B74">
+        <v>5.9594259003257104</v>
+      </c>
+      <c r="C74">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>8.6701220293717594</v>
+      </c>
+      <c r="B75">
+        <v>6.4427907449212398</v>
+      </c>
+      <c r="C75">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>15.7191323805915</v>
+      </c>
+      <c r="B76">
+        <v>6.8843539018910596</v>
+      </c>
+      <c r="C76">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>34.1675190615804</v>
+      </c>
+      <c r="B77">
+        <v>7.4718177468628602</v>
+      </c>
+      <c r="C77">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>62.852032692401004</v>
+      </c>
+      <c r="B78">
+        <v>7.9528346252098299</v>
+      </c>
+      <c r="C78">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>100.728243434668</v>
+      </c>
+      <c r="B79">
+        <v>8.2368901201520792</v>
+      </c>
+      <c r="C79">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>9.9277021608005001E-2</v>
+      </c>
+      <c r="B80">
+        <v>3.9726700253934699</v>
+      </c>
+      <c r="C80">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>0.18130231993667201</v>
+      </c>
+      <c r="B81">
+        <v>3.9418086060016999</v>
+      </c>
+      <c r="C81">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>0.34583229459062997</v>
+      </c>
+      <c r="B82">
+        <v>4.5182196176308604</v>
+      </c>
+      <c r="C82">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>0.70931694699756698</v>
+      </c>
+      <c r="B83">
+        <v>5.1186884879265202</v>
+      </c>
+      <c r="C83">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>1.29537335002692</v>
+      </c>
+      <c r="B84">
+        <v>5.6648600197198702</v>
+      </c>
+      <c r="C84">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>2.3656450378954901</v>
+      </c>
+      <c r="B85">
+        <v>6.2206061476810097</v>
+      </c>
+      <c r="C85">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>4.2271768755705397</v>
+      </c>
+      <c r="B86">
+        <v>6.6989822515604196</v>
+      </c>
+      <c r="C86">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>8.9254526854349105</v>
+      </c>
+      <c r="B87">
+        <v>7.4427390063599699</v>
+      </c>
+      <c r="C87">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>16.902119833787101</v>
+      </c>
+      <c r="B88">
+        <v>8.0778516307410104</v>
+      </c>
+      <c r="C88">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>32.475408439295599</v>
+      </c>
+      <c r="B89">
+        <v>8.6990533430967094</v>
+      </c>
+      <c r="C89">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>57.610839222447403</v>
+      </c>
+      <c r="B90">
+        <v>9.2230421944636198</v>
+      </c>
+      <c r="C90">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>99.277021608005001</v>
+      </c>
+      <c r="B91">
+        <v>9.7026292515876609</v>
+      </c>
+      <c r="C91">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>0.10072824343466801</v>
+      </c>
+      <c r="B92">
+        <v>4.7531615819168298</v>
+      </c>
+      <c r="C92">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>0.227034803041779</v>
+      </c>
+      <c r="B93">
+        <v>4.7717321581644701</v>
+      </c>
+      <c r="C93">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>0.44906677516975702</v>
+      </c>
+      <c r="B94">
+        <v>5.4908722803314598</v>
+      </c>
+      <c r="C94">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>0.86282827737398604</v>
+      </c>
+      <c r="B95">
+        <v>6.1482605676634501</v>
+      </c>
+      <c r="C95">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>1.71907220185857</v>
+      </c>
+      <c r="B96">
+        <v>6.8843539018910596</v>
+      </c>
+      <c r="C96">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>3.7096055367544598</v>
+      </c>
+      <c r="B97">
+        <v>7.6785750026210797</v>
+      </c>
+      <c r="C97">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>7.7760009060380302</v>
+      </c>
+      <c r="B98">
+        <v>8.5644222989003502</v>
+      </c>
+      <c r="C98">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>15.0494631676768</v>
+      </c>
+      <c r="B99">
+        <v>9.3315682287365007</v>
+      </c>
+      <c r="C99">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>35.1737350096938</v>
+      </c>
+      <c r="B100">
+        <v>10.2470335523054</v>
+      </c>
+      <c r="C100">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>71.621269848645696</v>
+      </c>
+      <c r="B101">
+        <v>11.035049361488401</v>
+      </c>
+      <c r="C101">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>11.296272511905</v>
+      </c>
+      <c r="C102">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>9.9277021608005001E-2</v>
+      </c>
+      <c r="B103">
+        <v>5.7092116456709903</v>
+      </c>
+      <c r="C103">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>0.173578446954885</v>
+      </c>
+      <c r="B104">
+        <v>5.7092116456709903</v>
+      </c>
+      <c r="C104">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>0.290559643587459</v>
+      </c>
+      <c r="B105">
+        <v>5.7092116456709903</v>
+      </c>
+      <c r="C105">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>0.58311780512018596</v>
+      </c>
+      <c r="B106">
+        <v>6.6210731627978898</v>
+      </c>
+      <c r="C106">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>1.0883402874276</v>
+      </c>
+      <c r="B107">
+        <v>7.4137734341887898</v>
+      </c>
+      <c r="C107">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>2.1526984260316402</v>
+      </c>
+      <c r="B108">
+        <v>8.2368901201520792</v>
+      </c>
+      <c r="C108">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>4.1361534126777197</v>
+      </c>
+      <c r="B109">
+        <v>9.15139361267555</v>
+      </c>
+      <c r="C109">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>9.1218732555288895</v>
+      </c>
+      <c r="B110">
+        <v>10.1278606665445</v>
+      </c>
+      <c r="C110">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>14.8326410661114</v>
+      </c>
+      <c r="B111">
+        <v>10.779866923549401</v>
+      </c>
+      <c r="C111">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>31.546383589244599</v>
+      </c>
+      <c r="B112">
+        <v>11.7913475909812</v>
+      </c>
+      <c r="C112">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>58.030386376742399</v>
+      </c>
+      <c r="B113">
+        <v>12.599479481855701</v>
+      </c>
+      <c r="C113">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>98.559270193562995</v>
+      </c>
+      <c r="B114">
+        <v>13.2546372008159</v>
+      </c>
+      <c r="C114">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>0.10072824343466801</v>
+      </c>
+      <c r="B115">
+        <v>6.85756144690549</v>
+      </c>
+      <c r="C115">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>0.19353731242483499</v>
+      </c>
+      <c r="B116">
+        <v>6.85756144690549</v>
+      </c>
+      <c r="C116">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>0.36650139350935002</v>
+      </c>
+      <c r="B117">
+        <v>6.8843539018910596</v>
+      </c>
+      <c r="C117">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>0.68404399325857002</v>
+      </c>
+      <c r="B118">
+        <v>7.7386925139396903</v>
+      </c>
+      <c r="C118">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>1.12039135183794</v>
+      </c>
+      <c r="B119">
+        <v>8.4648181632229598</v>
+      </c>
+      <c r="C119">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>1.9589204801248099</v>
+      </c>
+      <c r="B120">
+        <v>9.2952517311717209</v>
+      </c>
+      <c r="C120">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>4.1361534126777197</v>
+      </c>
+      <c r="B121">
+        <v>10.4487793643851</v>
+      </c>
+      <c r="C121">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>8.9254526854349105</v>
+      </c>
+      <c r="B122">
+        <v>11.654214350199499</v>
+      </c>
+      <c r="C122">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>21.474980250766802</v>
+      </c>
+      <c r="B123">
+        <v>13.049501587041799</v>
+      </c>
+      <c r="C123">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>46.3411051343911</v>
+      </c>
+      <c r="B124">
+        <v>14.2183921063912</v>
+      </c>
+      <c r="C124">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>100</v>
+      </c>
+      <c r="B125">
+        <v>15.371635892932501</v>
+      </c>
+      <c r="C125">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>0.10146179025433801</v>
+      </c>
+      <c r="B126">
+        <v>8.2048338791583504</v>
+      </c>
+      <c r="C126">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>0.19353731242483499</v>
+      </c>
+      <c r="B127">
+        <v>8.2048338791583504</v>
+      </c>
+      <c r="C127">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>0.445820119419651</v>
+      </c>
+      <c r="B128">
+        <v>8.2690716047036794</v>
+      </c>
+      <c r="C128">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>0.94817992536390905</v>
+      </c>
+      <c r="B129">
+        <v>9.4782586569730594</v>
+      </c>
+      <c r="C129">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>2.1216838581650999</v>
+      </c>
+      <c r="B130">
+        <v>10.864265235940399</v>
+      </c>
+      <c r="C130">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>4.8873746316244198</v>
+      </c>
+      <c r="B131">
+        <v>12.356207791335301</v>
+      </c>
+      <c r="C131">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>9.4588935101791307</v>
+      </c>
+      <c r="B132">
+        <v>13.6214144037076</v>
+      </c>
+      <c r="C132">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>21.165583809367501</v>
+      </c>
+      <c r="B133">
+        <v>15.0161711012698</v>
+      </c>
+      <c r="C133">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>50.191508910512297</v>
+      </c>
+      <c r="B134">
+        <v>16.618418472133701</v>
+      </c>
+      <c r="C134">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>100.728243434668</v>
+      </c>
+      <c r="B135">
+        <v>17.7573785307364</v>
+      </c>
+      <c r="C135">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>0.10072824343466801</v>
+      </c>
+      <c r="B136">
+        <v>9.8167985085956104</v>
+      </c>
+      <c r="C136">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>0.25131018162581198</v>
+      </c>
+      <c r="B137">
+        <v>9.8167985085956104</v>
+      </c>
+      <c r="C137">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>0.55423950610441797</v>
+      </c>
+      <c r="B138">
+        <v>9.8551526865610892</v>
+      </c>
+      <c r="C138">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>1.30480682140294</v>
+      </c>
+      <c r="B139">
+        <v>11.4738477073738</v>
+      </c>
+      <c r="C139">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>2.5622024691535401</v>
+      </c>
+      <c r="B140">
+        <v>12.9481274133105</v>
+      </c>
+      <c r="C140">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>5.6918323652123801</v>
+      </c>
+      <c r="B141">
+        <v>14.5549717679968</v>
+      </c>
+      <c r="C141">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>10.3194241250364</v>
+      </c>
+      <c r="B142">
+        <v>15.7969938662412</v>
+      </c>
+      <c r="C142">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>24.4712110276819</v>
+      </c>
+      <c r="B143">
+        <v>17.896405551302902</v>
+      </c>
+      <c r="C143">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>52.045903796348703</v>
+      </c>
+      <c r="B144">
+        <v>19.499450590212501</v>
+      </c>
+      <c r="C144">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>100.728243434668</v>
+      </c>
+      <c r="B145">
+        <v>20.9989943612986</v>
+      </c>
+      <c r="C145">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>0.1</v>
+      </c>
+      <c r="B146">
+        <v>11.6997473017869</v>
+      </c>
+      <c r="C146">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>0.244120944753314</v>
+      </c>
+      <c r="B147">
+        <v>11.654214350199499</v>
+      </c>
+      <c r="C147">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>0.445820119419651</v>
+      </c>
+      <c r="B148">
+        <v>11.6997473017869</v>
+      </c>
+      <c r="C148">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>0.71968567300115205</v>
+      </c>
+      <c r="B149">
+        <v>11.6997473017869</v>
+      </c>
+      <c r="C149">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>1.36286795935577</v>
+      </c>
+      <c r="B150">
+        <v>13.3064229957085</v>
+      </c>
+      <c r="C150">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>2.3485419354402</v>
+      </c>
+      <c r="B151">
+        <v>14.4983268843276</v>
+      </c>
+      <c r="C151">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>4.57840582785441</v>
+      </c>
+      <c r="B152">
+        <v>16.1080084969336</v>
+      </c>
+      <c r="C152">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>9.6670534009104205</v>
+      </c>
+      <c r="B153">
+        <v>18.036521049676701</v>
+      </c>
+      <c r="C153">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>20.263883924964301</v>
+      </c>
+      <c r="B154">
+        <v>20.0390318580396</v>
+      </c>
+      <c r="C154">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>43.727666541827801</v>
+      </c>
+      <c r="B155">
+        <v>22.090916711425699</v>
+      </c>
+      <c r="C155">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>70.589400866187404</v>
+      </c>
+      <c r="B156">
+        <v>23.239617705243599</v>
+      </c>
+      <c r="C156">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>100</v>
+      </c>
+      <c r="B157">
+        <v>24.2581267365189</v>
+      </c>
+      <c r="C157">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>9.9277021608005001E-2</v>
+      </c>
+      <c r="B158">
+        <v>13.835540375150901</v>
+      </c>
+      <c r="C158">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>0.227034803041779</v>
+      </c>
+      <c r="B159">
+        <v>13.835540375150901</v>
+      </c>
+      <c r="C159">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>0.45233707447721</v>
+      </c>
+      <c r="B160">
+        <v>13.889595755561601</v>
+      </c>
+      <c r="C160">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>0.888238128513959</v>
+      </c>
+      <c r="B161">
+        <v>13.889595755561601</v>
+      </c>
+      <c r="C161">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>1.8218146985669701</v>
+      </c>
+      <c r="B162">
+        <v>15.7969938662412</v>
+      </c>
+      <c r="C162">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>3.00566916864341</v>
+      </c>
+      <c r="B163">
+        <v>17.211987093477301</v>
+      </c>
+      <c r="C163">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>6.0320118337741802</v>
+      </c>
+      <c r="B164">
+        <v>19.4235628366736</v>
+      </c>
+      <c r="C164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>11.9311051243553</v>
+      </c>
+      <c r="B165">
+        <v>21.496085337781601</v>
+      </c>
+      <c r="C165">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>21.788899419193701</v>
+      </c>
+      <c r="B166">
+        <v>23.330414764237499</v>
+      </c>
+      <c r="C166">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>37.275937203149397</v>
+      </c>
+      <c r="B167">
+        <v>25.222728301729202</v>
+      </c>
+      <c r="C167">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>63.309748494039297</v>
+      </c>
+      <c r="B168">
+        <v>27.056692352536199</v>
+      </c>
+      <c r="C168">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>100</v>
+      </c>
+      <c r="B169">
+        <v>28.6864564876008</v>
+      </c>
+      <c r="C169">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>0.1</v>
+      </c>
+      <c r="B170">
+        <v>16.945605488066398</v>
+      </c>
+      <c r="C170">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>0.25871113784447802</v>
+      </c>
+      <c r="B171">
+        <v>16.879656761619099</v>
+      </c>
+      <c r="C171">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>0.55023247423538402</v>
+      </c>
+      <c r="B172">
+        <v>16.813964693721001</v>
+      </c>
+      <c r="C172">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>1.1285505283002899</v>
+      </c>
+      <c r="B173">
+        <v>16.7485282855111</v>
+      </c>
+      <c r="C173">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>2.1526984260316402</v>
+      </c>
+      <c r="B174">
+        <v>18.900554003942599</v>
+      </c>
+      <c r="C174">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>4.57840582785441</v>
+      </c>
+      <c r="B175">
+        <v>21.496085337781601</v>
+      </c>
+      <c r="C175">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>8.9904517086310598</v>
+      </c>
+      <c r="B176">
+        <v>23.8826954333672</v>
+      </c>
+      <c r="C176">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>18.1741363300962</v>
+      </c>
+      <c r="B177">
+        <v>26.225686339791299</v>
+      </c>
+      <c r="C177">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>34.1675190615804</v>
+      </c>
+      <c r="B178">
+        <v>28.6864564876008</v>
+      </c>
+      <c r="C178">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>60.6126155723666</v>
+      </c>
+      <c r="B179">
+        <v>31.013194803344899</v>
+      </c>
+      <c r="C179">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>98.559270193562995</v>
+      </c>
+      <c r="B180">
+        <v>32.8812794881134</v>
+      </c>
+      <c r="C180">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>0.10072824343466801</v>
+      </c>
+      <c r="B181">
+        <v>19.961044167885699</v>
+      </c>
+      <c r="C181">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>0.227034803041779</v>
+      </c>
+      <c r="B182">
+        <v>19.961044167885699</v>
+      </c>
+      <c r="C182">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>0.56234132519034896</v>
+      </c>
+      <c r="B183">
+        <v>19.961044167885699</v>
+      </c>
+      <c r="C183">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>1.1285505283002899</v>
+      </c>
+      <c r="B184">
+        <v>19.961044167885699</v>
+      </c>
+      <c r="C184">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>1.56432768394866</v>
+      </c>
+      <c r="B185">
+        <v>20.0390318580396</v>
+      </c>
+      <c r="C185">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>3.1167177833560298</v>
+      </c>
+      <c r="B186">
+        <v>22.879949374106801</v>
+      </c>
+      <c r="C186">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>5.8594539150692198</v>
+      </c>
+      <c r="B187">
+        <v>25.420203439192601</v>
+      </c>
+      <c r="C187">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>9.7374530826284804</v>
+      </c>
+      <c r="B188">
+        <v>27.482018266741701</v>
+      </c>
+      <c r="C188">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>18.1741363300962</v>
+      </c>
+      <c r="B189">
+        <v>30.4143897226181</v>
+      </c>
+      <c r="C189">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>38.3736944745242</v>
+      </c>
+      <c r="B190">
+        <v>33.791157558364198</v>
+      </c>
+      <c r="C190">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>99.277021608005001</v>
+      </c>
+      <c r="B191">
+        <v>38.4315510744024</v>
+      </c>
+      <c r="C191">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>9.9277021608005001E-2</v>
+      </c>
+      <c r="B192">
+        <v>23.4215665668433</v>
+      </c>
+      <c r="C192">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>0.18130231993667201</v>
+      </c>
+      <c r="B193">
+        <v>23.513074499042201</v>
+      </c>
+      <c r="C193">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>0.35601687865605702</v>
+      </c>
+      <c r="B194">
+        <v>23.4215665668433</v>
+      </c>
+      <c r="C194">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>0.65016743040316405</v>
+      </c>
+      <c r="B195">
+        <v>23.4215665668433</v>
+      </c>
+      <c r="C195">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>1.0726602445111699</v>
+      </c>
+      <c r="B196">
+        <v>23.513074499042201</v>
+      </c>
+      <c r="C196">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>1.8754662089649501</v>
+      </c>
+      <c r="B197">
+        <v>23.330414764237499</v>
+      </c>
+      <c r="C197">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>3.2085035268198601</v>
+      </c>
+      <c r="B198">
+        <v>26.328149952573298</v>
+      </c>
+      <c r="C198">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>5.9451068413571804</v>
+      </c>
+      <c r="B199">
+        <v>29.365526085978299</v>
+      </c>
+      <c r="C199">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>8.6074389205398099</v>
+      </c>
+      <c r="B200">
+        <v>31.134363185452798</v>
+      </c>
+      <c r="C200">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>13.8949549437313</v>
+      </c>
+      <c r="B201">
+        <v>33.659649492292303</v>
+      </c>
+      <c r="C201">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>22.4305713546924</v>
+      </c>
+      <c r="B202">
+        <v>35.966547493601801</v>
+      </c>
+      <c r="C202">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>49.110739147776897</v>
+      </c>
+      <c r="B203">
+        <v>40.2726004940981</v>
+      </c>
+      <c r="C203">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>99.277021608005001</v>
+      </c>
+      <c r="B204">
+        <v>44.396289679569101</v>
+      </c>
+      <c r="C204">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>9.8559270193562906E-2</v>
+      </c>
+      <c r="B205">
+        <v>28.5748148426343</v>
+      </c>
+      <c r="C205">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>0.23542291861762699</v>
+      </c>
+      <c r="B206">
+        <v>28.5748148426343</v>
+      </c>
+      <c r="C206">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>0.50434891681676097</v>
+      </c>
+      <c r="B207">
+        <v>28.5748148426343</v>
+      </c>
+      <c r="C207">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>0.94132478938629205</v>
+      </c>
+      <c r="B208">
+        <v>28.5748148426343</v>
+      </c>
+      <c r="C208">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>2.4530470737218901</v>
+      </c>
+      <c r="B209">
+        <v>28.6864564876008</v>
+      </c>
+      <c r="C209">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>3.6561601440851899</v>
+      </c>
+      <c r="B210">
+        <v>30.652511694178401</v>
+      </c>
+      <c r="C210">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>6.3004235752435402</v>
+      </c>
+      <c r="B211">
+        <v>34.055717101806898</v>
+      </c>
+      <c r="C211">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>11.176847561598899</v>
+      </c>
+      <c r="B212">
+        <v>37.251183215470498</v>
+      </c>
+      <c r="C212">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>21.165583809367501</v>
+      </c>
+      <c r="B213">
+        <v>41.54870716013</v>
+      </c>
+      <c r="C213">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>41.562099621098398</v>
+      </c>
+      <c r="B214">
+        <v>45.624806665793599</v>
+      </c>
+      <c r="C214">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>72.142847044144702</v>
+      </c>
+      <c r="B215">
+        <v>49.325402654831201</v>
+      </c>
+      <c r="C215">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>100.728243434668</v>
+      </c>
+      <c r="B216">
+        <v>51.890264031578297</v>
+      </c>
+      <c r="C216">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>0.10072824343466801</v>
+      </c>
+      <c r="B217">
+        <v>34.322347949019097</v>
+      </c>
+      <c r="C217">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>0.21736262685698299</v>
+      </c>
+      <c r="B218">
+        <v>34.591066316763403</v>
+      </c>
+      <c r="C218">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>0.45563118952466303</v>
+      </c>
+      <c r="B219">
+        <v>34.456445174329097</v>
+      </c>
+      <c r="C219">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>0.85039725320349102</v>
+      </c>
+      <c r="B220">
+        <v>34.456445174329097</v>
+      </c>
+      <c r="C220">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>1.6458359887846601</v>
+      </c>
+      <c r="B221">
+        <v>34.456445174329097</v>
+      </c>
+      <c r="C221">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>3.2318692431050402</v>
+      </c>
+      <c r="B222">
+        <v>34.322347949019097</v>
+      </c>
+      <c r="C222">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>7.0248758833960299</v>
+      </c>
+      <c r="B223">
+        <v>39.495014116981501</v>
+      </c>
+      <c r="C223">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>12.4620140138491</v>
+      </c>
+      <c r="B224">
+        <v>43.879961326472298</v>
+      </c>
+      <c r="C224">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>21.3197207838686</v>
+      </c>
+      <c r="B225">
+        <v>47.810446367745101</v>
+      </c>
+      <c r="C225">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>42.476748052902799</v>
+      </c>
+      <c r="B226">
+        <v>53.326151382583802</v>
+      </c>
+      <c r="C226">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>100</v>
+      </c>
+      <c r="B227">
+        <v>60.413167195840202</v>
+      </c>
+      <c r="C227">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>0.10072824343466801</v>
+      </c>
+      <c r="B228">
+        <v>42.037604025413899</v>
+      </c>
+      <c r="C228">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>0.21894555591649301</v>
+      </c>
+      <c r="B229">
+        <v>42.037604025413899</v>
+      </c>
+      <c r="C229">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>0.426827213116382</v>
+      </c>
+      <c r="B230">
+        <v>42.201844713925702</v>
+      </c>
+      <c r="C230">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>0.76825288828048999</v>
+      </c>
+      <c r="B231">
+        <v>42.201844713925702</v>
+      </c>
+      <c r="C231">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>1.33352143216332</v>
+      </c>
+      <c r="B232">
+        <v>42.037604025413899</v>
+      </c>
+      <c r="C232">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>2.5622024691535401</v>
+      </c>
+      <c r="B233">
+        <v>42.037604025413899</v>
+      </c>
+      <c r="C233">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>4.5124433704328597</v>
+      </c>
+      <c r="B234">
+        <v>41.874002527059403</v>
+      </c>
+      <c r="C234">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>8.0632960407215908</v>
+      </c>
+      <c r="B235">
+        <v>46.342019706941898</v>
+      </c>
+      <c r="C235">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>13.3998778770057</v>
+      </c>
+      <c r="B236">
+        <v>50.2965318469005</v>
+      </c>
+      <c r="C236">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>25.560128050527702</v>
+      </c>
+      <c r="B237">
+        <v>56.318225530800397</v>
+      </c>
+      <c r="C237">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>44.6899721518324</v>
+      </c>
+      <c r="B238">
+        <v>62.327462384848602</v>
+      </c>
+      <c r="C238">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>98.559270193562995</v>
+      </c>
+      <c r="B239">
+        <v>71.163576867599602</v>
+      </c>
+      <c r="C239">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>9.9277021608005001E-2</v>
+      </c>
+      <c r="B240">
+        <v>51.890264031578297</v>
+      </c>
+      <c r="C240">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>0.24235600307241301</v>
+      </c>
+      <c r="B241">
+        <v>51.890264031578297</v>
+      </c>
+      <c r="C241">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>0.530627698223889</v>
+      </c>
+      <c r="B242">
+        <v>52.092999008729997</v>
+      </c>
+      <c r="C242">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>1.17024639227241</v>
+      </c>
+      <c r="B243">
+        <v>51.890264031578297</v>
+      </c>
+      <c r="C243">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>2.2322328540381502</v>
+      </c>
+      <c r="B244">
+        <v>51.890264031578297</v>
+      </c>
+      <c r="C244">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>6.4390756788508199</v>
+      </c>
+      <c r="B245">
+        <v>52.092999008729997</v>
+      </c>
+      <c r="C245">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>14.6189427851901</v>
+      </c>
+      <c r="B246">
+        <v>59.943851577452897</v>
+      </c>
+      <c r="C246">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>27.483727270493699</v>
+      </c>
+      <c r="B247">
+        <v>67.1205593777308</v>
+      </c>
+      <c r="C247">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>51.669623157982599</v>
+      </c>
+      <c r="B248">
+        <v>74.863996933425497</v>
+      </c>
+      <c r="C248">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>99.277021608005001</v>
+      </c>
+      <c r="B249">
+        <v>84.154513392050305</v>
+      </c>
+      <c r="C249">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>0.10072824343466801</v>
+      </c>
+      <c r="B250">
+        <v>64.052163858793904</v>
+      </c>
+      <c r="C250">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>0.24060382153849699</v>
+      </c>
+      <c r="B251">
+        <v>64.052163858793904</v>
+      </c>
+      <c r="C251">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>0.530627698223889</v>
+      </c>
+      <c r="B252">
+        <v>64.052163858793904</v>
+      </c>
+      <c r="C252">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>1.17024639227241</v>
+      </c>
+      <c r="B253">
+        <v>64.553644496079897</v>
+      </c>
+      <c r="C253">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>2.2000724099609399</v>
+      </c>
+      <c r="B254">
+        <v>64.553644496079897</v>
+      </c>
+      <c r="C254">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>5.1420281964815198</v>
+      </c>
+      <c r="B255">
+        <v>64.553644496079897</v>
+      </c>
+      <c r="C255">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>9.1883026986310696</v>
+      </c>
+      <c r="B256">
+        <v>64.052163858793904</v>
+      </c>
+      <c r="C256">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>17.025208411796498</v>
+      </c>
+      <c r="B257">
+        <v>72.282254383497403</v>
+      </c>
+      <c r="C257">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>29.338437109941299</v>
+      </c>
+      <c r="B258">
+        <v>79.994876413775103</v>
+      </c>
+      <c r="C258">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>49.828635146473097</v>
+      </c>
+      <c r="B259">
+        <v>87.842703662626306</v>
+      </c>
+      <c r="C259">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>100</v>
+      </c>
+      <c r="B260">
+        <v>99.905762224715005</v>
+      </c>
+      <c r="C260">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>9.9277021608005001E-2</v>
+      </c>
+      <c r="B261">
+        <v>80.936163086468397</v>
+      </c>
+      <c r="C261">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>0.21894555591649301</v>
+      </c>
+      <c r="B262">
+        <v>81.252380232021906</v>
+      </c>
+      <c r="C262">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>0.423741344594396</v>
+      </c>
+      <c r="B263">
+        <v>81.252380232021906</v>
+      </c>
+      <c r="C263">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>0.90122230691189897</v>
+      </c>
+      <c r="B264">
+        <v>81.252380232021906</v>
+      </c>
+      <c r="C264">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>2.0312955132520298</v>
+      </c>
+      <c r="B265">
+        <v>81.252380232021906</v>
+      </c>
+      <c r="C265">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>4.8520399691019298</v>
+      </c>
+      <c r="B266">
+        <v>81.252380232021906</v>
+      </c>
+      <c r="C266">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>13.0165472236389</v>
+      </c>
+      <c r="B267">
+        <v>81.252380232021906</v>
+      </c>
+      <c r="C267">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>21.788899419193701</v>
+      </c>
+      <c r="B268">
+        <v>89.572169804728205</v>
+      </c>
+      <c r="C268">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>35.429885425629699</v>
+      </c>
+      <c r="B269">
+        <v>97.976774308655905</v>
+      </c>
+      <c r="C269">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>63.309748494039297</v>
+      </c>
+      <c r="B270">
+        <v>108.431039113116</v>
+      </c>
+      <c r="C270">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>99.277021608005001</v>
+      </c>
+      <c r="B271">
+        <v>117.683805031234</v>
+      </c>
+      <c r="C271">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>0.1</v>
+      </c>
+      <c r="B272">
+        <v>105.100741222409</v>
+      </c>
+      <c r="C272">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>0.26440453973410899</v>
+      </c>
+      <c r="B273">
+        <v>104.69171128027</v>
+      </c>
+      <c r="C273">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>0.530627698223889</v>
+      </c>
+      <c r="B274">
+        <v>104.69171128027</v>
+      </c>
+      <c r="C274">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>1.0962660541176501</v>
+      </c>
+      <c r="B275">
+        <v>104.28427319649199</v>
+      </c>
+      <c r="C275">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>2.2160942928444398</v>
+      </c>
+      <c r="B276">
+        <v>104.69171128027</v>
+      </c>
+      <c r="C276">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>5.5290059693722302</v>
+      </c>
+      <c r="B277">
+        <v>105.100741222409</v>
+      </c>
+      <c r="C277">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>11.6741935882345</v>
+      </c>
+      <c r="B278">
+        <v>104.69171128027</v>
+      </c>
+      <c r="C278">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>21.474980250766802</v>
+      </c>
+      <c r="B279">
+        <v>104.69171128027</v>
+      </c>
+      <c r="C279">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>37.006440231756997</v>
+      </c>
+      <c r="B280">
+        <v>117.22580445576099</v>
+      </c>
+      <c r="C280">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>61.054022965853299</v>
+      </c>
+      <c r="B281">
+        <v>128.726139273679</v>
+      </c>
+      <c r="C281">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>98.559270193562995</v>
+      </c>
+      <c r="B282">
+        <v>140.804581632186</v>
+      </c>
+      <c r="C282">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>0.10072824343466801</v>
+      </c>
+      <c r="B283">
+        <v>135.41974307679999</v>
+      </c>
+      <c r="C283">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>0.228688169089344</v>
+      </c>
+      <c r="B284">
+        <v>135.94882727074199</v>
+      </c>
+      <c r="C284">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>0.462291561848863</v>
+      </c>
+      <c r="B285">
+        <v>135.41974307679999</v>
+      </c>
+      <c r="C285">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>0.92776284257022301</v>
+      </c>
+      <c r="B286">
+        <v>135.94882727074199</v>
+      </c>
+      <c r="C286">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>1.98755578879352</v>
+      </c>
+      <c r="B287">
+        <v>135.94882727074199</v>
+      </c>
+      <c r="C287">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>4.7475613789974203</v>
+      </c>
+      <c r="B288">
+        <v>135.94882727074199</v>
+      </c>
+      <c r="C288">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>9.5971626936792198</v>
+      </c>
+      <c r="B289">
+        <v>135.41974307679999</v>
+      </c>
+      <c r="C289">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>18.845604994748399</v>
+      </c>
+      <c r="B290">
+        <v>135.94882727074199</v>
+      </c>
+      <c r="C290">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>31.091885438021301</v>
+      </c>
+      <c r="B291">
+        <v>137.013205122024</v>
+      </c>
+      <c r="C291">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>54.757722704641502</v>
+      </c>
+      <c r="B292">
+        <v>151.63271406340999</v>
+      </c>
+      <c r="C292">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>100</v>
+      </c>
+      <c r="B293">
+        <v>170.45012007133101</v>
+      </c>
+      <c r="C293">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>0.10072824343466801</v>
+      </c>
+      <c r="B294">
+        <v>173.129562635898</v>
+      </c>
+      <c r="C294">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>0.228688169089344</v>
+      </c>
+      <c r="B295">
+        <v>173.129562635898</v>
+      </c>
+      <c r="C295">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>0.47246511554168202</v>
+      </c>
+      <c r="B296">
+        <v>173.129562635898</v>
+      </c>
+      <c r="C296">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>0.907785399193755</v>
+      </c>
+      <c r="B297">
+        <v>173.805978888163</v>
+      </c>
+      <c r="C297">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>1.8218146985669701</v>
+      </c>
+      <c r="B298">
+        <v>173.129562635898</v>
+      </c>
+      <c r="C298">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>3.9887823195458401</v>
+      </c>
+      <c r="B299">
+        <v>173.129562635898</v>
+      </c>
+      <c r="C299">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>8.1220164647560509</v>
+      </c>
+      <c r="B300">
+        <v>173.129562635898</v>
+      </c>
+      <c r="C300">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>15.380653555345001</v>
+      </c>
+      <c r="B301">
+        <v>173.129562635898</v>
+      </c>
+      <c r="C301">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>29.984081957984099</v>
+      </c>
+      <c r="B302">
+        <v>173.129562635898</v>
+      </c>
+      <c r="C302">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>45.673455020087502</v>
+      </c>
+      <c r="B303">
+        <v>172.455778853179</v>
+      </c>
+      <c r="C303">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>87.7560993057281</v>
+      </c>
+      <c r="B304">
+        <v>199.22164213614201</v>
+      </c>
+      <c r="C304">
+        <v>4.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C05470-24AE-4D33-9446-2C355901D5C0}">
+  <dimension ref="A1:C176"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12779,5636 +16136,1927 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>9.8778829120916095E-2</v>
+        <v>12.3817021795236</v>
       </c>
       <c r="B2">
-        <v>162.44377226327401</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.16442335096014499</v>
+        <v>16.2571937809806</v>
       </c>
       <c r="B3">
-        <v>161.814658939097</v>
+        <v>2.1377803848172001</v>
       </c>
       <c r="C3">
-        <v>7.0000000000000007E-2</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.247529275629367</v>
+        <v>20.118749299085501</v>
       </c>
       <c r="B4">
-        <v>162.44377226327401</v>
+        <v>2.23797169167036</v>
       </c>
       <c r="C4">
-        <v>7.0000000000000007E-2</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.36470268335052403</v>
+        <v>6.3801403326929398</v>
       </c>
       <c r="B5">
-        <v>163.075331494251</v>
+        <v>2.0167247687623702</v>
       </c>
       <c r="C5">
-        <v>7.0000000000000007E-2</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.68094011041345504</v>
+        <v>10.5527052089751</v>
       </c>
       <c r="B6">
-        <v>163.075331494251</v>
+        <v>2.2661024669785501</v>
       </c>
       <c r="C6">
-        <v>7.0000000000000007E-2</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.91390626749923998</v>
+        <v>15.505212281964701</v>
       </c>
       <c r="B7">
-        <v>176.23507521456801</v>
+        <v>2.46289506692567</v>
       </c>
       <c r="C7">
-        <v>7.0000000000000007E-2</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1.1748786670889899</v>
+        <v>20.238203667972599</v>
       </c>
       <c r="B8">
-        <v>186.07378974277</v>
+        <v>2.5998844488264901</v>
       </c>
       <c r="C8">
-        <v>7.0000000000000007E-2</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1.5768332060096</v>
+        <v>3.74491306223717</v>
       </c>
       <c r="B9">
-        <v>200.31066706757801</v>
+        <v>2.0167247687623702</v>
       </c>
       <c r="C9">
-        <v>7.0000000000000007E-2</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9.8778829120916095E-2</v>
+        <v>4.9170765427066403</v>
       </c>
       <c r="B10">
-        <v>116.352449287589</v>
+        <v>2.1918609404076301</v>
       </c>
       <c r="C10">
-        <v>0.08</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.134490127388353</v>
+        <v>7.3541727775418098</v>
       </c>
       <c r="B11">
-        <v>116.804811741197</v>
+        <v>2.4222147019463098</v>
       </c>
       <c r="C11">
-        <v>0.08</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.193933173619633</v>
+        <v>11.879098157770001</v>
       </c>
       <c r="B12">
-        <v>116.804811741197</v>
+        <v>2.7217331768086201</v>
       </c>
       <c r="C12">
-        <v>0.08</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0.29617539250211999</v>
+        <v>20.118749299085501</v>
       </c>
       <c r="B13">
-        <v>116.804811741197</v>
+        <v>3.0329260553433999</v>
       </c>
       <c r="C13">
-        <v>0.08</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.39466154842929502</v>
+        <v>2.3460327175793498</v>
       </c>
       <c r="B14">
-        <v>116.352449287589</v>
+        <v>2.0083449747303699</v>
       </c>
       <c r="C14">
-        <v>0.08</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0.49300190071622502</v>
+        <v>3.3863748110115299</v>
       </c>
       <c r="B15">
-        <v>116.804811741197</v>
+        <v>2.2755577508902398</v>
       </c>
       <c r="C15">
-        <v>0.08</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>0.70077161311394998</v>
+        <v>5.37367896763483</v>
       </c>
       <c r="B16">
-        <v>128.70364050918201</v>
+        <v>2.5998844488264901</v>
       </c>
       <c r="C16">
-        <v>0.08</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1.1173127268427001</v>
+        <v>7.6653274431209999</v>
       </c>
       <c r="B17">
-        <v>145.155051010199</v>
+        <v>2.8374533482331898</v>
       </c>
       <c r="C17">
-        <v>0.08</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>1.7310332339848999</v>
+        <v>11.6011098205233</v>
       </c>
       <c r="B18">
-        <v>160.563732157733</v>
+        <v>3.16187724204786</v>
       </c>
       <c r="C18">
-        <v>0.08</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>2.4782790719305798</v>
+        <v>20</v>
       </c>
       <c r="B19">
-        <v>172.848784021851</v>
+        <v>3.5975171327527402</v>
       </c>
       <c r="C19">
-        <v>0.08</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>3.6514267871000099</v>
+        <v>1.50490928530183</v>
       </c>
       <c r="B20">
-        <v>186.797219258827</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>0.08</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>5.1163083719627096</v>
+        <v>2.0717789516338798</v>
       </c>
       <c r="B21">
-        <v>201.08944762091701</v>
+        <v>2.2473096002775002</v>
       </c>
       <c r="C21">
-        <v>0.08</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>9.94903067745357E-2</v>
+        <v>3.0803445239768799</v>
       </c>
       <c r="B22">
-        <v>81.737617389376695</v>
+        <v>2.53573658576118</v>
       </c>
       <c r="C22">
-        <v>0.09</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>0.13643449794086099</v>
+        <v>4.5798912953099196</v>
       </c>
       <c r="B23">
-        <v>81.737617389376695</v>
+        <v>2.8374533482331898</v>
       </c>
       <c r="C23">
-        <v>0.09</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>0.18844495722447499</v>
+        <v>6.4180221923216703</v>
       </c>
       <c r="B24">
-        <v>82.055402097655005</v>
+        <v>3.1487391676545502</v>
       </c>
       <c r="C24">
-        <v>0.09</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>0.25842108605286601</v>
+        <v>9.3744142651679994</v>
       </c>
       <c r="B25">
-        <v>82.055402097655005</v>
+        <v>3.4507991965568201</v>
       </c>
       <c r="C25">
-        <v>0.09</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>0.33701800383753799</v>
+        <v>14.441952681707299</v>
       </c>
       <c r="B26">
-        <v>81.737617389376695</v>
+        <v>3.8936859308321101</v>
       </c>
       <c r="C26">
-        <v>0.09</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0.48250065300691802</v>
+        <v>19.881951609098302</v>
       </c>
       <c r="B27">
-        <v>90.765850122412999</v>
+        <v>4.2494781590754398</v>
       </c>
       <c r="C27">
-        <v>0.09</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>0.66166982978874</v>
+        <v>1.03030876567785</v>
       </c>
       <c r="B28">
-        <v>99.238952060057898</v>
+        <v>2.0083449747303699</v>
       </c>
       <c r="C28">
-        <v>0.09</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>0.93379671953964405</v>
+        <v>1.61570519222516</v>
       </c>
       <c r="B29">
-        <v>109.773489846148</v>
+        <v>2.3624505470103601</v>
       </c>
       <c r="C29">
-        <v>0.09</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1.26229824630369</v>
+        <v>2.4452932391577198</v>
       </c>
       <c r="B30">
-        <v>118.172478820447</v>
+        <v>2.7330895741002701</v>
       </c>
       <c r="C30">
-        <v>0.09</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>2.14690233356403</v>
+        <v>3.81201578006677</v>
       </c>
       <c r="B31">
-        <v>132.761595432099</v>
+        <v>3.1356556839317702</v>
       </c>
       <c r="C31">
-        <v>0.09</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>3.2320298568961499</v>
+        <v>5.9426264608180404</v>
       </c>
       <c r="B32">
-        <v>144.59289356094899</v>
+        <v>3.5825689092439998</v>
       </c>
       <c r="C32">
-        <v>0.09</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>4.7619820260936896</v>
+        <v>10.999189614438301</v>
       </c>
       <c r="B33">
-        <v>156.86867595580401</v>
+        <v>4.2850139288610798</v>
       </c>
       <c r="C33">
-        <v>0.09</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>7.2205075081289403</v>
+        <v>20.118749299085501</v>
       </c>
       <c r="B34">
-        <v>168.87101168925199</v>
+        <v>5.0826860734052701</v>
       </c>
       <c r="C34">
-        <v>0.09</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>10.7151192266465</v>
+        <v>0.69707980527159497</v>
       </c>
       <c r="B35">
-        <v>179.68770744698</v>
+        <v>2.0083449747303699</v>
       </c>
       <c r="C35">
-        <v>0.09</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>14.9064499765483</v>
+        <v>1.16669689668523</v>
       </c>
       <c r="B36">
-        <v>189.719172838562</v>
+        <v>2.4424701923377499</v>
       </c>
       <c r="C36">
-        <v>0.09</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>21.037069337930699</v>
+        <v>2.0232962824734599</v>
       </c>
       <c r="B37">
-        <v>200.31066706757801</v>
+        <v>2.9704362126627699</v>
       </c>
       <c r="C37">
-        <v>0.09</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>0.100206909012604</v>
+        <v>3.3465171776787002</v>
       </c>
       <c r="B38">
-        <v>54.384553033473402</v>
+        <v>3.4941749269976299</v>
       </c>
       <c r="C38">
-        <v>0.1</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>0.138406978934773</v>
+        <v>5.8380187126937502</v>
       </c>
       <c r="B39">
-        <v>54.5959927581996</v>
+        <v>4.2142370886665503</v>
       </c>
       <c r="C39">
-        <v>0.1</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>0.185759369406689</v>
+        <v>10.7417924289475</v>
       </c>
       <c r="B40">
-        <v>54.5959927581996</v>
+        <v>5.0615667500924602</v>
       </c>
       <c r="C40">
-        <v>0.1</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>0.23038680935231601</v>
+        <v>20.118749299085501</v>
       </c>
       <c r="B41">
-        <v>54.5959927581996</v>
+        <v>6.1556784661900101</v>
       </c>
       <c r="C41">
-        <v>0.1</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>0.29830866513951199</v>
+        <v>0.50634835860375105</v>
       </c>
       <c r="B42">
-        <v>60.8620360512895</v>
+        <v>2.0167247687623702</v>
       </c>
       <c r="C42">
-        <v>0.1</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>0.449085408883591</v>
+        <v>0.775461425980426</v>
       </c>
       <c r="B43">
-        <v>69.176439625776695</v>
+        <v>2.4021271910423101</v>
       </c>
       <c r="C43">
-        <v>0.1</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>0.65693807939786197</v>
+        <v>1.25259259952618</v>
       </c>
       <c r="B44">
-        <v>78.018846886208806</v>
+        <v>2.9092338990438402</v>
       </c>
       <c r="C44">
-        <v>0.1</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>0.900881904445199</v>
+        <v>2.0717789516338798</v>
       </c>
       <c r="B45">
-        <v>85.3020006475938</v>
+        <v>3.5087543277322801</v>
       </c>
       <c r="C45">
-        <v>0.1</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>1.2532712664544501</v>
+        <v>3.7228090141839898</v>
       </c>
       <c r="B46">
-        <v>92.544049492506204</v>
+        <v>4.3388755413532998</v>
       </c>
       <c r="C46">
-        <v>0.1</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>1.718654224375</v>
+        <v>7.5751065350246698</v>
       </c>
       <c r="B47">
-        <v>100.012107125764</v>
+        <v>5.4782647352460003</v>
       </c>
       <c r="C47">
-        <v>0.1</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>2.1011719759737399</v>
+        <v>20.118749299085501</v>
       </c>
       <c r="B48">
-        <v>105.186554177193</v>
+        <v>7.4551874406298797</v>
       </c>
       <c r="C48">
-        <v>0.1</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>3.1631856068398401</v>
+        <v>0.38564186782696402</v>
       </c>
       <c r="B49">
-        <v>114.560450879521</v>
+        <v>2.0167247687623702</v>
       </c>
       <c r="C49">
-        <v>0.1</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>4.6941175360794496</v>
+        <v>0.77088432730326295</v>
       </c>
       <c r="B50">
-        <v>124.769719935979</v>
+        <v>2.7217331768086201</v>
       </c>
       <c r="C50">
-        <v>0.1</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>7.3248968967449901</v>
+        <v>1.3527969753276901</v>
       </c>
       <c r="B51">
-        <v>134.83830310774599</v>
+        <v>3.43646060808861</v>
       </c>
       <c r="C51">
-        <v>0.1</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>10.870031432437999</v>
+        <v>2.5638866026071301</v>
       </c>
       <c r="B52">
-        <v>144.03291323881601</v>
+        <v>4.3569794447287098</v>
       </c>
       <c r="C52">
-        <v>0.1</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>17.456048526607201</v>
+        <v>4.6070842393702103</v>
       </c>
       <c r="B53">
-        <v>155.05315912809701</v>
+        <v>5.4102590573953</v>
       </c>
       <c r="C53">
-        <v>0.1</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>26.8509530236222</v>
+        <v>8.6800326638797998</v>
       </c>
       <c r="B54">
-        <v>166.27015037546801</v>
+        <v>6.8026098765584999</v>
       </c>
       <c r="C54">
-        <v>0.1</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>38.1669637311226</v>
+        <v>20</v>
       </c>
       <c r="B55">
-        <v>174.87266975113801</v>
+        <v>9.1425251147396107</v>
       </c>
       <c r="C55">
-        <v>0.1</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>45.996724929245502</v>
+        <v>0.29897295127352203</v>
       </c>
       <c r="B56">
-        <v>178.99181169566401</v>
+        <v>2.0167247687623702</v>
       </c>
       <c r="C56">
-        <v>0.1</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>60.418363912476202</v>
+        <v>0.53090555851839005</v>
       </c>
       <c r="B57">
-        <v>178.29861101405399</v>
+        <v>2.6107324338401598</v>
       </c>
       <c r="C57">
-        <v>0.1</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>96.331252110017502</v>
+        <v>0.85250302990812898</v>
       </c>
       <c r="B58">
-        <v>178.99181169566401</v>
+        <v>3.2149800161839002</v>
       </c>
       <c r="C58">
-        <v>0.1</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>9.8778829120916095E-2</v>
+        <v>1.49602667932269</v>
       </c>
       <c r="B59">
-        <v>33.613232445261197</v>
+        <v>4.0592341216792596</v>
       </c>
       <c r="C59">
-        <v>0.11</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>0.13940388761949199</v>
+        <v>2.7364002950296999</v>
       </c>
       <c r="B60">
-        <v>33.613232445261197</v>
+        <v>5.1680482522309097</v>
       </c>
       <c r="C60">
-        <v>0.11</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>0.201018757777637</v>
+        <v>4.4200712557196802</v>
       </c>
       <c r="B61">
-        <v>39.105084733003302</v>
+        <v>6.20715461565129</v>
       </c>
       <c r="C61">
-        <v>0.11</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>0.26215716958275398</v>
+        <v>7.8956088963276496</v>
       </c>
       <c r="B62">
-        <v>43.593219146130998</v>
+        <v>7.7721603077657901</v>
       </c>
       <c r="C62">
-        <v>0.11</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>0.36732953985133698</v>
+        <v>12.163747712507099</v>
       </c>
       <c r="B63">
-        <v>49.934542768812499</v>
+        <v>9.1806721852667792</v>
       </c>
       <c r="C63">
-        <v>0.11</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>0.54511124190995397</v>
+        <v>20.118749299085501</v>
       </c>
       <c r="B64">
-        <v>56.317374350112502</v>
+        <v>11.165172537725301</v>
       </c>
       <c r="C64">
-        <v>0.11</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>0.80893648296532505</v>
+        <v>0.23593510737047499</v>
       </c>
       <c r="B65">
-        <v>64.259794400952501</v>
+        <v>2.02513952737909</v>
       </c>
       <c r="C65">
-        <v>0.11</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>1.1013895549411401</v>
+        <v>0.39023493319897501</v>
       </c>
       <c r="B66">
-        <v>69.986426284079201</v>
+        <v>2.5890815388183301</v>
       </c>
       <c r="C66">
-        <v>0.11</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>1.6820458183818701</v>
+        <v>0.66878360588536601</v>
       </c>
       <c r="B67">
-        <v>78.322173521971095</v>
+        <v>3.3100648740609202</v>
       </c>
       <c r="C67">
-        <v>0.11</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>2.8814097867749</v>
+        <v>1.2017467570876701</v>
       </c>
       <c r="B68">
-        <v>89.021818189525604</v>
+        <v>4.2850139288610798</v>
       </c>
       <c r="C68">
-        <v>0.11</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>4.6272202040636197</v>
+        <v>2.5487534682125301</v>
       </c>
       <c r="B69">
-        <v>97.710526614793096</v>
+        <v>5.8800961286694102</v>
       </c>
       <c r="C69">
-        <v>0.11</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>7.2205075081289403</v>
+        <v>4.1414121668136898</v>
       </c>
       <c r="B70">
-        <v>107.247270450195</v>
+        <v>7.1809797611778201</v>
       </c>
       <c r="C70">
-        <v>0.11</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>10.792297382669201</v>
+        <v>7.13968272153957</v>
       </c>
       <c r="B71">
-        <v>115.452973332534</v>
+        <v>8.9915153281290792</v>
       </c>
       <c r="C71">
-        <v>0.11</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>16.130955153061102</v>
+        <v>11.532635203173999</v>
       </c>
       <c r="B72">
-        <v>122.848083211789</v>
+        <v>10.8896903102849</v>
       </c>
       <c r="C72">
-        <v>0.11</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>23.596933873778799</v>
+        <v>20.118749299085501</v>
       </c>
       <c r="B73">
-        <v>130.71687210118799</v>
+        <v>13.4660356716238</v>
       </c>
       <c r="C73">
-        <v>0.11</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>32.127882775106499</v>
+        <v>0.18508970212009901</v>
       </c>
       <c r="B74">
-        <v>135.36253603973501</v>
+        <v>2.02513952737909</v>
       </c>
       <c r="C74">
-        <v>0.11</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>47.677271167909801</v>
+        <v>0.33655152535444499</v>
       </c>
       <c r="B75">
-        <v>135.36253603973501</v>
+        <v>2.7104239670518</v>
       </c>
       <c r="C75">
-        <v>0.11</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>66.804467363412599</v>
+        <v>0.59410875705976196</v>
       </c>
       <c r="B76">
-        <v>135.36253603973501</v>
+        <v>3.5825689092439998</v>
       </c>
       <c r="C76">
-        <v>0.11</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>97.025100516922294</v>
+        <v>1.07390107566638</v>
       </c>
       <c r="B77">
-        <v>135.36253603973501</v>
+        <v>4.7156716532115297</v>
       </c>
       <c r="C77">
-        <v>0.11</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>9.94903067745357E-2</v>
+        <v>2.1214233731433199</v>
       </c>
       <c r="B78">
-        <v>20.855960608357499</v>
+        <v>6.4173999947408902</v>
       </c>
       <c r="C78">
-        <v>0.12</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>0.16560764865816799</v>
+        <v>4.2156195001822701</v>
       </c>
       <c r="B79">
-        <v>26.735188352834701</v>
+        <v>8.7332252372689005</v>
       </c>
       <c r="C79">
-        <v>0.12</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>0.247529275629367</v>
+        <v>8.9938835236800099</v>
       </c>
       <c r="B80">
-        <v>32.333911082490602</v>
+        <v>12.034142989157401</v>
       </c>
       <c r="C80">
-        <v>0.12</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>0.34933136613849602</v>
+        <v>13.6118164873495</v>
       </c>
       <c r="B81">
-        <v>36.608738584215303</v>
+        <v>14.393713460022999</v>
       </c>
       <c r="C81">
-        <v>0.12</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>0.53734269170742399</v>
+        <v>20.118749299085501</v>
       </c>
       <c r="B82">
-        <v>42.921819620029297</v>
+        <v>16.791157239990198</v>
       </c>
       <c r="C82">
-        <v>0.12</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>0.80315159547742399</v>
+        <v>0.14868113808896399</v>
       </c>
       <c r="B83">
-        <v>49.548518058355199</v>
+        <v>2.0167247687623702</v>
       </c>
       <c r="C83">
-        <v>0.12</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>1.3273340985534501</v>
+        <v>0.27847108036211299</v>
       </c>
       <c r="B84">
-        <v>57.198312268977297</v>
+        <v>2.8256633037998098</v>
       </c>
       <c r="C84">
-        <v>0.12</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>2.3568499669815002</v>
+        <v>0.47162585732034701</v>
       </c>
       <c r="B85">
-        <v>66.543580761108203</v>
+        <v>3.68852541717107</v>
       </c>
       <c r="C85">
-        <v>0.12</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>3.8120972703762201</v>
+        <v>0.80350040287260205</v>
       </c>
       <c r="B86">
-        <v>74.180862123002697</v>
+        <v>4.7948699356021498</v>
       </c>
       <c r="C86">
-        <v>0.12</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>5.9914015314563001</v>
+        <v>1.5501197084357401</v>
       </c>
       <c r="B87">
-        <v>81.737617389376695</v>
+        <v>6.6347666914334296</v>
       </c>
       <c r="C87">
-        <v>0.12</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>8.76443486498707</v>
+        <v>2.8019705188983601</v>
       </c>
       <c r="B88">
-        <v>87.991525761981606</v>
+        <v>8.7696645092287397</v>
       </c>
       <c r="C88">
-        <v>0.12</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>12.729241131785701</v>
+        <v>5.37367896763483</v>
       </c>
       <c r="B89">
-        <v>93.627647402426504</v>
+        <v>11.6884504364939</v>
       </c>
       <c r="C89">
-        <v>0.12</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>19.580161863950099</v>
+        <v>8.4268728934345791</v>
       </c>
       <c r="B90">
-        <v>100.791285720974</v>
+        <v>14.274345892876701</v>
       </c>
       <c r="C90">
-        <v>0.12</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>27.435342924806399</v>
+        <v>13.8557179787111</v>
       </c>
       <c r="B91">
-        <v>100.791285720974</v>
+        <v>17.725102937716098</v>
       </c>
       <c r="C91">
-        <v>0.12</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>43.4301912138448</v>
+        <v>20.118749299085501</v>
       </c>
       <c r="B92">
-        <v>100.791285720974</v>
+        <v>20.7637054791171</v>
       </c>
       <c r="C92">
-        <v>0.12</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>63.531225552021397</v>
+        <v>0.125970352947849</v>
       </c>
       <c r="B93">
-        <v>100.791285720974</v>
+        <v>2.0167247687623702</v>
       </c>
       <c r="C93">
-        <v>0.12</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>97.723946529497297</v>
+        <v>0.219756014599124</v>
       </c>
       <c r="B94">
-        <v>100.791285720974</v>
+        <v>2.7559447196671099</v>
       </c>
       <c r="C94">
-        <v>0.12</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>9.8778829120916095E-2</v>
+        <v>0.36347483268992098</v>
       </c>
       <c r="B95">
-        <v>15.5294008679423</v>
+        <v>3.6125277275351899</v>
       </c>
       <c r="C95">
-        <v>0.13</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>0.142437903732029</v>
+        <v>0.62662079458450204</v>
       </c>
       <c r="B96">
-        <v>18.708737798052301</v>
+        <v>4.8349664810614597</v>
       </c>
       <c r="C96">
-        <v>0.13</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>0.20539377314079699</v>
+        <v>1.1193377740105499</v>
       </c>
       <c r="B97">
-        <v>22.191847557687002</v>
+        <v>6.5797443401313096</v>
       </c>
       <c r="C97">
-        <v>0.13</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>0.29405737537915799</v>
+        <v>1.8734266828628801</v>
       </c>
       <c r="B98">
-        <v>26.119930958121</v>
+        <v>8.5177473005891908</v>
       </c>
       <c r="C98">
-        <v>0.13</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>0.42099494396845299</v>
+        <v>3.4267071560671898</v>
       </c>
       <c r="B99">
-        <v>29.803615891275602</v>
+        <v>11.543353214403799</v>
       </c>
       <c r="C99">
-        <v>0.13</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>0.64757585008137597</v>
+        <v>6.4180221923216703</v>
       </c>
       <c r="B100">
-        <v>34.943171351485397</v>
+        <v>15.5139569350681</v>
       </c>
       <c r="C100">
-        <v>0.13</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>0.92048889145434398</v>
+        <v>10.5527052089751</v>
       </c>
       <c r="B101">
-        <v>39.2571199689324</v>
+        <v>19.344764611020299</v>
       </c>
       <c r="C101">
-        <v>0.13</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>1.3084178466265699</v>
+        <v>20</v>
       </c>
       <c r="B102">
-        <v>43.762703636525103</v>
+        <v>25.783235165222699</v>
       </c>
       <c r="C102">
-        <v>0.13</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>1.62275643994015</v>
+        <v>0.101791836464943</v>
       </c>
       <c r="B103">
-        <v>46.5658363117942</v>
+        <v>2.0083449747303699</v>
       </c>
       <c r="C103">
-        <v>0.13</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>2.72063235366377</v>
+        <v>0.213346662887652</v>
       </c>
       <c r="B104">
-        <v>53.133000286941098</v>
+        <v>3.0710492191469401</v>
       </c>
       <c r="C104">
-        <v>0.13</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>4.0373754903737398</v>
+        <v>0.42145278321017299</v>
       </c>
       <c r="B105">
-        <v>58.773241216454302</v>
+        <v>4.5233518984457204</v>
       </c>
       <c r="C105">
-        <v>0.13</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>5.9914015314563001</v>
+        <v>0.71802144824120095</v>
       </c>
       <c r="B106">
-        <v>64.5096277172388</v>
+        <v>6.1046292102294402</v>
       </c>
       <c r="C106">
-        <v>0.13</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>7.8699228832080301</v>
+        <v>1.2017467570876701</v>
       </c>
       <c r="B107">
-        <v>67.847240157605498</v>
+        <v>8.06894237834668</v>
       </c>
       <c r="C107">
-        <v>0.13</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>11.430074797989899</v>
+        <v>2.3047356242435999</v>
       </c>
       <c r="B108">
-        <v>72.755504544385204</v>
+        <v>11.3526882412372</v>
       </c>
       <c r="C108">
-        <v>0.13</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>21.649746856857298</v>
+        <v>4.7736662564766004</v>
       </c>
       <c r="B109">
-        <v>73.038368022985793</v>
+        <v>16.308814790370299</v>
       </c>
       <c r="C109">
-        <v>0.13</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>38.1669637311226</v>
+        <v>7.8026775754041804</v>
       </c>
       <c r="B110">
-        <v>72.755504544385204</v>
+        <v>20.937339565511301</v>
       </c>
       <c r="C110">
-        <v>0.13</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>62.177970857002201</v>
+        <v>12.4552181022888</v>
       </c>
       <c r="B111">
-        <v>73.038368022985793</v>
+        <v>25.998844488264901</v>
       </c>
       <c r="C111">
-        <v>0.13</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>97.723946529497297</v>
+        <v>20</v>
       </c>
       <c r="B112">
-        <v>72.755504544385204</v>
+        <v>32.418649148570601</v>
       </c>
       <c r="C112">
-        <v>0.13</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>9.8778829120916095E-2</v>
+        <v>0.1</v>
       </c>
       <c r="B113">
-        <v>11.4738401676197</v>
+        <v>2.2286725834746699</v>
       </c>
       <c r="C113">
-        <v>0.14000000000000001</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>0.14040797677251901</v>
+        <v>0.217169486190014</v>
       </c>
       <c r="B114">
-        <v>13.8228814529404</v>
+        <v>3.5087543277322801</v>
       </c>
       <c r="C114">
-        <v>0.14000000000000001</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>0.19815397680930799</v>
+        <v>0.40674575281252001</v>
       </c>
       <c r="B115">
-        <v>16.143836103775801</v>
+        <v>5.0405351807370504</v>
       </c>
       <c r="C115">
-        <v>0.14000000000000001</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>0.30045730317274999</v>
+        <v>0.76633424458279198</v>
       </c>
       <c r="B116">
-        <v>19.6004903046789</v>
+        <v>7.2410298741743198</v>
       </c>
       <c r="C116">
-        <v>0.14000000000000001</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>0.44268535275575899</v>
+        <v>1.3211395399896599</v>
       </c>
       <c r="B117">
-        <v>23.069888713533199</v>
+        <v>9.8131304585500807</v>
       </c>
       <c r="C117">
-        <v>0.14000000000000001</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>0.63834704481279203</v>
+        <v>2.1340192500745401</v>
       </c>
       <c r="B118">
-        <v>26.425769126525001</v>
+        <v>12.9707442490619</v>
       </c>
       <c r="C118">
-        <v>0.14000000000000001</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>0.89443949448243298</v>
+        <v>4.0926677434001197</v>
       </c>
       <c r="B119">
-        <v>29.688192248961599</v>
+        <v>18.3254780237734</v>
       </c>
       <c r="C119">
-        <v>0.14000000000000001</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>1.3465238293142401</v>
+        <v>6.1940586755634603</v>
       </c>
       <c r="B120">
-        <v>33.613232445261197</v>
+        <v>22.755577508902402</v>
       </c>
       <c r="C120">
-        <v>0.14000000000000001</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>2.2413705662831398</v>
+        <v>9.1550392082718801</v>
       </c>
       <c r="B121">
-        <v>39.105084733003302</v>
+        <v>27.559447196671101</v>
       </c>
       <c r="C121">
-        <v>0.14000000000000001</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>3.4230286382752402</v>
+        <v>20.118749299085501</v>
       </c>
       <c r="B122">
-        <v>43.762703636525103</v>
+        <v>40.088439011732198</v>
       </c>
       <c r="C122">
-        <v>0.14000000000000001</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>4.6272202040636197</v>
+        <v>0.100593746495427</v>
       </c>
       <c r="B123">
-        <v>46.928623417925003</v>
+        <v>2.49385307590908</v>
       </c>
       <c r="C123">
-        <v>0.14000000000000001</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>6.3000892016719199</v>
+        <v>0.19754364915101</v>
       </c>
       <c r="B124">
-        <v>49.934542768812499</v>
+        <v>3.76612189005944</v>
       </c>
       <c r="C124">
-        <v>0.14000000000000001</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>10.263503419808099</v>
+        <v>0.33854978824154502</v>
       </c>
       <c r="B125">
-        <v>49.741155938681302</v>
+        <v>5.2548440630906104</v>
       </c>
       <c r="C125">
-        <v>0.14000000000000001</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>15.6744568093882</v>
+        <v>0.56662807375542901</v>
       </c>
       <c r="B126">
-        <v>49.934542768812499</v>
+        <v>7.1511417127347698</v>
       </c>
       <c r="C126">
-        <v>0.14000000000000001</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>25.535327503632601</v>
+        <v>0.90449415259069998</v>
       </c>
       <c r="B127">
-        <v>49.934542768812499</v>
+        <v>9.4521957734562392</v>
       </c>
       <c r="C127">
-        <v>0.14000000000000001</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>42.505101076592801</v>
+        <v>1.44382128236005</v>
       </c>
       <c r="B128">
-        <v>49.934542768812499</v>
+        <v>12.441756962296401</v>
       </c>
       <c r="C128">
-        <v>0.14000000000000001</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>71.2619283698494</v>
+        <v>2.2911321076488198</v>
       </c>
       <c r="B129">
-        <v>49.934542768812499</v>
+        <v>16.308814790370299</v>
       </c>
       <c r="C129">
-        <v>0.14000000000000001</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>96.331252110017502</v>
+        <v>3.81201578006677</v>
       </c>
       <c r="B130">
-        <v>49.934542768812499</v>
+        <v>21.7368376127272</v>
       </c>
       <c r="C130">
-        <v>0.14000000000000001</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>0.100206909012604</v>
+        <v>6.7292874533921898</v>
       </c>
       <c r="B131">
-        <v>8.6770902450238108</v>
+        <v>29.458022816724402</v>
       </c>
       <c r="C131">
-        <v>0.15</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>0.13940388761949199</v>
+        <v>11.8089827366256</v>
       </c>
       <c r="B132">
-        <v>10.2526913257988</v>
+        <v>39.262464292453501</v>
       </c>
       <c r="C132">
-        <v>0.15</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>0.18844495722447499</v>
+        <v>20</v>
       </c>
       <c r="B133">
-        <v>11.9278133600987</v>
+        <v>50.405351807370401</v>
       </c>
       <c r="C133">
-        <v>0.15</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>0.26215716958275398</v>
+        <v>9.9409758045491903E-2</v>
       </c>
       <c r="B134">
-        <v>13.716022082358799</v>
+        <v>2.7444933558161302</v>
       </c>
       <c r="C134">
-        <v>0.15</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>0.37802753905880099</v>
+        <v>0.17548637680313101</v>
       </c>
       <c r="B135">
-        <v>15.956995704113099</v>
+        <v>3.9426286428639901</v>
       </c>
       <c r="C135">
-        <v>0.15</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>0.55299210474496296</v>
+        <v>0.35707660389357299</v>
       </c>
       <c r="B136">
-        <v>18.854494631445501</v>
+        <v>6.1813629568143398</v>
       </c>
       <c r="C136">
-        <v>0.15</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>0.79170563177312203</v>
+        <v>0.60118470131507795</v>
       </c>
       <c r="B137">
-        <v>21.430219791654299</v>
+        <v>8.6608002961438508</v>
       </c>
       <c r="C137">
-        <v>0.15</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>1.0324972150009799</v>
+        <v>1.05499725023255</v>
       </c>
       <c r="B138">
-        <v>23.521852326755599</v>
+        <v>12.236252789176101</v>
       </c>
       <c r="C138">
-        <v>0.15</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>1.3273340985534501</v>
+        <v>1.89573953823967</v>
       </c>
       <c r="B139">
-        <v>25.6180462336972</v>
+        <v>17.505068364998699</v>
       </c>
       <c r="C139">
-        <v>0.15</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>2.0564157034979198</v>
+        <v>3.3465171776787002</v>
       </c>
       <c r="B140">
-        <v>29.117744715642999</v>
+        <v>24.323213621859502</v>
       </c>
       <c r="C140">
-        <v>0.15</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>3.0081978972728298</v>
+        <v>5.7693052293297402</v>
       </c>
       <c r="B141">
-        <v>32.2086880960915</v>
+        <v>32.9631105782044</v>
       </c>
       <c r="C141">
-        <v>0.15</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>4.7279280171319797</v>
+        <v>9.7710452424257994</v>
       </c>
       <c r="B142">
-        <v>32.333911082490602</v>
+        <v>43.569794447287101</v>
       </c>
       <c r="C142">
-        <v>0.15</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>7.1176058052249598</v>
+        <v>20.238203667972599</v>
       </c>
       <c r="B143">
-        <v>32.333911082490602</v>
+        <v>62.071546156512802</v>
       </c>
       <c r="C143">
-        <v>0.15</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>10.6384929890483</v>
+        <v>9.9409758045491903E-2</v>
       </c>
       <c r="B144">
-        <v>32.459620918781702</v>
+        <v>3.0582885488179001</v>
       </c>
       <c r="C144">
-        <v>0.15</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>17.964433431830699</v>
+        <v>0.19406629844923001</v>
       </c>
       <c r="B145">
-        <v>32.2086880960915</v>
+        <v>4.7353477336029304</v>
       </c>
       <c r="C145">
-        <v>0.15</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>29.265938633627599</v>
+        <v>0.36132945173330699</v>
       </c>
       <c r="B146">
-        <v>32.2086880960915</v>
+        <v>7.2410298741743198</v>
       </c>
       <c r="C146">
-        <v>0.15</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>44.0580765949191</v>
+        <v>0.61559042094726901</v>
       </c>
       <c r="B147">
-        <v>32.2086880960915</v>
+        <v>10.3159063694753</v>
       </c>
       <c r="C147">
-        <v>0.15</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>67.2856421871479</v>
+        <v>1.05499725023255</v>
       </c>
       <c r="B148">
-        <v>32.2086880960915</v>
+        <v>14.819415701336901</v>
       </c>
       <c r="C148">
-        <v>0.15</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>98.427826144167994</v>
+        <v>1.9411656647259301</v>
       </c>
       <c r="B149">
-        <v>32.2086880960915</v>
+        <v>21.7368376127272</v>
       </c>
       <c r="C149">
-        <v>0.15</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>9.8778829120916095E-2</v>
+        <v>3.5088186643007599</v>
       </c>
       <c r="B150">
-        <v>6.6906059489845999</v>
+        <v>30.710492191469399</v>
       </c>
       <c r="C150">
-        <v>0.16</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>0.13643449794086099</v>
+        <v>5.9075505862465896</v>
       </c>
       <c r="B151">
-        <v>7.7837415064514097</v>
+        <v>41.446292904380499</v>
       </c>
       <c r="C151">
-        <v>0.16</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>0.201018757777637</v>
+        <v>10.5527052089751</v>
       </c>
       <c r="B152">
-        <v>9.2328839499580795</v>
+        <v>55.702705383254198</v>
       </c>
       <c r="C152">
-        <v>0.16</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>0.29195450467499601</v>
+        <v>20</v>
       </c>
       <c r="B153">
-        <v>10.867156990437801</v>
+        <v>77.398658154426002</v>
       </c>
       <c r="C153">
-        <v>0.16</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>0.45557799284904898</v>
+        <v>0.100593746495427</v>
       </c>
       <c r="B154">
-        <v>12.9907827785461</v>
+        <v>3.43646060808861</v>
       </c>
       <c r="C154">
-        <v>0.16</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>0.67123582067228504</v>
+        <v>0.17548637680313101</v>
       </c>
       <c r="B155">
-        <v>15.1132641625695</v>
+        <v>4.9987338468900999</v>
       </c>
       <c r="C155">
-        <v>0.16</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>0.94052260913449104</v>
+        <v>0.31347272876611398</v>
       </c>
       <c r="B156">
-        <v>17.0451016130494</v>
+        <v>7.6120241666075596</v>
       </c>
       <c r="C156">
-        <v>0.16</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>1.20909549336022</v>
+        <v>0.48007662140991603</v>
       </c>
       <c r="B157">
-        <v>18.564107754578199</v>
+        <v>10.3589493584624</v>
       </c>
       <c r="C157">
-        <v>0.16</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>1.56555691562582</v>
+        <v>0.775461425980426</v>
       </c>
       <c r="B158">
-        <v>19.676694337687501</v>
+        <v>14.274345892876701</v>
       </c>
       <c r="C158">
-        <v>0.16</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>2.40814495521147</v>
+        <v>1.2160597813633001</v>
       </c>
       <c r="B159">
-        <v>19.8299923682263</v>
+        <v>19.264384211300499</v>
       </c>
       <c r="C159">
-        <v>0.16</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>5.0073278153094298</v>
+        <v>2.1214233731433199</v>
       </c>
       <c r="B160">
-        <v>19.8299923682263</v>
+        <v>27.674438641890699</v>
       </c>
       <c r="C160">
-        <v>0.16</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>7.9266078461392802</v>
+        <v>3.7228090141839898</v>
       </c>
       <c r="B161">
-        <v>19.7531946415831</v>
+        <v>39.426286428639898</v>
       </c>
       <c r="C161">
-        <v>0.16</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>14.176073442637399</v>
+        <v>6.3424820676928899</v>
       </c>
       <c r="B162">
-        <v>19.7531946415831</v>
+        <v>53.430975834017303</v>
       </c>
       <c r="C162">
-        <v>0.16</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>29.9028887996467</v>
+        <v>11.464564751744501</v>
       </c>
       <c r="B163">
-        <v>19.7531946415831</v>
+        <v>73.320479085616498</v>
       </c>
       <c r="C163">
-        <v>0.16</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>53.4788090945205</v>
+        <v>19.881951609098302</v>
       </c>
       <c r="B164">
-        <v>19.676694337687501</v>
+        <v>96.913129449900794</v>
       </c>
       <c r="C164">
-        <v>0.16</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>99.136775616632406</v>
+        <v>0.1</v>
       </c>
       <c r="B165">
-        <v>19.7531946415831</v>
+        <v>3.86139545776649</v>
       </c>
       <c r="C165">
-        <v>0.16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>9.8778829120916095E-2</v>
+        <v>0.26091514222198497</v>
       </c>
       <c r="B166">
-        <v>5.2599644622797399</v>
+        <v>7.6756788386076202</v>
       </c>
       <c r="C166">
-        <v>0.17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>0.144497178051681</v>
+        <v>0.47442611931971701</v>
       </c>
       <c r="B167">
-        <v>6.1910081276367803</v>
+        <v>11.9841393192651</v>
       </c>
       <c r="C167">
-        <v>0.17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>0.20836322236297</v>
+        <v>0.86777849006277297</v>
       </c>
       <c r="B168">
-        <v>7.2586312557389396</v>
+        <v>18.555824952030299</v>
       </c>
       <c r="C168">
-        <v>0.17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>0.31143487584782398</v>
+        <v>1.3527969753276901</v>
       </c>
       <c r="B169">
-        <v>8.6100110036066102</v>
+        <v>25.3573658576118</v>
       </c>
       <c r="C169">
-        <v>0.17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>0.42402725866165297</v>
+        <v>2.65659109414747</v>
       </c>
       <c r="B170">
-        <v>9.7483302045986999</v>
+        <v>39.755984190478998</v>
       </c>
       <c r="C170">
-        <v>0.17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>0.56098690395524498</v>
+        <v>4.7454900754626799</v>
       </c>
       <c r="B171">
-        <v>10.7831471868405</v>
+        <v>56.638215511034304</v>
       </c>
       <c r="C171">
-        <v>0.17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>0.72118068275953295</v>
+        <v>7.8490057000576501</v>
       </c>
       <c r="B172">
-        <v>11.744107536251301</v>
+        <v>75.488973850198803</v>
       </c>
       <c r="C172">
-        <v>0.17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>0.94729694352454596</v>
+        <v>12.9055713511503</v>
       </c>
       <c r="B173">
-        <v>11.7897670245824</v>
+        <v>97.723554289944701</v>
       </c>
       <c r="C173">
-        <v>0.17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>1.33689453329855</v>
+        <v>20.118749299085501</v>
       </c>
       <c r="B174">
-        <v>11.835604030776601</v>
+        <v>120.843552987305</v>
       </c>
       <c r="C174">
-        <v>0.17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>2.3909237667574801</v>
+        <v>20</v>
       </c>
       <c r="B175">
-        <v>11.835604030776601</v>
+        <v>199.99999999999901</v>
       </c>
       <c r="C175">
-        <v>0.17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>4.0957452321930097</v>
+        <v>9.9409758045491903E-2</v>
       </c>
       <c r="B176">
-        <v>11.835604030776601</v>
+        <v>199.16896998918199</v>
       </c>
       <c r="C176">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <v>6.8176163024958703</v>
-      </c>
-      <c r="B177">
-        <v>11.835604030776601</v>
-      </c>
-      <c r="C177">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>11.595323365165401</v>
-      </c>
-      <c r="B178">
-        <v>11.7897670245824</v>
-      </c>
-      <c r="C178">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179">
-        <v>17.964433431830699</v>
-      </c>
-      <c r="B179">
-        <v>11.7897670245824</v>
-      </c>
-      <c r="C179">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180">
-        <v>28.437726516891999</v>
-      </c>
-      <c r="B180">
-        <v>11.7897670245824</v>
-      </c>
-      <c r="C180">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181">
-        <v>51.593768082933998</v>
-      </c>
-      <c r="B181">
-        <v>11.7897670245824</v>
-      </c>
-      <c r="C181">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182">
-        <v>98.427826144167994</v>
-      </c>
-      <c r="B182">
-        <v>11.7897670245824</v>
-      </c>
-      <c r="C182">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183">
-        <v>0.100206909012604</v>
-      </c>
-      <c r="B183">
-        <v>4.1836541861088303</v>
-      </c>
-      <c r="C183">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184">
-        <v>0.14553795282204199</v>
-      </c>
-      <c r="B184">
-        <v>4.90511438725642</v>
-      </c>
-      <c r="C184">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185">
-        <v>0.220676574441273</v>
-      </c>
-      <c r="B185">
-        <v>5.8183268112477604</v>
-      </c>
-      <c r="C185">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186">
-        <v>0.32050501503767698</v>
-      </c>
-      <c r="B186">
-        <v>6.7166181123875903</v>
-      </c>
-      <c r="C186">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187">
-        <v>0.406155557144254</v>
-      </c>
-      <c r="B187">
-        <v>7.2305199802209703</v>
-      </c>
-      <c r="C187">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188">
-        <v>0.65224016682269503</v>
-      </c>
-      <c r="B188">
-        <v>7.2025175742382297</v>
-      </c>
-      <c r="C188">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189">
-        <v>0.92711892830032805</v>
-      </c>
-      <c r="B189">
-        <v>7.2025175742382297</v>
-      </c>
-      <c r="C189">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190">
-        <v>1.4363692797802201</v>
-      </c>
-      <c r="B190">
-        <v>7.2025175742382297</v>
-      </c>
-      <c r="C190">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191">
-        <v>2.58732858035484</v>
-      </c>
-      <c r="B191">
-        <v>7.2025175742382297</v>
-      </c>
-      <c r="C191">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192">
-        <v>4.1252457965706002</v>
-      </c>
-      <c r="B192">
-        <v>7.2025175742382297</v>
-      </c>
-      <c r="C192">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193">
-        <v>6.4835711762327399</v>
-      </c>
-      <c r="B193">
-        <v>7.2025175742382297</v>
-      </c>
-      <c r="C193">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194">
-        <v>10.337428707200401</v>
-      </c>
-      <c r="B194">
-        <v>7.2305199802209703</v>
-      </c>
-      <c r="C194">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195">
-        <v>17.581779804834699</v>
-      </c>
-      <c r="B195">
-        <v>7.2305199802209703</v>
-      </c>
-      <c r="C195">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196">
-        <v>29.265938633627599</v>
-      </c>
-      <c r="B196">
-        <v>7.2025175742382297</v>
-      </c>
-      <c r="C196">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197">
-        <v>50.858489213825401</v>
-      </c>
-      <c r="B197">
-        <v>7.2025175742382297</v>
-      </c>
-      <c r="C197">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198">
-        <v>76.016808986202506</v>
-      </c>
-      <c r="B198">
-        <v>7.2025175742382297</v>
-      </c>
-      <c r="C198">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199">
-        <v>99.850831463728696</v>
-      </c>
-      <c r="B199">
-        <v>7.2025175742382297</v>
-      </c>
-      <c r="C199">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200">
-        <v>9.94903067745357E-2</v>
-      </c>
-      <c r="B200">
-        <v>3.37963317258555</v>
-      </c>
-      <c r="C200">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201">
-        <v>0.13162540386475299</v>
-      </c>
-      <c r="B201">
-        <v>3.7675174605034201</v>
-      </c>
-      <c r="C201">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202">
-        <v>0.17665765272819201</v>
-      </c>
-      <c r="B202">
-        <v>4.2326405764467996</v>
-      </c>
-      <c r="C202">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203">
-        <v>0.22386697243779499</v>
-      </c>
-      <c r="B203">
-        <v>4.57420336669764</v>
-      </c>
-      <c r="C203">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204">
-        <v>0.33701800383753799</v>
-      </c>
-      <c r="B204">
-        <v>4.57420336669764</v>
-      </c>
-      <c r="C204">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205">
-        <v>0.51840223607097702</v>
-      </c>
-      <c r="B205">
-        <v>4.5919872455152397</v>
-      </c>
-      <c r="C205">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206">
-        <v>0.74218414024275703</v>
-      </c>
-      <c r="B206">
-        <v>4.5919872455152397</v>
-      </c>
-      <c r="C206">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207">
-        <v>1.09351326948505</v>
-      </c>
-      <c r="B207">
-        <v>4.57420336669764</v>
-      </c>
-      <c r="C207">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208">
-        <v>1.87323068267758</v>
-      </c>
-      <c r="B208">
-        <v>4.57420336669764</v>
-      </c>
-      <c r="C208">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209">
-        <v>3.2089168814358899</v>
-      </c>
-      <c r="B209">
-        <v>4.57420336669764</v>
-      </c>
-      <c r="C209">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210">
-        <v>5.4186597447755203</v>
-      </c>
-      <c r="B210">
-        <v>4.5919872455152397</v>
-      </c>
-      <c r="C210">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211">
-        <v>8.3950355853980199</v>
-      </c>
-      <c r="B211">
-        <v>4.5919872455152397</v>
-      </c>
-      <c r="C211">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212">
-        <v>15.121957708897501</v>
-      </c>
-      <c r="B212">
-        <v>4.5388419629019303</v>
-      </c>
-      <c r="C212">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213">
-        <v>25.352718609503199</v>
-      </c>
-      <c r="B213">
-        <v>4.5919872455152397</v>
-      </c>
-      <c r="C213">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214">
-        <v>41.599715935752499</v>
-      </c>
-      <c r="B214">
-        <v>4.5919872455152397</v>
-      </c>
-      <c r="C214">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215">
-        <v>68.258414120789197</v>
-      </c>
-      <c r="B215">
-        <v>4.5919872455152397</v>
-      </c>
-      <c r="C215">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216">
-        <v>99.136775616632406</v>
-      </c>
-      <c r="B216">
-        <v>4.5919872455152397</v>
-      </c>
-      <c r="C216">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217">
-        <v>9.94903067745357E-2</v>
-      </c>
-      <c r="B217">
-        <v>2.7944386066395799</v>
-      </c>
-      <c r="C217">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218">
-        <v>0.134490127388353</v>
-      </c>
-      <c r="B218">
-        <v>3.09107736069191</v>
-      </c>
-      <c r="C218">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219">
-        <v>0.19958122724070401</v>
-      </c>
-      <c r="B219">
-        <v>3.0791062156822999</v>
-      </c>
-      <c r="C219">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220">
-        <v>0.33944545494960099</v>
-      </c>
-      <c r="B220">
-        <v>3.0791062156822999</v>
-      </c>
-      <c r="C220">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221">
-        <v>0.52213614960116705</v>
-      </c>
-      <c r="B221">
-        <v>3.1030950478805899</v>
-      </c>
-      <c r="C221">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222">
-        <v>0.97488574554455099</v>
-      </c>
-      <c r="B222">
-        <v>3.1030950478805899</v>
-      </c>
-      <c r="C222">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223">
-        <v>1.6700171288447501</v>
-      </c>
-      <c r="B223">
-        <v>3.09107736069191</v>
-      </c>
-      <c r="C223">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224">
-        <v>2.4782790719305798</v>
-      </c>
-      <c r="B224">
-        <v>3.1030950478805899</v>
-      </c>
-      <c r="C224">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225">
-        <v>4.4004986801861499</v>
-      </c>
-      <c r="B225">
-        <v>3.09107736069191</v>
-      </c>
-      <c r="C225">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226">
-        <v>7.16887202818749</v>
-      </c>
-      <c r="B226">
-        <v>3.1030950478805899</v>
-      </c>
-      <c r="C226">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227">
-        <v>11.106609128175</v>
-      </c>
-      <c r="B227">
-        <v>3.11515945819797</v>
-      </c>
-      <c r="C227">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228">
-        <v>21.805684229594501</v>
-      </c>
-      <c r="B228">
-        <v>3.1030950478805899</v>
-      </c>
-      <c r="C228">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229">
-        <v>35.523737442051903</v>
-      </c>
-      <c r="B229">
-        <v>3.1030950478805899</v>
-      </c>
-      <c r="C229">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230">
-        <v>67.7702827852561</v>
-      </c>
-      <c r="B230">
-        <v>3.09107736069191</v>
-      </c>
-      <c r="C230">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231">
-        <v>99.136775616632406</v>
-      </c>
-      <c r="B231">
-        <v>3.09107736069191</v>
-      </c>
-      <c r="C231">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232">
-        <v>0.10092867274614099</v>
-      </c>
-      <c r="B232">
-        <v>2.20544958307566</v>
-      </c>
-      <c r="C232">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233">
-        <v>0.18050246777555501</v>
-      </c>
-      <c r="B233">
-        <v>2.19690830322737</v>
-      </c>
-      <c r="C233">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A234">
-        <v>0.29830866513951199</v>
-      </c>
-      <c r="B234">
-        <v>2.19690830322737</v>
-      </c>
-      <c r="C234">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235">
-        <v>0.52968485353504402</v>
-      </c>
-      <c r="B235">
-        <v>2.20544958307566</v>
-      </c>
-      <c r="C235">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236">
-        <v>0.81476303746034695</v>
-      </c>
-      <c r="B236">
-        <v>2.19690830322737</v>
-      </c>
-      <c r="C236">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A237">
-        <v>1.1918642966472099</v>
-      </c>
-      <c r="B237">
-        <v>2.19690830322737</v>
-      </c>
-      <c r="C237">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238">
-        <v>1.6820458183818701</v>
-      </c>
-      <c r="B238">
-        <v>2.20544958307566</v>
-      </c>
-      <c r="C238">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A239">
-        <v>2.4782790719305798</v>
-      </c>
-      <c r="B239">
-        <v>2.19690830322737</v>
-      </c>
-      <c r="C239">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240">
-        <v>4.6605488414130098</v>
-      </c>
-      <c r="B240">
-        <v>2.19690830322737</v>
-      </c>
-      <c r="C240">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241">
-        <v>7.3776561823478</v>
-      </c>
-      <c r="B241">
-        <v>2.19690830322737</v>
-      </c>
-      <c r="C241">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242">
-        <v>12.1927350619441</v>
-      </c>
-      <c r="B242">
-        <v>2.19690830322737</v>
-      </c>
-      <c r="C242">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243">
-        <v>24.2841641465808</v>
-      </c>
-      <c r="B243">
-        <v>2.20544958307566</v>
-      </c>
-      <c r="C243">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A244">
-        <v>40.713616062621298</v>
-      </c>
-      <c r="B244">
-        <v>2.20544958307566</v>
-      </c>
-      <c r="C244">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245">
-        <v>70.752318225577895</v>
-      </c>
-      <c r="B245">
-        <v>2.20544958307566</v>
-      </c>
-      <c r="C245">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A246">
-        <v>99.850831463728696</v>
-      </c>
-      <c r="B246">
-        <v>2.20544958307566</v>
-      </c>
-      <c r="C246">
-        <v>0.21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C05470-24AE-4D33-9446-2C355901D5C0}">
-  <dimension ref="A1:C266"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>9.8648951460132805E-2</v>
-      </c>
-      <c r="B2">
-        <v>33.394644831361298</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0.12124778626520701</v>
-      </c>
-      <c r="B3">
-        <v>37.884830211773199</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0.12057373122131999</v>
-      </c>
-      <c r="B4">
-        <v>40.034584092368398</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0.14902363843324301</v>
-      </c>
-      <c r="B5">
-        <v>45.9579089970022</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.14902363843324301</v>
-      </c>
-      <c r="B6">
-        <v>48.757606479574001</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0.18316247657755999</v>
-      </c>
-      <c r="B7">
-        <v>55.095832931932399</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0.18418642756536999</v>
-      </c>
-      <c r="B8">
-        <v>58.683095048807402</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0.212915205204845</v>
-      </c>
-      <c r="B9">
-        <v>63.4973840832875</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0.21173154179613901</v>
-      </c>
-      <c r="B10">
-        <v>66.573521097538006</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>0.251675071115944</v>
-      </c>
-      <c r="B11">
-        <v>74.343239127138105</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>0.27362574768875703</v>
-      </c>
-      <c r="B12">
-        <v>82.367739781059598</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>0.29749092536756999</v>
-      </c>
-      <c r="B13">
-        <v>87.385477940669901</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>0.29749092536756999</v>
-      </c>
-      <c r="B14">
-        <v>92.3441188864129</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>0.369740736489097</v>
-      </c>
-      <c r="B15">
-        <v>106.006911484291</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>0.369740736489097</v>
-      </c>
-      <c r="B16">
-        <v>111.142426732533</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>0.42503553186019799</v>
-      </c>
-      <c r="B17">
-        <v>122.171881534435</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>0.42503553186019799</v>
-      </c>
-      <c r="B18">
-        <v>128.09051034591101</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>0.52240410627102096</v>
-      </c>
-      <c r="B19">
-        <v>147.04216744889601</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>0.52240410627102096</v>
-      </c>
-      <c r="B20">
-        <v>153.55906115408001</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>0.60052973676435095</v>
-      </c>
-      <c r="B21">
-        <v>168.13367059017901</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>0.59719120077504195</v>
-      </c>
-      <c r="B22">
-        <v>176.975247794437</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>0.68268477602301803</v>
-      </c>
-      <c r="B23">
-        <v>193.009921484069</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>0.68268477602301803</v>
-      </c>
-      <c r="B24">
-        <v>201.564101310034</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>9.9755008125477204E-2</v>
-      </c>
-      <c r="B25">
-        <v>25.845661679515601</v>
-      </c>
-      <c r="C25">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>0.13330081790488399</v>
-      </c>
-      <c r="B26">
-        <v>33.0020110583636</v>
-      </c>
-      <c r="C26">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>0.16475373772625301</v>
-      </c>
-      <c r="B27">
-        <v>39.720164535785202</v>
-      </c>
-      <c r="C27">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>0.212915205204845</v>
-      </c>
-      <c r="B28">
-        <v>49.337688795180597</v>
-      </c>
-      <c r="C28">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>0.264624625725637</v>
-      </c>
-      <c r="B29">
-        <v>60.087738374823402</v>
-      </c>
-      <c r="C29">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>0.34389255635426802</v>
-      </c>
-      <c r="B30">
-        <v>75.524879995476795</v>
-      </c>
-      <c r="C30">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>0.42503553186019799</v>
-      </c>
-      <c r="B31">
-        <v>92.708890340041194</v>
-      </c>
-      <c r="C31">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>0.51661183022792201</v>
-      </c>
-      <c r="B32">
-        <v>112.022215447893</v>
-      </c>
-      <c r="C32">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>0.61407156443953503</v>
-      </c>
-      <c r="B33">
-        <v>130.64044819057301</v>
-      </c>
-      <c r="C33">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>0.73810111604208195</v>
-      </c>
-      <c r="B34">
-        <v>155.38599447193999</v>
-      </c>
-      <c r="C34">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>0.86279406647365897</v>
-      </c>
-      <c r="B35">
-        <v>181.92715039856299</v>
-      </c>
-      <c r="C35">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>0.95386576810259105</v>
-      </c>
-      <c r="B36">
-        <v>201.564101310034</v>
-      </c>
-      <c r="C36">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>9.9200438277637498E-2</v>
-      </c>
-      <c r="B37">
-        <v>21.305549486667299</v>
-      </c>
-      <c r="C37">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>0.12677766755089601</v>
-      </c>
-      <c r="B38">
-        <v>25.7439696028848</v>
-      </c>
-      <c r="C38">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>0.15844825263836401</v>
-      </c>
-      <c r="B39">
-        <v>30.620319922389001</v>
-      </c>
-      <c r="C39">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>0.195834821336139</v>
-      </c>
-      <c r="B40">
-        <v>36.7086333470113</v>
-      </c>
-      <c r="C40">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>0.24750093717052901</v>
-      </c>
-      <c r="B41">
-        <v>44.531070123207002</v>
-      </c>
-      <c r="C41">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>0.31105892154734499</v>
-      </c>
-      <c r="B42">
-        <v>54.2338191442716</v>
-      </c>
-      <c r="C42">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>0.40423617951046598</v>
-      </c>
-      <c r="B43">
-        <v>67.631666992197395</v>
-      </c>
-      <c r="C43">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>0.49683996807362502</v>
-      </c>
-      <c r="B44">
-        <v>81.399310363503403</v>
-      </c>
-      <c r="C44">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>0.59387122477014398</v>
-      </c>
-      <c r="B45">
-        <v>96.436800717226603</v>
-      </c>
-      <c r="C45">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>0.72585940727864096</v>
-      </c>
-      <c r="B46">
-        <v>116.526732521841</v>
-      </c>
-      <c r="C46">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>0.87246775396772702</v>
-      </c>
-      <c r="B47">
-        <v>138.59889847483299</v>
-      </c>
-      <c r="C47">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>1.01986026704508</v>
-      </c>
-      <c r="B48">
-        <v>160.998244967857</v>
-      </c>
-      <c r="C48">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>1.2817593275513699</v>
-      </c>
-      <c r="B49">
-        <v>200.771029254436</v>
-      </c>
-      <c r="C49">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>9.9200438277637498E-2</v>
-      </c>
-      <c r="B50">
-        <v>17.562964514411899</v>
-      </c>
-      <c r="C50">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>0.13479539292020101</v>
-      </c>
-      <c r="B51">
-        <v>22.075065948422399</v>
-      </c>
-      <c r="C51">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>0.19151616931427701</v>
-      </c>
-      <c r="B52">
-        <v>28.862078720820399</v>
-      </c>
-      <c r="C52">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>0.26610398248021699</v>
-      </c>
-      <c r="B53">
-        <v>37.587294174207997</v>
-      </c>
-      <c r="C53">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>0.33630885763475799</v>
-      </c>
-      <c r="B54">
-        <v>44.706973725692499</v>
-      </c>
-      <c r="C54">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>0.39312403214583402</v>
-      </c>
-      <c r="B55">
-        <v>50.918538573131201</v>
-      </c>
-      <c r="C55">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>0.48859967408272997</v>
-      </c>
-      <c r="B56">
-        <v>61.526003357496698</v>
-      </c>
-      <c r="C56">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>0.63495901219859197</v>
-      </c>
-      <c r="B57">
-        <v>77.944804655228097</v>
-      </c>
-      <c r="C57">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>0.84848427414976701</v>
-      </c>
-      <c r="B58">
-        <v>101.108691008534</v>
-      </c>
-      <c r="C58">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>1.0783303941494</v>
-      </c>
-      <c r="B59">
-        <v>126.08644252243199</v>
-      </c>
-      <c r="C59">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>1.39355222113639</v>
-      </c>
-      <c r="B60">
-        <v>161.63420927784</v>
-      </c>
-      <c r="C60">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>1.73199577076966</v>
-      </c>
-      <c r="B61">
-        <v>203.15965601373799</v>
-      </c>
-      <c r="C61">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>9.8648951460132805E-2</v>
-      </c>
-      <c r="B62">
-        <v>14.7660254935798</v>
-      </c>
-      <c r="C62">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>0.13554895270117701</v>
-      </c>
-      <c r="B63">
-        <v>18.197305830955699</v>
-      </c>
-      <c r="C63">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>0.17912328173772499</v>
-      </c>
-      <c r="B64">
-        <v>22.337698926066501</v>
-      </c>
-      <c r="C64">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>0.234080735594727</v>
-      </c>
-      <c r="B65">
-        <v>27.4201465836104</v>
-      </c>
-      <c r="C65">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>0.32343758372008502</v>
-      </c>
-      <c r="B66">
-        <v>34.874692048184002</v>
-      </c>
-      <c r="C66">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>0.42980105015576903</v>
-      </c>
-      <c r="B67">
-        <v>42.809654261369801</v>
-      </c>
-      <c r="C67">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>0.59056970556879296</v>
-      </c>
-      <c r="B68">
-        <v>55.531964241117599</v>
-      </c>
-      <c r="C68">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>0.73810111604208195</v>
-      </c>
-      <c r="B69">
-        <v>67.631666992197395</v>
-      </c>
-      <c r="C69">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>0.92764471833394002</v>
-      </c>
-      <c r="B70">
-        <v>82.043656512865894</v>
-      </c>
-      <c r="C70">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>1.1723805581789699</v>
-      </c>
-      <c r="B71">
-        <v>101.108691008534</v>
-      </c>
-      <c r="C71">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>1.44900895608457</v>
-      </c>
-      <c r="B72">
-        <v>123.138977951782</v>
-      </c>
-      <c r="C72">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>1.7909090526668301</v>
-      </c>
-      <c r="B73">
-        <v>149.96938185788301</v>
-      </c>
-      <c r="C73">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>2.3798551260382599</v>
-      </c>
-      <c r="B74">
-        <v>201.564101310034</v>
-      </c>
-      <c r="C74">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>9.8100530533416205E-2</v>
-      </c>
-      <c r="B75">
-        <v>12.414504891707301</v>
-      </c>
-      <c r="C75">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>0.13479539292020101</v>
-      </c>
-      <c r="B76">
-        <v>15.2993466219138</v>
-      </c>
-      <c r="C76">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>0.19151616931427701</v>
-      </c>
-      <c r="B77">
-        <v>19.2299019547287</v>
-      </c>
-      <c r="C77">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>0.26169053914093199</v>
-      </c>
-      <c r="B78">
-        <v>23.886077242944701</v>
-      </c>
-      <c r="C78">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>0.35558995161166701</v>
-      </c>
-      <c r="B79">
-        <v>29.904522836614799</v>
-      </c>
-      <c r="C79">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>0.46989989827555001</v>
-      </c>
-      <c r="B80">
-        <v>36.420334805102698</v>
-      </c>
-      <c r="C80">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>0.59387122477014398</v>
-      </c>
-      <c r="B81">
-        <v>43.1485298090331</v>
-      </c>
-      <c r="C81">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>0.82057275449227296</v>
-      </c>
-      <c r="B82">
-        <v>55.751322826843897</v>
-      </c>
-      <c r="C82">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>1.0604458437144599</v>
-      </c>
-      <c r="B83">
-        <v>68.436299065627907</v>
-      </c>
-      <c r="C83">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>1.3552445227499399</v>
-      </c>
-      <c r="B84">
-        <v>84.339300685716296</v>
-      </c>
-      <c r="C84">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>1.7032699128289901</v>
-      </c>
-      <c r="B85">
-        <v>102.71575256305699</v>
-      </c>
-      <c r="C85">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>2.1767704912122099</v>
-      </c>
-      <c r="B86">
-        <v>129.61443748699901</v>
-      </c>
-      <c r="C86">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>2.69038915316575</v>
-      </c>
-      <c r="B87">
-        <v>160.364782916557</v>
-      </c>
-      <c r="C87">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>3.3251984188011798</v>
-      </c>
-      <c r="B88">
-        <v>202.36030610488999</v>
-      </c>
-      <c r="C88">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>9.8648951460132805E-2</v>
-      </c>
-      <c r="B89">
-        <v>10.6452508462697</v>
-      </c>
-      <c r="C89">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>0.130361198470337</v>
-      </c>
-      <c r="B90">
-        <v>12.6118259462169</v>
-      </c>
-      <c r="C90">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>0.178127478389457</v>
-      </c>
-      <c r="B91">
-        <v>15.35978105969</v>
-      </c>
-      <c r="C91">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>0.232779406264398</v>
-      </c>
-      <c r="B92">
-        <v>18.3413532914143</v>
-      </c>
-      <c r="C92">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>0.30250814665257098</v>
-      </c>
-      <c r="B93">
-        <v>21.7296857227605</v>
-      </c>
-      <c r="C93">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>0.397531757211596</v>
-      </c>
-      <c r="B94">
-        <v>26.2564628561706</v>
-      </c>
-      <c r="C94">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>0.52240410627102096</v>
-      </c>
-      <c r="B95">
-        <v>31.353250385304801</v>
-      </c>
-      <c r="C95">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>0.68650125505209303</v>
-      </c>
-      <c r="B96">
-        <v>37.884830211773199</v>
-      </c>
-      <c r="C96">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>0.92248764602285704</v>
-      </c>
-      <c r="B97">
-        <v>47.057961236861097</v>
-      </c>
-      <c r="C97">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>1.1988175096181</v>
-      </c>
-      <c r="B98">
-        <v>57.311287421499401</v>
-      </c>
-      <c r="C98">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>1.50667260470594</v>
-      </c>
-      <c r="B99">
-        <v>68.706631476529097</v>
-      </c>
-      <c r="C99">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>1.91481552833104</v>
-      </c>
-      <c r="B100">
-        <v>84.007460134111398</v>
-      </c>
-      <c r="C100">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>2.4335203919455899</v>
-      </c>
-      <c r="B101">
-        <v>103.528836842853</v>
-      </c>
-      <c r="C101">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>3.1624779675421402</v>
-      </c>
-      <c r="B102">
-        <v>131.15649519783</v>
-      </c>
-      <c r="C102">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>3.9525029734689698</v>
-      </c>
-      <c r="B103">
-        <v>166.15685790703401</v>
-      </c>
-      <c r="C103">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>4.7508255141886702</v>
-      </c>
-      <c r="B104">
-        <v>203.15965601373799</v>
-      </c>
-      <c r="C104">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>9.9755008125477204E-2</v>
-      </c>
-      <c r="B105">
-        <v>9.2367421211444505</v>
-      </c>
-      <c r="C105">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>0.12607287013646701</v>
-      </c>
-      <c r="B106">
-        <v>10.6033661509488</v>
-      </c>
-      <c r="C106">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>0.18113162036425801</v>
-      </c>
-      <c r="B107">
-        <v>13.1189591526194</v>
-      </c>
-      <c r="C107">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>0.25878898491810698</v>
-      </c>
-      <c r="B108">
-        <v>16.295479425959702</v>
-      </c>
-      <c r="C108">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>0.35757784066520798</v>
-      </c>
-      <c r="B109">
-        <v>20.0821692272688</v>
-      </c>
-      <c r="C109">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>0.50241056107196402</v>
-      </c>
-      <c r="B110">
-        <v>24.846558539804398</v>
-      </c>
-      <c r="C110">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>0.69807918370578603</v>
-      </c>
-      <c r="B111">
-        <v>30.862706315420201</v>
-      </c>
-      <c r="C111">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>0.89214173054721202</v>
-      </c>
-      <c r="B112">
-        <v>35.992126823236802</v>
-      </c>
-      <c r="C112">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>1.1789346311150199</v>
-      </c>
-      <c r="B113">
-        <v>43.834349620353002</v>
-      </c>
-      <c r="C113">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>1.50667260470594</v>
-      </c>
-      <c r="B114">
-        <v>52.137328845146499</v>
-      </c>
-      <c r="C114">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>1.96894020804282</v>
-      </c>
-      <c r="B115">
-        <v>63.4973840832875</v>
-      </c>
-      <c r="C115">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>2.3144347054835399</v>
-      </c>
-      <c r="B116">
-        <v>71.751702301735406</v>
-      </c>
-      <c r="C116">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>2.9250403718752001</v>
-      </c>
-      <c r="B117">
-        <v>86.699178735899096</v>
-      </c>
-      <c r="C117">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>3.8653403083140998</v>
-      </c>
-      <c r="B118">
-        <v>111.142426732533</v>
-      </c>
-      <c r="C118">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>5.1079143531613402</v>
-      </c>
-      <c r="B119">
-        <v>145.887342585932</v>
-      </c>
-      <c r="C119">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>6.1739285464736904</v>
-      </c>
-      <c r="B120">
-        <v>180.49834939424099</v>
-      </c>
-      <c r="C120">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>6.9407286317638297</v>
-      </c>
-      <c r="B121">
-        <v>203.15965601373799</v>
-      </c>
-      <c r="C121">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>9.8648951460132805E-2</v>
-      </c>
-      <c r="B122">
-        <v>7.9830637388312597</v>
-      </c>
-      <c r="C122">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>0.130361198470337</v>
-      </c>
-      <c r="B123">
-        <v>9.3098589472187108</v>
-      </c>
-      <c r="C123">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>0.17035778339315599</v>
-      </c>
-      <c r="B124">
-        <v>10.857169183744601</v>
-      </c>
-      <c r="C124">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>0.22015744777617099</v>
-      </c>
-      <c r="B125">
-        <v>12.463543824018601</v>
-      </c>
-      <c r="C125">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>0.32343758372008502</v>
-      </c>
-      <c r="B126">
-        <v>15.542520492726901</v>
-      </c>
-      <c r="C126">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>0.44194991976502401</v>
-      </c>
-      <c r="B127">
-        <v>18.854558365337699</v>
-      </c>
-      <c r="C127">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>0.63495901219859197</v>
-      </c>
-      <c r="B128">
-        <v>23.419850946526498</v>
-      </c>
-      <c r="C128">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>0.798015829027654</v>
-      </c>
-      <c r="B129">
-        <v>26.991138741148799</v>
-      </c>
-      <c r="C129">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>1.0723356121946701</v>
-      </c>
-      <c r="B130">
-        <v>32.103724331268303</v>
-      </c>
-      <c r="C130">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>1.5666309916437</v>
-      </c>
-      <c r="B131">
-        <v>41.154782333042</v>
-      </c>
-      <c r="C131">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>2.1169327139340202</v>
-      </c>
-      <c r="B132">
-        <v>50.918538573131201</v>
-      </c>
-      <c r="C132">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>3.2337912248901701</v>
-      </c>
-      <c r="B133">
-        <v>68.167030301871307</v>
-      </c>
-      <c r="C133">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>4.2733439478057598</v>
-      </c>
-      <c r="B134">
-        <v>84.672452051283699</v>
-      </c>
-      <c r="C134">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>5.7103924317751602</v>
-      </c>
-      <c r="B135">
-        <v>108.973065833989</v>
-      </c>
-      <c r="C135">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>7.2572820844255101</v>
-      </c>
-      <c r="B136">
-        <v>136.96933754623799</v>
-      </c>
-      <c r="C136">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>8.9696700135481002</v>
-      </c>
-      <c r="B137">
-        <v>170.806053699198</v>
-      </c>
-      <c r="C137">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>10.3110858192692</v>
-      </c>
-      <c r="B138">
-        <v>203.96216346019401</v>
-      </c>
-      <c r="C138">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>9.9755008125477204E-2</v>
-      </c>
-      <c r="B139">
-        <v>7.14874235343978</v>
-      </c>
-      <c r="C139">
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>0.13255975622094901</v>
-      </c>
-      <c r="B140">
-        <v>8.2388524643892698</v>
-      </c>
-      <c r="C140">
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>0.178127478389457</v>
-      </c>
-      <c r="B141">
-        <v>9.60816007985912</v>
-      </c>
-      <c r="C141">
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>0.25308203471728602</v>
-      </c>
-      <c r="B142">
-        <v>11.655613714260999</v>
-      </c>
-      <c r="C142">
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>0.35957684280805702</v>
-      </c>
-      <c r="B143">
-        <v>14.083737448342999</v>
-      </c>
-      <c r="C143">
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>0.50804361181997504</v>
-      </c>
-      <c r="B144">
-        <v>17.084915528735198</v>
-      </c>
-      <c r="C144">
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>0.65290693076143902</v>
-      </c>
-      <c r="B145">
-        <v>19.535549627746999</v>
-      </c>
-      <c r="C145">
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>0.84848427414976701</v>
-      </c>
-      <c r="B146">
-        <v>22.6927431542383</v>
-      </c>
-      <c r="C146">
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>1.09042068504696</v>
-      </c>
-      <c r="B147">
-        <v>26.360179348771101</v>
-      </c>
-      <c r="C147">
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>1.4013427315076099</v>
-      </c>
-      <c r="B148">
-        <v>30.3798371590306</v>
-      </c>
-      <c r="C148">
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>1.9579942426011101</v>
-      </c>
-      <c r="B149">
-        <v>37.145365799077197</v>
-      </c>
-      <c r="C149">
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>2.7054294970312101</v>
-      </c>
-      <c r="B150">
-        <v>45.417564061468397</v>
-      </c>
-      <c r="C150">
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>3.6354271311678001</v>
-      </c>
-      <c r="B151">
-        <v>55.531964241117599</v>
-      </c>
-      <c r="C151">
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>4.8040919924236603</v>
-      </c>
-      <c r="B152">
-        <v>67.365564125583802</v>
-      </c>
-      <c r="C152">
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>6.0715314174766402</v>
-      </c>
-      <c r="B153">
-        <v>79.8104978257319</v>
-      </c>
-      <c r="C153">
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>7.4624183299728699</v>
-      </c>
-      <c r="B154">
-        <v>94.5544752110536</v>
-      </c>
-      <c r="C154">
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>9.1209446087506407</v>
-      </c>
-      <c r="B155">
-        <v>112.022215447893</v>
-      </c>
-      <c r="C155">
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>11.5272775451486</v>
-      </c>
-      <c r="B156">
-        <v>139.696028980477</v>
-      </c>
-      <c r="C156">
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>14.167985197275399</v>
-      </c>
-      <c r="B157">
-        <v>176.27892279089701</v>
-      </c>
-      <c r="C157">
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>15.663478236353599</v>
-      </c>
-      <c r="B158">
-        <v>202.36030610488999</v>
-      </c>
-      <c r="C158">
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>9.9755008125477204E-2</v>
-      </c>
-      <c r="B159">
-        <v>6.3014592001482104</v>
-      </c>
-      <c r="C159">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>0.11857396659550801</v>
-      </c>
-      <c r="B160">
-        <v>6.89954378095665</v>
-      </c>
-      <c r="C160">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>0.152384092225365</v>
-      </c>
-      <c r="B161">
-        <v>7.7657715203217199</v>
-      </c>
-      <c r="C161">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>0.198030530527563</v>
-      </c>
-      <c r="B162">
-        <v>8.8099435402445501</v>
-      </c>
-      <c r="C162">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>0.25591960234709599</v>
-      </c>
-      <c r="B163">
-        <v>10.0736283394921</v>
-      </c>
-      <c r="C163">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>0.34774829580702599</v>
-      </c>
-      <c r="B164">
-        <v>11.7942836753473</v>
-      </c>
-      <c r="C164">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>0.48049604873650797</v>
-      </c>
-      <c r="B165">
-        <v>13.918149492544201</v>
-      </c>
-      <c r="C165">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>0.64566767454575202</v>
-      </c>
-      <c r="B166">
-        <v>16.231363398942499</v>
-      </c>
-      <c r="C166">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167">
-        <v>0.85799751958190296</v>
-      </c>
-      <c r="B167">
-        <v>18.9290363585806</v>
-      </c>
-      <c r="C167">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168">
-        <v>1.0486879057851499</v>
-      </c>
-      <c r="B168">
-        <v>20.807499490062799</v>
-      </c>
-      <c r="C168">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>1.6109137955977599</v>
-      </c>
-      <c r="B169">
-        <v>20.807499490062799</v>
-      </c>
-      <c r="C169">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>2.1889395027715599</v>
-      </c>
-      <c r="B170">
-        <v>20.807499490062799</v>
-      </c>
-      <c r="C170">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171">
-        <v>3.5751320859453899</v>
-      </c>
-      <c r="B171">
-        <v>20.889691858422498</v>
-      </c>
-      <c r="C171">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172">
-        <v>5.8391606601154002</v>
-      </c>
-      <c r="B172">
-        <v>20.889691858422498</v>
-      </c>
-      <c r="C172">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173">
-        <v>7.8902500264888102</v>
-      </c>
-      <c r="B173">
-        <v>20.807499490062799</v>
-      </c>
-      <c r="C173">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <v>11.591719604732299</v>
-      </c>
-      <c r="B174">
-        <v>20.889691858422498</v>
-      </c>
-      <c r="C174">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>19.7958949097901</v>
-      </c>
-      <c r="B175">
-        <v>20.807499490062799</v>
-      </c>
-      <c r="C175">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176">
-        <v>9.9755008125477204E-2</v>
-      </c>
-      <c r="B176">
-        <v>5.6206822686478599</v>
-      </c>
-      <c r="C176">
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <v>0.14737130446344701</v>
-      </c>
-      <c r="B177">
-        <v>6.7382563305283796</v>
-      </c>
-      <c r="C177">
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>0.20249608011596201</v>
-      </c>
-      <c r="B178">
-        <v>7.8581629860075504</v>
-      </c>
-      <c r="C178">
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179">
-        <v>0.28136012509244301</v>
-      </c>
-      <c r="B179">
-        <v>9.1641995325839396</v>
-      </c>
-      <c r="C179">
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180">
-        <v>0.365641150776782</v>
-      </c>
-      <c r="B180">
-        <v>10.3964017306364</v>
-      </c>
-      <c r="C180">
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181">
-        <v>0.48318221247995502</v>
-      </c>
-      <c r="B181">
-        <v>11.7942836753473</v>
-      </c>
-      <c r="C181">
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182">
-        <v>0.72585940727864096</v>
-      </c>
-      <c r="B182">
-        <v>11.7942836753473</v>
-      </c>
-      <c r="C182">
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183">
-        <v>0.97537525392172897</v>
-      </c>
-      <c r="B183">
-        <v>11.7942836753473</v>
-      </c>
-      <c r="C183">
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184">
-        <v>1.4013427315076099</v>
-      </c>
-      <c r="B184">
-        <v>11.7478780071856</v>
-      </c>
-      <c r="C184">
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185">
-        <v>2.2382996588525002</v>
-      </c>
-      <c r="B185">
-        <v>11.7478780071856</v>
-      </c>
-      <c r="C185">
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186">
-        <v>3.4001809903817701</v>
-      </c>
-      <c r="B186">
-        <v>11.7942836753473</v>
-      </c>
-      <c r="C186">
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187">
-        <v>5.2230968191001699</v>
-      </c>
-      <c r="B187">
-        <v>11.7942836753473</v>
-      </c>
-      <c r="C187">
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188">
-        <v>8.3426099593552401</v>
-      </c>
-      <c r="B188">
-        <v>11.7942836753473</v>
-      </c>
-      <c r="C188">
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189">
-        <v>12.602729900022901</v>
-      </c>
-      <c r="B189">
-        <v>11.840872652021099</v>
-      </c>
-      <c r="C189">
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190">
-        <v>19.7958949097901</v>
-      </c>
-      <c r="B190">
-        <v>11.7942836753473</v>
-      </c>
-      <c r="C190">
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191">
-        <v>9.9200438277637498E-2</v>
-      </c>
-      <c r="B191">
-        <v>5.0931387472988296</v>
-      </c>
-      <c r="C191">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192">
-        <v>0.13108996934327999</v>
-      </c>
-      <c r="B192">
-        <v>5.7100196173370001</v>
-      </c>
-      <c r="C192">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193">
-        <v>0.17912328173772499</v>
-      </c>
-      <c r="B193">
-        <v>6.5807392223852803</v>
-      </c>
-      <c r="C193">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194">
-        <v>0.231485311438102</v>
-      </c>
-      <c r="B194">
-        <v>7.3198552306289502</v>
-      </c>
-      <c r="C194">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195">
-        <v>0.28610529843384902</v>
-      </c>
-      <c r="B195">
-        <v>8.04625661303694</v>
-      </c>
-      <c r="C195">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196">
-        <v>0.43220380872341901</v>
-      </c>
-      <c r="B196">
-        <v>8.0780403882940792</v>
-      </c>
-      <c r="C196">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197">
-        <v>0.65290693076143902</v>
-      </c>
-      <c r="B197">
-        <v>8.1099497136570804</v>
-      </c>
-      <c r="C197">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198">
-        <v>1.0428579158601201</v>
-      </c>
-      <c r="B198">
-        <v>8.1099497136570804</v>
-      </c>
-      <c r="C198">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199">
-        <v>1.61991944349628</v>
-      </c>
-      <c r="B199">
-        <v>8.0780403882940792</v>
-      </c>
-      <c r="C199">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200">
-        <v>2.6457679491632602</v>
-      </c>
-      <c r="B200">
-        <v>8.0780403882940792</v>
-      </c>
-      <c r="C200">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201">
-        <v>4.1097937491263297</v>
-      </c>
-      <c r="B201">
-        <v>8.0780403882940792</v>
-      </c>
-      <c r="C201">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202">
-        <v>5.7103924317751602</v>
-      </c>
-      <c r="B202">
-        <v>8.1099497136570804</v>
-      </c>
-      <c r="C202">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203">
-        <v>7.6733530106296399</v>
-      </c>
-      <c r="B203">
-        <v>8.1099497136570804</v>
-      </c>
-      <c r="C203">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204">
-        <v>11.591719604732299</v>
-      </c>
-      <c r="B204">
-        <v>8.1099497136570804</v>
-      </c>
-      <c r="C204">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205">
-        <v>19.6858432278318</v>
-      </c>
-      <c r="B205">
-        <v>8.1099497136570804</v>
-      </c>
-      <c r="C205">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206">
-        <v>9.9755008125477204E-2</v>
-      </c>
-      <c r="B206">
-        <v>4.59695061203072</v>
-      </c>
-      <c r="C206">
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207">
-        <v>0.138605554975231</v>
-      </c>
-      <c r="B207">
-        <v>5.2770933601804098</v>
-      </c>
-      <c r="C207">
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208">
-        <v>0.198030530527563</v>
-      </c>
-      <c r="B208">
-        <v>6.0578667648026601</v>
-      </c>
-      <c r="C208">
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209">
-        <v>0.32889239861033598</v>
-      </c>
-      <c r="B209">
-        <v>6.0340315440640797</v>
-      </c>
-      <c r="C209">
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210">
-        <v>0.519499895533439</v>
-      </c>
-      <c r="B210">
-        <v>6.0340315440640797</v>
-      </c>
-      <c r="C210">
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211">
-        <v>0.75896447645963105</v>
-      </c>
-      <c r="B211">
-        <v>6.0578667648026601</v>
-      </c>
-      <c r="C211">
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212">
-        <v>1.1275109957098599</v>
-      </c>
-      <c r="B212">
-        <v>6.0578667648026601</v>
-      </c>
-      <c r="C212">
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213">
-        <v>1.6843845147385501</v>
-      </c>
-      <c r="B213">
-        <v>6.0578667648026601</v>
-      </c>
-      <c r="C213">
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214">
-        <v>2.8765273814792298</v>
-      </c>
-      <c r="B214">
-        <v>6.0817961378080101</v>
-      </c>
-      <c r="C214">
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215">
-        <v>4.2259622609551704</v>
-      </c>
-      <c r="B215">
-        <v>6.0817961378080101</v>
-      </c>
-      <c r="C215">
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216">
-        <v>6.2780526157277903</v>
-      </c>
-      <c r="B216">
-        <v>6.0817961378080101</v>
-      </c>
-      <c r="C216">
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217">
-        <v>9.3787596297348497</v>
-      </c>
-      <c r="B217">
-        <v>6.0578667648026601</v>
-      </c>
-      <c r="C217">
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218">
-        <v>13.7785179814445</v>
-      </c>
-      <c r="B218">
-        <v>6.0817961378080101</v>
-      </c>
-      <c r="C218">
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219">
-        <v>19.906561824358</v>
-      </c>
-      <c r="B219">
-        <v>6.0578667648026601</v>
-      </c>
-      <c r="C219">
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220">
-        <v>9.9200438277637498E-2</v>
-      </c>
-      <c r="B220">
-        <v>4.1654920457165598</v>
-      </c>
-      <c r="C220">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221">
-        <v>0.11990342346401101</v>
-      </c>
-      <c r="B221">
-        <v>4.4894898193322996</v>
-      </c>
-      <c r="C221">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222">
-        <v>0.14094315481892999</v>
-      </c>
-      <c r="B222">
-        <v>4.7442434530968498</v>
-      </c>
-      <c r="C222">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223">
-        <v>0.193663457576909</v>
-      </c>
-      <c r="B223">
-        <v>4.7817982553057403</v>
-      </c>
-      <c r="C223">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224">
-        <v>0.26610398248021699</v>
-      </c>
-      <c r="B224">
-        <v>4.7629838406994596</v>
-      </c>
-      <c r="C224">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225">
-        <v>0.365641150776782</v>
-      </c>
-      <c r="B225">
-        <v>4.7629838406994596</v>
-      </c>
-      <c r="C225">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226">
-        <v>0.53418421631527502</v>
-      </c>
-      <c r="B226">
-        <v>4.7817982553057403</v>
-      </c>
-      <c r="C226">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227">
-        <v>0.79357940498044299</v>
-      </c>
-      <c r="B227">
-        <v>4.7817982553057403</v>
-      </c>
-      <c r="C227">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228">
-        <v>1.1658629214209</v>
-      </c>
-      <c r="B228">
-        <v>4.7817982553057403</v>
-      </c>
-      <c r="C228">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229">
-        <v>1.82111295555038</v>
-      </c>
-      <c r="B229">
-        <v>4.7629838406994596</v>
-      </c>
-      <c r="C229">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230">
-        <v>2.5162958093413699</v>
-      </c>
-      <c r="B230">
-        <v>4.7817982553057403</v>
-      </c>
-      <c r="C230">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231">
-        <v>3.7174052993118498</v>
-      </c>
-      <c r="B231">
-        <v>4.7817982553057403</v>
-      </c>
-      <c r="C231">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232">
-        <v>5.4309511725375597</v>
-      </c>
-      <c r="B232">
-        <v>4.8006869893321102</v>
-      </c>
-      <c r="C232">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233">
-        <v>7.6733530106296399</v>
-      </c>
-      <c r="B233">
-        <v>4.7817982553057403</v>
-      </c>
-      <c r="C233">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A234">
-        <v>12.188153750459</v>
-      </c>
-      <c r="B234">
-        <v>4.7817982553057403</v>
-      </c>
-      <c r="C234">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235">
-        <v>19.906561824358</v>
-      </c>
-      <c r="B235">
-        <v>4.8006869893321102</v>
-      </c>
-      <c r="C235">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236">
-        <v>9.9755008125477204E-2</v>
-      </c>
-      <c r="B236">
-        <v>3.8194357124656402</v>
-      </c>
-      <c r="C236">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A237">
-        <v>0.110901121828482</v>
-      </c>
-      <c r="B237">
-        <v>3.9108580356781499</v>
-      </c>
-      <c r="C237">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238">
-        <v>0.18625153442012399</v>
-      </c>
-      <c r="B238">
-        <v>3.9108580356781499</v>
-      </c>
-      <c r="C238">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A239">
-        <v>0.25735029456375302</v>
-      </c>
-      <c r="B239">
-        <v>3.9108580356781499</v>
-      </c>
-      <c r="C239">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240">
-        <v>0.38019192546410802</v>
-      </c>
-      <c r="B240">
-        <v>3.9108580356781499</v>
-      </c>
-      <c r="C240">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241">
-        <v>0.54319329925418203</v>
-      </c>
-      <c r="B241">
-        <v>3.92630644092378</v>
-      </c>
-      <c r="C241">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242">
-        <v>0.82977305465839102</v>
-      </c>
-      <c r="B242">
-        <v>3.92630644092378</v>
-      </c>
-      <c r="C242">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243">
-        <v>1.3704395878304301</v>
-      </c>
-      <c r="B243">
-        <v>3.92630644092378</v>
-      </c>
-      <c r="C243">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A244">
-        <v>2.0934607341073299</v>
-      </c>
-      <c r="B244">
-        <v>3.94181586940842</v>
-      </c>
-      <c r="C244">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245">
-        <v>3.5354919841855699</v>
-      </c>
-      <c r="B245">
-        <v>3.9108580356781499</v>
-      </c>
-      <c r="C245">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A246">
-        <v>5.07951783113361</v>
-      </c>
-      <c r="B246">
-        <v>3.94181586940842</v>
-      </c>
-      <c r="C246">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247">
-        <v>7.0185484063471399</v>
-      </c>
-      <c r="B247">
-        <v>3.94181586940842</v>
-      </c>
-      <c r="C247">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248">
-        <v>11.3994661961079</v>
-      </c>
-      <c r="B248">
-        <v>3.92630644092378</v>
-      </c>
-      <c r="C248">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249">
-        <v>19.7958949097901</v>
-      </c>
-      <c r="B249">
-        <v>3.94181586940842</v>
-      </c>
-      <c r="C249">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250">
-        <v>9.9755008125477204E-2</v>
-      </c>
-      <c r="B250">
-        <v>3.3271644327002599</v>
-      </c>
-      <c r="C250">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251">
-        <v>0.16846890216948601</v>
-      </c>
-      <c r="B251">
-        <v>3.3010338860909698</v>
-      </c>
-      <c r="C251">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252">
-        <v>0.27362574768875703</v>
-      </c>
-      <c r="B252">
-        <v>3.3140734054845802</v>
-      </c>
-      <c r="C252">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A253">
-        <v>0.44690508297019998</v>
-      </c>
-      <c r="B253">
-        <v>3.3140734054845802</v>
-      </c>
-      <c r="C253">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254">
-        <v>0.74637674033421098</v>
-      </c>
-      <c r="B254">
-        <v>3.3271644327002599</v>
-      </c>
-      <c r="C254">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A255">
-        <v>1.20551937561224</v>
-      </c>
-      <c r="B255">
-        <v>3.3271644327002599</v>
-      </c>
-      <c r="C255">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A256">
-        <v>1.8518262509952399</v>
-      </c>
-      <c r="B256">
-        <v>3.3010338860909698</v>
-      </c>
-      <c r="C256">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A257">
-        <v>2.7205539223922202</v>
-      </c>
-      <c r="B257">
-        <v>3.3271644327002599</v>
-      </c>
-      <c r="C257">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258">
-        <v>3.9525029734689698</v>
-      </c>
-      <c r="B258">
-        <v>3.3271644327002599</v>
-      </c>
-      <c r="C258">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A259">
-        <v>6.2431509225771604</v>
-      </c>
-      <c r="B259">
-        <v>3.34030717120068</v>
-      </c>
-      <c r="C259">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260">
-        <v>9.0198140312656907</v>
-      </c>
-      <c r="B260">
-        <v>3.3271644327002599</v>
-      </c>
-      <c r="C260">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A261">
-        <v>12.8152764999751</v>
-      </c>
-      <c r="B261">
-        <v>3.3271644327002599</v>
-      </c>
-      <c r="C261">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A262">
-        <v>19.7958949097901</v>
-      </c>
-      <c r="B262">
-        <v>3.34030717120068</v>
-      </c>
-      <c r="C262">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263">
-        <v>0.1</v>
-      </c>
-      <c r="B263">
-        <v>200</v>
-      </c>
-      <c r="C263">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264">
-        <v>19.576403358209198</v>
-      </c>
-      <c r="B264">
-        <v>99.919916969043598</v>
-      </c>
-      <c r="C264">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265">
-        <v>13.104258469307</v>
-      </c>
-      <c r="B265">
-        <v>99.526773083645693</v>
-      </c>
-      <c r="C265">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A266">
-        <v>19.7958949097901</v>
-      </c>
-      <c r="B266">
-        <v>148.791567535246</v>
-      </c>
-      <c r="C266">
-        <v>1.5</v>
       </c>
     </row>
   </sheetData>
